--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="312">
   <si>
     <t>Conference</t>
   </si>
@@ -933,6 +933,30 @@
   <si>
     <t>talks/SCT 2021 estimand onco.pdf</t>
   </si>
+  <si>
+    <t>DIA webinar: Estimands How and Why - A Real Life Case Study in Oncology</t>
+  </si>
+  <si>
+    <t>ASA Biopharmaceutical Section Regulatory-Industry Statistics Workshop 2021</t>
+  </si>
+  <si>
+    <t>https://ww2.amstat.org/meetings/biop/2021/</t>
+  </si>
+  <si>
+    <t>Invited training</t>
+  </si>
+  <si>
+    <t>Invited talks and panel discussion</t>
+  </si>
+  <si>
+    <t>Devan Mehrotra</t>
+  </si>
+  <si>
+    <t>Contributed topic session</t>
+  </si>
+  <si>
+    <t>Satrajit Roychoudhury</t>
+  </si>
 </sst>
 </file>
 
@@ -941,7 +965,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -996,6 +1020,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1018,7 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1105,6 +1135,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1419,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO993"/>
+  <dimension ref="A1:AO995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,7 +3590,7 @@
         <v>121</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="H31" s="30" t="s">
         <v>215</v>
@@ -3639,31 +3670,49 @@
       <c r="AO31" s="6"/>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="6"/>
+      <c r="A32" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" s="22">
+        <v>44460</v>
+      </c>
+      <c r="C32" s="22">
+        <v>44463</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
@@ -3682,31 +3731,51 @@
       <c r="AO32" s="6"/>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="6"/>
+      <c r="A33" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" s="22">
+        <v>44460</v>
+      </c>
+      <c r="C33" s="22">
+        <v>44463</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
@@ -3725,32 +3794,70 @@
       <c r="AO33" s="6"/>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
+      <c r="A34" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B34" s="22">
+        <v>44467</v>
+      </c>
+      <c r="C34" s="22">
+        <v>44467</v>
+      </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="J34" s="27"/>
+      <c r="K34" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" s="27"/>
+      <c r="N34" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="R34" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="S34" s="27"/>
+      <c r="T34" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="U34" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="V34" s="27"/>
+      <c r="W34" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="X34" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
@@ -11508,90 +11615,90 @@
       <c r="AO214" s="6"/>
     </row>
     <row r="215" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A215" s="10"/>
-      <c r="B215" s="23"/>
-      <c r="C215" s="23"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
+      <c r="A215" s="6"/>
+      <c r="B215" s="22"/>
+      <c r="C215" s="22"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
       <c r="G215" s="19"/>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
       <c r="J215" s="19"/>
-      <c r="K215" s="10"/>
-      <c r="L215" s="10"/>
-      <c r="M215" s="10"/>
-      <c r="N215" s="10"/>
-      <c r="O215" s="10"/>
-      <c r="P215" s="10"/>
-      <c r="Q215" s="10"/>
-      <c r="R215" s="10"/>
-      <c r="S215" s="10"/>
-      <c r="T215" s="10"/>
-      <c r="U215" s="10"/>
-      <c r="V215" s="10"/>
-      <c r="W215" s="10"/>
-      <c r="X215" s="10"/>
-      <c r="Y215" s="10"/>
-      <c r="Z215" s="10"/>
-      <c r="AA215" s="10"/>
-      <c r="AB215" s="10"/>
-      <c r="AC215" s="10"/>
-      <c r="AD215" s="10"/>
-      <c r="AE215" s="10"/>
-      <c r="AF215" s="10"/>
-      <c r="AG215" s="10"/>
-      <c r="AH215" s="10"/>
-      <c r="AI215" s="10"/>
-      <c r="AJ215" s="10"/>
-      <c r="AK215" s="10"/>
-      <c r="AL215" s="10"/>
-      <c r="AM215" s="10"/>
-      <c r="AN215" s="10"/>
-      <c r="AO215" s="10"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+      <c r="U215" s="1"/>
+      <c r="V215" s="1"/>
+      <c r="W215" s="1"/>
+      <c r="X215" s="1"/>
+      <c r="Y215" s="6"/>
+      <c r="Z215" s="6"/>
+      <c r="AA215" s="6"/>
+      <c r="AB215" s="6"/>
+      <c r="AC215" s="6"/>
+      <c r="AD215" s="6"/>
+      <c r="AE215" s="6"/>
+      <c r="AF215" s="6"/>
+      <c r="AG215" s="6"/>
+      <c r="AH215" s="6"/>
+      <c r="AI215" s="6"/>
+      <c r="AJ215" s="6"/>
+      <c r="AK215" s="6"/>
+      <c r="AL215" s="6"/>
+      <c r="AM215" s="6"/>
+      <c r="AN215" s="6"/>
+      <c r="AO215" s="6"/>
     </row>
     <row r="216" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A216" s="10"/>
-      <c r="B216" s="23"/>
-      <c r="C216" s="23"/>
-      <c r="D216" s="10"/>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
+      <c r="A216" s="6"/>
+      <c r="B216" s="22"/>
+      <c r="C216" s="22"/>
+      <c r="D216" s="9"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
       <c r="G216" s="19"/>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
       <c r="J216" s="19"/>
-      <c r="K216" s="10"/>
-      <c r="L216" s="10"/>
-      <c r="M216" s="10"/>
-      <c r="N216" s="10"/>
-      <c r="O216" s="10"/>
-      <c r="P216" s="10"/>
-      <c r="Q216" s="10"/>
-      <c r="R216" s="10"/>
-      <c r="S216" s="10"/>
-      <c r="T216" s="10"/>
-      <c r="U216" s="10"/>
-      <c r="V216" s="10"/>
-      <c r="W216" s="10"/>
-      <c r="X216" s="10"/>
-      <c r="Y216" s="10"/>
-      <c r="Z216" s="10"/>
-      <c r="AA216" s="10"/>
-      <c r="AB216" s="10"/>
-      <c r="AC216" s="10"/>
-      <c r="AD216" s="10"/>
-      <c r="AE216" s="10"/>
-      <c r="AF216" s="10"/>
-      <c r="AG216" s="10"/>
-      <c r="AH216" s="10"/>
-      <c r="AI216" s="10"/>
-      <c r="AJ216" s="10"/>
-      <c r="AK216" s="10"/>
-      <c r="AL216" s="10"/>
-      <c r="AM216" s="10"/>
-      <c r="AN216" s="10"/>
-      <c r="AO216" s="10"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+      <c r="U216" s="1"/>
+      <c r="V216" s="1"/>
+      <c r="W216" s="1"/>
+      <c r="X216" s="1"/>
+      <c r="Y216" s="6"/>
+      <c r="Z216" s="6"/>
+      <c r="AA216" s="6"/>
+      <c r="AB216" s="6"/>
+      <c r="AC216" s="6"/>
+      <c r="AD216" s="6"/>
+      <c r="AE216" s="6"/>
+      <c r="AF216" s="6"/>
+      <c r="AG216" s="6"/>
+      <c r="AH216" s="6"/>
+      <c r="AI216" s="6"/>
+      <c r="AJ216" s="6"/>
+      <c r="AK216" s="6"/>
+      <c r="AL216" s="6"/>
+      <c r="AM216" s="6"/>
+      <c r="AN216" s="6"/>
+      <c r="AO216" s="6"/>
     </row>
     <row r="217" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
@@ -45003,6 +45110,92 @@
       <c r="AM993" s="10"/>
       <c r="AN993" s="10"/>
       <c r="AO993" s="10"/>
+    </row>
+    <row r="994" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A994" s="10"/>
+      <c r="B994" s="23"/>
+      <c r="C994" s="23"/>
+      <c r="D994" s="10"/>
+      <c r="E994" s="10"/>
+      <c r="F994" s="10"/>
+      <c r="G994" s="19"/>
+      <c r="H994" s="19"/>
+      <c r="I994" s="19"/>
+      <c r="J994" s="19"/>
+      <c r="K994" s="10"/>
+      <c r="L994" s="10"/>
+      <c r="M994" s="10"/>
+      <c r="N994" s="10"/>
+      <c r="O994" s="10"/>
+      <c r="P994" s="10"/>
+      <c r="Q994" s="10"/>
+      <c r="R994" s="10"/>
+      <c r="S994" s="10"/>
+      <c r="T994" s="10"/>
+      <c r="U994" s="10"/>
+      <c r="V994" s="10"/>
+      <c r="W994" s="10"/>
+      <c r="X994" s="10"/>
+      <c r="Y994" s="10"/>
+      <c r="Z994" s="10"/>
+      <c r="AA994" s="10"/>
+      <c r="AB994" s="10"/>
+      <c r="AC994" s="10"/>
+      <c r="AD994" s="10"/>
+      <c r="AE994" s="10"/>
+      <c r="AF994" s="10"/>
+      <c r="AG994" s="10"/>
+      <c r="AH994" s="10"/>
+      <c r="AI994" s="10"/>
+      <c r="AJ994" s="10"/>
+      <c r="AK994" s="10"/>
+      <c r="AL994" s="10"/>
+      <c r="AM994" s="10"/>
+      <c r="AN994" s="10"/>
+      <c r="AO994" s="10"/>
+    </row>
+    <row r="995" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A995" s="10"/>
+      <c r="B995" s="23"/>
+      <c r="C995" s="23"/>
+      <c r="D995" s="10"/>
+      <c r="E995" s="10"/>
+      <c r="F995" s="10"/>
+      <c r="G995" s="19"/>
+      <c r="H995" s="19"/>
+      <c r="I995" s="19"/>
+      <c r="J995" s="19"/>
+      <c r="K995" s="10"/>
+      <c r="L995" s="10"/>
+      <c r="M995" s="10"/>
+      <c r="N995" s="10"/>
+      <c r="O995" s="10"/>
+      <c r="P995" s="10"/>
+      <c r="Q995" s="10"/>
+      <c r="R995" s="10"/>
+      <c r="S995" s="10"/>
+      <c r="T995" s="10"/>
+      <c r="U995" s="10"/>
+      <c r="V995" s="10"/>
+      <c r="W995" s="10"/>
+      <c r="X995" s="10"/>
+      <c r="Y995" s="10"/>
+      <c r="Z995" s="10"/>
+      <c r="AA995" s="10"/>
+      <c r="AB995" s="10"/>
+      <c r="AC995" s="10"/>
+      <c r="AD995" s="10"/>
+      <c r="AE995" s="10"/>
+      <c r="AF995" s="10"/>
+      <c r="AG995" s="10"/>
+      <c r="AH995" s="10"/>
+      <c r="AI995" s="10"/>
+      <c r="AJ995" s="10"/>
+      <c r="AK995" s="10"/>
+      <c r="AL995" s="10"/>
+      <c r="AM995" s="10"/>
+      <c r="AN995" s="10"/>
+      <c r="AO995" s="10"/>
     </row>
   </sheetData>
   <sortState ref="A2:AO993">

--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -1827,8 +1827,8 @@
   <dimension ref="A1:AT994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:F49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="408">
   <si>
     <t>Conference</t>
   </si>
@@ -1232,6 +1232,18 @@
   <si>
     <t>talks/20211216_Rufibach_RSS.pdf</t>
   </si>
+  <si>
+    <t>University of Manchester's Graham Dunn Seminar</t>
+  </si>
+  <si>
+    <t>https://www.eventbrite.co.uk/e/the-graham-dunn-seminar-online-estimands-tickets-258567551507</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>ICH E9 estimands addendum: Old wine in new bottles or a genuine step forward?</t>
+  </si>
 </sst>
 </file>
 
@@ -1373,7 +1385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1510,6 +1522,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1827,15 +1842,14 @@
   <dimension ref="A1:AT994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="108.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.7109375" style="50" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
@@ -2001,15 +2015,15 @@
         <v>38</v>
       </c>
       <c r="B2" s="8">
-        <f>VALUE(MID(E2, 9, 2))</f>
+        <f t="shared" ref="B2:B49" si="0">VALUE(MID(E2, 9, 2))</f>
         <v>19</v>
       </c>
       <c r="C2" s="8">
-        <f>VALUE(MID(E2, 4, 2))</f>
+        <f t="shared" ref="C2:C49" si="1">VALUE(MID(E2, 4, 2))</f>
         <v>2</v>
       </c>
       <c r="D2" s="8">
-        <f>VALUE(MID(E2, 1, 2))</f>
+        <f t="shared" ref="D2:D50" si="2">VALUE(MID(E2, 1, 2))</f>
         <v>15</v>
       </c>
       <c r="E2" s="47" t="s">
@@ -2078,15 +2092,15 @@
         <v>47</v>
       </c>
       <c r="B3" s="8">
-        <f>VALUE(MID(E3, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C3" s="8">
-        <f>VALUE(MID(E3, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D3" s="8">
-        <f>VALUE(MID(E3, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="E3" s="47" t="s">
@@ -2173,15 +2187,15 @@
         <v>65</v>
       </c>
       <c r="B4" s="8">
-        <f>VALUE(MID(E4, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C4" s="8">
-        <f>VALUE(MID(E4, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D4" s="8">
-        <f>VALUE(MID(E4, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="E4" s="47" t="s">
@@ -2268,15 +2282,15 @@
         <v>84</v>
       </c>
       <c r="B5" s="8">
-        <f>VALUE(MID(E5, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C5" s="8">
-        <f>VALUE(MID(E5, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D5" s="8">
-        <f>VALUE(MID(E5, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E5" s="47" t="s">
@@ -2351,15 +2365,15 @@
         <v>93</v>
       </c>
       <c r="B6" s="8">
-        <f>VALUE(MID(E6, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C6" s="8">
-        <f>VALUE(MID(E6, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D6" s="8">
-        <f>VALUE(MID(E6, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="E6" s="47" t="s">
@@ -2428,15 +2442,15 @@
         <v>102</v>
       </c>
       <c r="B7" s="8">
-        <f>VALUE(MID(E7, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C7" s="8">
-        <f>VALUE(MID(E7, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D7" s="8">
-        <f>VALUE(MID(E7, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="E7" s="47" t="s">
@@ -2505,15 +2519,15 @@
         <v>111</v>
       </c>
       <c r="B8" s="8">
-        <f>VALUE(MID(E8, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C8" s="8">
-        <f>VALUE(MID(E8, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D8" s="8">
-        <f>VALUE(MID(E8, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="E8" s="47" t="s">
@@ -2600,15 +2614,15 @@
         <v>127</v>
       </c>
       <c r="B9" s="8">
-        <f>VALUE(MID(E9, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C9" s="8">
-        <f>VALUE(MID(E9, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D9" s="8">
-        <f>VALUE(MID(E9, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="E9" s="47" t="s">
@@ -2677,15 +2691,15 @@
         <v>135</v>
       </c>
       <c r="B10" s="8">
-        <f>VALUE(MID(E10, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C10" s="8">
-        <f>VALUE(MID(E10, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D10" s="8">
-        <f>VALUE(MID(E10, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="E10" s="47" t="s">
@@ -2766,15 +2780,15 @@
         <v>148</v>
       </c>
       <c r="B11" s="8">
-        <f>VALUE(MID(E11, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C11" s="8">
-        <f>VALUE(MID(E11, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D11" s="8">
-        <f>VALUE(MID(E11, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="E11" s="47" t="s">
@@ -2849,15 +2863,15 @@
         <v>161</v>
       </c>
       <c r="B12" s="8">
-        <f>VALUE(MID(E12, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C12" s="8">
-        <f>VALUE(MID(E12, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D12" s="8">
-        <f>VALUE(MID(E12, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E12" s="47" t="s">
@@ -2926,15 +2940,15 @@
         <v>168</v>
       </c>
       <c r="B13" s="8">
-        <f>VALUE(MID(E13, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C13" s="8">
-        <f>VALUE(MID(E13, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D13" s="8">
-        <f>VALUE(MID(E13, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E13" s="47" t="s">
@@ -3003,15 +3017,15 @@
         <v>174</v>
       </c>
       <c r="B14" s="8">
-        <f>VALUE(MID(E14, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C14" s="8">
-        <f>VALUE(MID(E14, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D14" s="8">
-        <f>VALUE(MID(E14, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E14" s="47" t="s">
@@ -3084,15 +3098,15 @@
         <v>181</v>
       </c>
       <c r="B15" s="8">
-        <f>VALUE(MID(E15, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C15" s="8">
-        <f>VALUE(MID(E15, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D15" s="8">
-        <f>VALUE(MID(E15, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E15" s="47" t="s">
@@ -3161,15 +3175,15 @@
         <v>186</v>
       </c>
       <c r="B16" s="8">
-        <f>VALUE(MID(E16, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C16" s="8">
-        <f>VALUE(MID(E16, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D16" s="8">
-        <f>VALUE(MID(E16, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="E16" s="47" t="s">
@@ -3280,15 +3294,15 @@
         <v>111</v>
       </c>
       <c r="B17" s="8">
-        <f>VALUE(MID(E17, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C17" s="8">
-        <f>VALUE(MID(E17, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D17" s="8">
-        <f>VALUE(MID(E17, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E17" s="47" t="s">
@@ -3373,15 +3387,15 @@
         <v>222</v>
       </c>
       <c r="B18" s="8">
-        <f>VALUE(MID(E18, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C18" s="8">
-        <f>VALUE(MID(E18, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D18" s="8">
-        <f>VALUE(MID(E18, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E18" s="47" t="s">
@@ -3456,15 +3470,15 @@
         <v>135</v>
       </c>
       <c r="B19" s="8">
-        <f>VALUE(MID(E19, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C19" s="8">
-        <f>VALUE(MID(E19, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D19" s="8">
-        <f>VALUE(MID(E19, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="E19" s="47" t="s">
@@ -3533,15 +3547,15 @@
         <v>234</v>
       </c>
       <c r="B20" s="8">
-        <f>VALUE(MID(E20, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C20" s="8">
-        <f>VALUE(MID(E20, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D20" s="8">
-        <f>VALUE(MID(E20, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E20" s="47" t="s">
@@ -3610,15 +3624,15 @@
         <v>240</v>
       </c>
       <c r="B21" s="8">
-        <f>VALUE(MID(E21, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C21" s="8">
-        <f>VALUE(MID(E21, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D21" s="8">
-        <f>VALUE(MID(E21, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="E21" s="47" t="s">
@@ -3693,15 +3707,15 @@
         <v>246</v>
       </c>
       <c r="B22" s="8">
-        <f>VALUE(MID(E22, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="8">
-        <f>VALUE(MID(E22, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D22" s="8">
-        <f>VALUE(MID(E22, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="E22" s="47" t="s">
@@ -3776,15 +3790,15 @@
         <v>252</v>
       </c>
       <c r="B23" s="8">
-        <f>VALUE(MID(E23, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C23" s="8">
-        <f>VALUE(MID(E23, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D23" s="8">
-        <f>VALUE(MID(E23, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E23" s="47" t="s">
@@ -3857,15 +3871,15 @@
         <v>257</v>
       </c>
       <c r="B24" s="8">
-        <f>VALUE(MID(E24, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C24" s="8">
-        <f>VALUE(MID(E24, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D24" s="8">
-        <f>VALUE(MID(E24, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E24" s="47" t="s">
@@ -3940,15 +3954,15 @@
         <v>263</v>
       </c>
       <c r="B25" s="8">
-        <f>VALUE(MID(E25, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C25" s="8">
-        <f>VALUE(MID(E25, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D25" s="8">
-        <f>VALUE(MID(E25, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E25" s="47" t="s">
@@ -4017,15 +4031,15 @@
         <v>269</v>
       </c>
       <c r="B26" s="8">
-        <f>VALUE(MID(E26, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C26" s="8">
-        <f>VALUE(MID(E26, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D26" s="8">
-        <f>VALUE(MID(E26, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E26" s="47" t="s">
@@ -4116,15 +4130,15 @@
         <v>275</v>
       </c>
       <c r="B27" s="8">
-        <f>VALUE(MID(E27, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C27" s="8">
-        <f>VALUE(MID(E27, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D27" s="8">
-        <f>VALUE(MID(E27, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E27" s="47" t="s">
@@ -4229,15 +4243,15 @@
         <v>111</v>
       </c>
       <c r="B28" s="8">
-        <f>VALUE(MID(E28, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C28" s="8">
-        <f>VALUE(MID(E28, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D28" s="8">
-        <f>VALUE(MID(E28, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E28" s="47" t="s">
@@ -4320,15 +4334,15 @@
         <v>400</v>
       </c>
       <c r="B29" s="8">
-        <f>VALUE(MID(E29, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C29" s="8">
-        <f>VALUE(MID(E29, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D29" s="8">
-        <f>VALUE(MID(E29, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="E29" s="47" t="str">
@@ -4397,15 +4411,15 @@
         <v>135</v>
       </c>
       <c r="B30" s="8">
-        <f>VALUE(MID(E30, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C30" s="8">
-        <f>VALUE(MID(E30, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D30" s="8">
-        <f>VALUE(MID(E30, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E30" s="47" t="s">
@@ -4478,15 +4492,15 @@
         <v>135</v>
       </c>
       <c r="B31" s="8">
-        <f>VALUE(MID(E31, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C31" s="8">
-        <f>VALUE(MID(E31, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D31" s="8">
-        <f>VALUE(MID(E31, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E31" s="47" t="s">
@@ -4575,15 +4589,15 @@
         <v>135</v>
       </c>
       <c r="B32" s="8">
-        <f>VALUE(MID(E32, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C32" s="8">
-        <f>VALUE(MID(E32, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D32" s="8">
-        <f>VALUE(MID(E32, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E32" s="47" t="s">
@@ -4662,15 +4676,15 @@
         <v>322</v>
       </c>
       <c r="B33" s="8">
-        <f>VALUE(MID(E33, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C33" s="8">
-        <f>VALUE(MID(E33, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D33" s="8">
-        <f>VALUE(MID(E33, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="E33" s="47" t="s">
@@ -4775,15 +4789,15 @@
         <v>327</v>
       </c>
       <c r="B34" s="8">
-        <f>VALUE(MID(E34, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C34" s="8">
-        <f>VALUE(MID(E34, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D34" s="8">
-        <f>VALUE(MID(E34, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="E34" s="47" t="s">
@@ -4855,15 +4869,15 @@
         <v>398</v>
       </c>
       <c r="B35" s="8">
-        <f>VALUE(MID(E35, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C35" s="8">
-        <f>VALUE(MID(E35, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D35" s="8">
-        <f>VALUE(MID(E35, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="E35" s="47" t="str">
@@ -4933,15 +4947,15 @@
         <v>47</v>
       </c>
       <c r="B36" s="8">
-        <f>VALUE(MID(E36, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C36" s="8">
-        <f>VALUE(MID(E36, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D36" s="8">
-        <f>VALUE(MID(E36, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="E36" s="47" t="s">
@@ -5002,15 +5016,15 @@
         <v>269</v>
       </c>
       <c r="B37" s="8">
-        <f>VALUE(MID(E37, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C37" s="8">
-        <f>VALUE(MID(E37, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D37" s="8">
-        <f>VALUE(MID(E37, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="E37" s="47" t="s">
@@ -5077,15 +5091,15 @@
         <v>347</v>
       </c>
       <c r="B38" s="8">
-        <f>VALUE(MID(E38, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C38" s="8">
-        <f>VALUE(MID(E38, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D38" s="8">
-        <f>VALUE(MID(E38, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="E38" s="47" t="str">
@@ -5147,15 +5161,15 @@
         <v>84</v>
       </c>
       <c r="B39" s="8">
-        <f>VALUE(MID(E39, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C39" s="8">
-        <f>VALUE(MID(E39, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D39" s="8">
-        <f>VALUE(MID(E39, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="E39" s="47" t="s">
@@ -5224,15 +5238,15 @@
         <v>360</v>
       </c>
       <c r="B40" s="8">
-        <f>VALUE(MID(E40, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C40" s="8">
-        <f>VALUE(MID(E40, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D40" s="8">
-        <f>VALUE(MID(E40, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E40" s="47" t="s">
@@ -5297,15 +5311,15 @@
         <v>111</v>
       </c>
       <c r="B41" s="8">
-        <f>VALUE(MID(E41, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C41" s="8">
-        <f>VALUE(MID(E41, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D41" s="8">
-        <f>VALUE(MID(E41, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E41" s="47" t="s">
@@ -5370,15 +5384,15 @@
         <v>102</v>
       </c>
       <c r="B42" s="8">
-        <f>VALUE(MID(E42, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C42" s="8">
-        <f>VALUE(MID(E42, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D42" s="8">
-        <f>VALUE(MID(E42, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E42" s="47" t="s">
@@ -5443,15 +5457,15 @@
         <v>135</v>
       </c>
       <c r="B43" s="8">
-        <f>VALUE(MID(E43, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C43" s="8">
-        <f>VALUE(MID(E43, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D43" s="8">
-        <f>VALUE(MID(E43, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E43" s="47" t="s">
@@ -5516,15 +5530,15 @@
         <v>383</v>
       </c>
       <c r="B44" s="8">
-        <f>VALUE(MID(E44, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C44" s="8">
-        <f>VALUE(MID(E44, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D44" s="8">
-        <f>VALUE(MID(E44, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="E44" s="47" t="s">
@@ -5589,15 +5603,15 @@
         <v>391</v>
       </c>
       <c r="B45" s="8">
-        <f>VALUE(MID(E45, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C45" s="8">
-        <f>VALUE(MID(E45, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D45" s="8">
-        <f>VALUE(MID(E45, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="E45" s="47" t="s">
@@ -5658,15 +5672,15 @@
         <v>263</v>
       </c>
       <c r="B46" s="8">
-        <f>VALUE(MID(E46, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C46" s="8">
-        <f>VALUE(MID(E46, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D46" s="8">
-        <f>VALUE(MID(E46, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="E46" s="47" t="s">
@@ -5719,15 +5733,15 @@
         <v>252</v>
       </c>
       <c r="B47" s="8">
-        <f>VALUE(MID(E47, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C47" s="8">
-        <f>VALUE(MID(E47, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D47" s="8">
-        <f>VALUE(MID(E47, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="E47" s="47" t="s">
@@ -5780,15 +5794,15 @@
         <v>65</v>
       </c>
       <c r="B48" s="8">
-        <f>VALUE(MID(E48, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C48" s="8">
-        <f>VALUE(MID(E48, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D48" s="8">
-        <f>VALUE(MID(E48, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="E48" s="47" t="s">
@@ -5841,15 +5855,15 @@
         <v>397</v>
       </c>
       <c r="B49" s="8">
-        <f>VALUE(MID(E49, 9, 2))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C49" s="8">
-        <f>VALUE(MID(E49, 4, 2))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D49" s="8">
-        <f>VALUE(MID(E49, 1, 2))</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="E49" s="47" t="s">
@@ -5900,22 +5914,46 @@
       <c r="AT49" s="15"/>
     </row>
     <row r="50" spans="1:46">
-      <c r="A50" s="15"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
+      <c r="A50" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B50" s="8">
+        <v>22</v>
+      </c>
+      <c r="C50" s="8">
+        <v>3</v>
+      </c>
+      <c r="D50" s="8">
+        <v>23</v>
+      </c>
+      <c r="E50" s="51">
+        <v>44643</v>
+      </c>
+      <c r="F50" s="47"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="13"/>
+      <c r="H50" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>231</v>
+      </c>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="9"/>
+      <c r="N50" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O50" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" s="43" t="s">
+        <v>407</v>
+      </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>

--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -531,16 +531,10 @@
     <t>06.05.2020</t>
   </si>
   <si>
-    <t>http://bbs.ceb-institute.org/?p=1476</t>
-  </si>
-  <si>
     <t>Webinar</t>
   </si>
   <si>
     <t>Short overview on COVID-19 from the Cross-Industry Oncology Estimands Working Group</t>
-  </si>
-  <si>
-    <t>http://bbs.ceb-institute.org/wp-content/uploads/2020/05/BBS-Webinar-covid19-onco-estimand-WG.pptx</t>
   </si>
   <si>
     <t>Estimands in Oncology Virtual Panel Discussion (organized by Cytel)</t>
@@ -583,9 +577,6 @@
   </si>
   <si>
     <t>29.06.2020</t>
-  </si>
-  <si>
-    <t>http://bbs.ceb-institute.org/?p=1453</t>
   </si>
   <si>
     <t>Introduction</t>
@@ -693,16 +684,7 @@
     <t>07.09.2020</t>
   </si>
   <si>
-    <t>http://bbs.ceb-institute.org/?p=1587</t>
-  </si>
-  <si>
-    <t>http://bbs.ceb-institute.org/wp-content/uploads/2020/09/01-Rufibach.pdf</t>
-  </si>
-  <si>
     <t>Principal Stratum Strategy: Potential Role in Drug Development</t>
-  </si>
-  <si>
-    <t>http://bbs.ceb-institute.org/wp-content/uploads/2020/09/05-Bornkamp.pdf</t>
   </si>
   <si>
     <t>22.09.2020</t>
@@ -1243,6 +1225,24 @@
   </si>
   <si>
     <t>ICH E9 estimands addendum: Old wine in new bottles or a genuine step forward?</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20200506/agenda.pdf</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20200506/6_Degtyarev.pdf</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20200629/agenda.pdf</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20200907/agenda.pdf</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20200907/1_Rufibach.pdf</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20200907/5_Bornkamp.pdf</t>
   </si>
 </sst>
 </file>
@@ -1841,9 +1841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2023,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="8">
-        <f t="shared" ref="D2:D50" si="2">VALUE(MID(E2, 1, 2))</f>
+        <f t="shared" ref="D2:D49" si="2">VALUE(MID(E2, 1, 2))</f>
         <v>15</v>
       </c>
       <c r="E2" s="47" t="s">
@@ -2959,14 +2959,14 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="10" t="s">
-        <v>170</v>
+        <v>402</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="7" t="s">
         <v>132</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
@@ -2977,10 +2977,10 @@
         <v>44</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>173</v>
+        <v>403</v>
       </c>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="14" spans="1:46">
       <c r="A14" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B14" s="8">
         <f t="shared" si="0"/>
@@ -3029,41 +3029,41 @@
         <v>21</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="7" t="s">
         <v>70</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O14" s="11" t="s">
         <v>53</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R14" s="11" t="s">
         <v>124</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="15" spans="1:46">
       <c r="A15" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B15" s="8">
         <f t="shared" si="0"/>
@@ -3110,35 +3110,35 @@
         <v>11</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I15" s="24"/>
       <c r="J15" s="7" t="s">
         <v>89</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O15" s="11" t="s">
         <v>53</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="16" spans="1:46">
       <c r="A16" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" s="8">
         <f t="shared" si="0"/>
@@ -3187,21 +3187,21 @@
         <v>29</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="23" t="s">
-        <v>188</v>
+        <v>404</v>
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="7" t="s">
         <v>132</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -3212,73 +3212,73 @@
         <v>53</v>
       </c>
       <c r="P16" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="S16" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="T16" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="U16" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="W16" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="X16" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="Y16" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="W16" s="11" t="s">
+      <c r="Z16" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="X16" s="11" t="s">
+      <c r="AA16" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="Y16" s="11" t="s">
+      <c r="AB16" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="Z16" s="11" t="s">
+      <c r="AC16" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="AA16" s="11" t="s">
+      <c r="AD16" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="AB16" s="14" t="s">
+      <c r="AE16" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="AC16" s="29" t="s">
+      <c r="AF16" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="AD16" s="29" t="s">
+      <c r="AG16" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="AE16" s="29" t="s">
+      <c r="AH16" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="AF16" s="29" t="s">
+      <c r="AI16" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="AG16" s="29" t="s">
+      <c r="AJ16" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK16" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="AH16" s="29" t="s">
+      <c r="AL16" s="29" t="s">
         <v>207</v>
-      </c>
-      <c r="AI16" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="AJ16" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK16" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL16" s="29" t="s">
-        <v>210</v>
       </c>
       <c r="AM16" s="13"/>
       <c r="AN16" s="13"/>
@@ -3306,17 +3306,17 @@
         <v>1</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>70</v>
@@ -3331,37 +3331,37 @@
         <v>72</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T17" s="11"/>
       <c r="U17" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="W17" s="11"/>
       <c r="X17" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AB17" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AC17" s="13"/>
       <c r="AD17" s="13"/>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="18" spans="1:46">
       <c r="A18" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B18" s="8">
         <f t="shared" si="0"/>
@@ -3399,21 +3399,21 @@
         <v>7</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="26" t="s">
-        <v>224</v>
+        <v>405</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="7" t="s">
         <v>132</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="16"/>
@@ -3424,19 +3424,19 @@
         <v>53</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>225</v>
+        <v>406</v>
       </c>
       <c r="R18" s="11" t="s">
         <v>56</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="T18" s="23" t="s">
-        <v>227</v>
+        <v>407</v>
       </c>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
@@ -3482,21 +3482,21 @@
         <v>22</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="26" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="7" t="s">
         <v>70</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -3507,10 +3507,10 @@
         <v>72</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="20" spans="1:46">
       <c r="A20" s="11" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B20" s="8">
         <f t="shared" si="0"/>
@@ -3559,21 +3559,21 @@
         <v>5</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -3584,10 +3584,10 @@
         <v>44</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="21" spans="1:46">
       <c r="A21" s="19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B21" s="8">
         <f t="shared" si="0"/>
@@ -3636,44 +3636,44 @@
         <v>17</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="26" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="14" t="s">
         <v>132</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="29" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="O21" s="29" t="s">
         <v>53</v>
       </c>
       <c r="P21" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q21" s="30" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="R21" s="29" t="s">
         <v>56</v>
       </c>
       <c r="S21" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="T21" s="30" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U21" s="29"/>
       <c r="V21" s="29"/>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="22" spans="1:46">
       <c r="A22" s="19" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B22" s="8">
         <f t="shared" si="0"/>
@@ -3719,21 +3719,21 @@
         <v>27</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="26" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="14" t="s">
         <v>42</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -3741,22 +3741,22 @@
         <v>43</v>
       </c>
       <c r="O22" s="29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P22" s="29" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="R22" s="29" t="s">
         <v>53</v>
       </c>
       <c r="S22" s="29" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="T22" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="23" spans="1:46">
       <c r="A23" s="19" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B23" s="8">
         <f t="shared" si="0"/>
@@ -3802,10 +3802,10 @@
         <v>9</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="15"/>
@@ -3814,30 +3814,30 @@
         <v>70</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="29" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O23" s="29" t="s">
         <v>44</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="R23" s="29" t="s">
         <v>53</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="T23" s="29" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="U23" s="29"/>
       <c r="V23" s="29"/>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="24" spans="1:46">
       <c r="A24" s="19" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B24" s="8">
         <f t="shared" si="0"/>
@@ -3883,44 +3883,44 @@
         <v>11</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="19" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="14" t="s">
         <v>70</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="29" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O24" s="29" t="s">
         <v>44</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="R24" s="29" t="s">
         <v>53</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="T24" s="29" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="25" spans="1:46">
       <c r="A25" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B25" s="8">
         <f t="shared" si="0"/>
@@ -3966,21 +3966,21 @@
         <v>21</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="26" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="14" t="s">
         <v>70</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
@@ -3988,13 +3988,13 @@
         <v>43</v>
       </c>
       <c r="O25" s="29" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P25" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="R25" s="29"/>
       <c r="S25" s="29"/>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="26" spans="1:46">
       <c r="A26" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B26" s="8">
         <f t="shared" si="0"/>
@@ -4043,19 +4043,19 @@
         <v>20</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F26" s="47"/>
       <c r="G26" s="9"/>
       <c r="H26" s="26" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="14" t="s">
         <v>70</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
@@ -4063,49 +4063,49 @@
         <v>116</v>
       </c>
       <c r="O26" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="R26" s="29" t="s">
         <v>72</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="T26" s="29" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="U26" s="29" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="V26" s="29" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="W26" s="29" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="X26" s="29" t="s">
         <v>78</v>
       </c>
       <c r="Y26" s="29" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Z26" s="29" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AA26" s="29" t="s">
         <v>121</v>
       </c>
       <c r="AB26" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AC26" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AD26" s="15"/>
       <c r="AE26" s="15"/>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="27" spans="1:46">
       <c r="A27" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B27" s="8">
         <f t="shared" si="0"/>
@@ -4142,89 +4142,89 @@
         <v>1</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="26" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="I27" s="24"/>
       <c r="J27" s="14" t="s">
         <v>89</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="29" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O27" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P27" s="29" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="T27" s="29" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="U27" s="29" t="s">
         <v>78</v>
       </c>
       <c r="V27" s="29" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="W27" s="29" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="X27" s="29" t="s">
         <v>72</v>
       </c>
       <c r="Y27" s="29" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Z27" s="29" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AA27" s="29" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AB27" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AC27" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AD27" s="19" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AE27" s="19" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AF27" s="19" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AG27" s="19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AH27" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AI27" s="26" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AJ27" s="15"/>
       <c r="AK27" s="15"/>
@@ -4255,21 +4255,21 @@
         <v>8</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="26" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="I28" s="24"/>
       <c r="J28" s="7" t="s">
         <v>70</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
@@ -4277,36 +4277,36 @@
         <v>116</v>
       </c>
       <c r="O28" s="29" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P28" s="29" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Q28" s="29"/>
       <c r="R28" s="29" t="s">
         <v>121</v>
       </c>
       <c r="S28" s="29" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="T28" s="29"/>
       <c r="U28" s="29" t="s">
         <v>99</v>
       </c>
       <c r="V28" s="29" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="W28" s="29" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="X28" s="29" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Y28" s="29" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Z28" s="29" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AA28" s="29"/>
       <c r="AB28" s="9"/>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="29" spans="1:46">
       <c r="A29" s="43" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B29" s="8">
         <f t="shared" si="0"/>
@@ -4357,10 +4357,10 @@
       <c r="H29" s="26"/>
       <c r="I29" s="31"/>
       <c r="J29" s="43" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
@@ -4371,10 +4371,10 @@
         <v>53</v>
       </c>
       <c r="P29" s="45" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Q29" s="45" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="R29" s="29"/>
       <c r="S29" s="29"/>
@@ -4423,41 +4423,41 @@
         <v>21</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="26" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="7" t="s">
         <v>70</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="29" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O30" s="29" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P30" s="29" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q30" s="29" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="R30" s="29" t="s">
         <v>53</v>
       </c>
       <c r="S30" s="29" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="T30" s="29"/>
       <c r="U30" s="29"/>
@@ -4504,66 +4504,66 @@
         <v>21</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="26" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="7" t="s">
         <v>70</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O31" s="29" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P31" s="29" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="R31" s="29" t="s">
         <v>72</v>
       </c>
       <c r="S31" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="T31" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="U31" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="V31" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="W31" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="X31" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y31" s="29" t="s">
         <v>307</v>
-      </c>
-      <c r="T31" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="U31" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="V31" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="W31" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="X31" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y31" s="29" t="s">
-        <v>313</v>
       </c>
       <c r="Z31" s="29"/>
       <c r="AA31" s="29" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AB31" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AC31" s="9"/>
       <c r="AD31" s="15"/>
@@ -4601,51 +4601,51 @@
         <v>21</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="26" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I32" s="24"/>
       <c r="J32" s="7" t="s">
         <v>70</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O32" s="29" t="s">
         <v>99</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="S32" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="T32" s="9"/>
       <c r="U32" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="V32" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="W32" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
@@ -4673,7 +4673,7 @@
     </row>
     <row r="33" spans="1:46">
       <c r="A33" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B33" s="8">
         <f t="shared" si="0"/>
@@ -4688,10 +4688,10 @@
         <v>28</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="15"/>
@@ -4700,79 +4700,79 @@
         <v>70</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="29" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O33" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="U33" s="7" t="s">
         <v>78</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="X33" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Y33" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Z33" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AA33" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AB33" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AC33" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AD33" s="19" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AE33" s="19" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AF33" s="19" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AG33" s="19" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AH33" s="19" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AI33" s="15"/>
       <c r="AJ33" s="19" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AK33" s="19" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AL33" s="15"/>
       <c r="AM33" s="15"/>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="34" spans="1:46">
       <c r="A34" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B34" s="8">
         <f t="shared" si="0"/>
@@ -4801,18 +4801,18 @@
         <v>12</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="26" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
@@ -4820,22 +4820,22 @@
         <v>98</v>
       </c>
       <c r="O34" s="29" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="T34" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="35" spans="1:46">
       <c r="A35" s="9" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B35" s="8">
         <f t="shared" si="0"/>
@@ -4890,13 +4890,13 @@
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="26" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>89</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
@@ -4907,10 +4907,10 @@
         <v>53</v>
       </c>
       <c r="P35" s="43" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
@@ -4959,17 +4959,17 @@
         <v>28</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="26" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>42</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="37" spans="1:46">
       <c r="A37" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B37" s="8">
         <f t="shared" si="0"/>
@@ -5028,16 +5028,16 @@
         <v>15</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>97</v>
@@ -5047,10 +5047,10 @@
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="29" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M37" s="29" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="38" spans="1:46">
       <c r="A38" s="35" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B38" s="8">
         <f t="shared" si="0"/>
@@ -5107,17 +5107,17 @@
         <v>19.05.2022</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G38" s="36"/>
       <c r="H38" s="37" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I38" s="35" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J38" s="38" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K38" s="39"/>
       <c r="L38" s="39"/>
@@ -5173,31 +5173,31 @@
         <v>12</v>
       </c>
       <c r="E39" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K39" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="L39" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="L39" s="29" t="s">
-        <v>359</v>
-      </c>
       <c r="M39" s="29" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="40" spans="1:46">
       <c r="A40" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B40" s="8">
         <f t="shared" si="0"/>
@@ -5250,27 +5250,27 @@
         <v>11</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="26" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K40" s="13"/>
       <c r="L40" s="29" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M40" s="29" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
@@ -5323,14 +5323,14 @@
         <v>6</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="26" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>138</v>
@@ -5340,10 +5340,10 @@
       </c>
       <c r="K41" s="29"/>
       <c r="L41" s="29" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M41" s="29" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
@@ -5396,27 +5396,27 @@
         <v>21</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="26" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>89</v>
       </c>
       <c r="K42" s="29"/>
       <c r="L42" s="29" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M42" s="29" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
@@ -5469,26 +5469,26 @@
         <v>20</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>70</v>
       </c>
       <c r="K43" s="29"/>
       <c r="L43" s="29" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="44" spans="1:46">
       <c r="A44" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B44" s="8">
         <f t="shared" si="0"/>
@@ -5542,25 +5542,25 @@
         <v>19</v>
       </c>
       <c r="E44" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K44" s="29" t="s">
         <v>384</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="K44" s="29" t="s">
-        <v>390</v>
       </c>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="45" spans="1:46">
       <c r="A45" s="35" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B45" s="8">
         <f t="shared" si="0"/>
@@ -5615,20 +5615,20 @@
         <v>18</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="37" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="I45" s="35" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="J45" s="38" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K45" s="39"/>
       <c r="L45" s="39"/>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="46" spans="1:46">
       <c r="A46" s="11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B46" s="8">
         <f t="shared" si="0"/>
@@ -5684,7 +5684,7 @@
         <v>31</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F46" s="47"/>
       <c r="G46" s="9"/>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="47" spans="1:46">
       <c r="A47" s="11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B47" s="8">
         <f t="shared" si="0"/>
@@ -5745,7 +5745,7 @@
         <v>31</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F47" s="47"/>
       <c r="G47" s="9"/>
@@ -5806,7 +5806,7 @@
         <v>31</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F48" s="47"/>
       <c r="G48" s="9"/>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="49" spans="1:46">
       <c r="A49" s="11" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B49" s="8">
         <f t="shared" si="0"/>
@@ -5867,14 +5867,14 @@
         <v>31</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F49" s="47"/>
       <c r="G49" s="9"/>
       <c r="H49" s="11"/>
       <c r="I49" s="24"/>
       <c r="J49" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K49" s="11"/>
       <c r="L49" s="16"/>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="50" spans="1:46">
       <c r="A50" s="15" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B50" s="8">
         <v>22</v>
@@ -5932,16 +5932,16 @@
       <c r="F50" s="47"/>
       <c r="G50" s="9"/>
       <c r="H50" s="15" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>89</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
@@ -5952,7 +5952,7 @@
         <v>53</v>
       </c>
       <c r="P50" s="43" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
@@ -51316,45 +51316,39 @@
     <hyperlink ref="H11" r:id="rId10"/>
     <hyperlink ref="T11" r:id="rId11"/>
     <hyperlink ref="H12" r:id="rId12"/>
-    <hyperlink ref="H13" r:id="rId13"/>
-    <hyperlink ref="Q13" r:id="rId14"/>
-    <hyperlink ref="H14" r:id="rId15"/>
-    <hyperlink ref="Q14" r:id="rId16"/>
-    <hyperlink ref="H15" r:id="rId17"/>
-    <hyperlink ref="H16" r:id="rId18"/>
-    <hyperlink ref="AI16" r:id="rId19"/>
-    <hyperlink ref="H17" r:id="rId20"/>
-    <hyperlink ref="H18" r:id="rId21"/>
-    <hyperlink ref="Q18" r:id="rId22"/>
-    <hyperlink ref="T18" r:id="rId23"/>
-    <hyperlink ref="H19" r:id="rId24"/>
-    <hyperlink ref="H20" r:id="rId25"/>
-    <hyperlink ref="H21" r:id="rId26"/>
-    <hyperlink ref="Q21" r:id="rId27"/>
-    <hyperlink ref="T21" r:id="rId28"/>
-    <hyperlink ref="H22" r:id="rId29"/>
-    <hyperlink ref="H25" r:id="rId30"/>
-    <hyperlink ref="H26" r:id="rId31"/>
-    <hyperlink ref="H27" r:id="rId32"/>
-    <hyperlink ref="AI27" r:id="rId33"/>
-    <hyperlink ref="H28" r:id="rId34"/>
-    <hyperlink ref="H30" r:id="rId35"/>
-    <hyperlink ref="H31" r:id="rId36"/>
-    <hyperlink ref="H32" r:id="rId37"/>
-    <hyperlink ref="H34" r:id="rId38"/>
-    <hyperlink ref="H36" r:id="rId39"/>
-    <hyperlink ref="H37" r:id="rId40"/>
-    <hyperlink ref="H38" r:id="rId41"/>
-    <hyperlink ref="H39" r:id="rId42"/>
-    <hyperlink ref="H40" r:id="rId43"/>
-    <hyperlink ref="H41" r:id="rId44"/>
-    <hyperlink ref="H42" r:id="rId45"/>
-    <hyperlink ref="H43" r:id="rId46"/>
-    <hyperlink ref="H44" r:id="rId47"/>
-    <hyperlink ref="H45" r:id="rId48"/>
+    <hyperlink ref="H14" r:id="rId13"/>
+    <hyperlink ref="Q14" r:id="rId14"/>
+    <hyperlink ref="H15" r:id="rId15"/>
+    <hyperlink ref="AI16" r:id="rId16"/>
+    <hyperlink ref="H17" r:id="rId17"/>
+    <hyperlink ref="H19" r:id="rId18"/>
+    <hyperlink ref="H20" r:id="rId19"/>
+    <hyperlink ref="H21" r:id="rId20"/>
+    <hyperlink ref="Q21" r:id="rId21"/>
+    <hyperlink ref="T21" r:id="rId22"/>
+    <hyperlink ref="H22" r:id="rId23"/>
+    <hyperlink ref="H25" r:id="rId24"/>
+    <hyperlink ref="H26" r:id="rId25"/>
+    <hyperlink ref="H27" r:id="rId26"/>
+    <hyperlink ref="AI27" r:id="rId27"/>
+    <hyperlink ref="H28" r:id="rId28"/>
+    <hyperlink ref="H30" r:id="rId29"/>
+    <hyperlink ref="H31" r:id="rId30"/>
+    <hyperlink ref="H32" r:id="rId31"/>
+    <hyperlink ref="H34" r:id="rId32"/>
+    <hyperlink ref="H36" r:id="rId33"/>
+    <hyperlink ref="H37" r:id="rId34"/>
+    <hyperlink ref="H38" r:id="rId35"/>
+    <hyperlink ref="H39" r:id="rId36"/>
+    <hyperlink ref="H40" r:id="rId37"/>
+    <hyperlink ref="H41" r:id="rId38"/>
+    <hyperlink ref="H42" r:id="rId39"/>
+    <hyperlink ref="H43" r:id="rId40"/>
+    <hyperlink ref="H44" r:id="rId41"/>
+    <hyperlink ref="H45" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId49"/>
-  <drawing r:id="rId50"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
+  <drawing r:id="rId44"/>
 </worksheet>
 </file>
--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="410">
   <si>
     <t>Conference</t>
   </si>
@@ -1244,6 +1244,12 @@
   <si>
     <t>https://baselbiometrics.github.io/home/docs/talks/20200907/5_Bornkamp.pdf</t>
   </si>
+  <si>
+    <t>talks/20220323_Rufibach_heme.pdf</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=piGvnS9qjjQ</t>
+  </si>
 </sst>
 </file>
 
@@ -1841,9 +1847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T50" sqref="T50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5954,10 +5960,18 @@
       <c r="P50" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
+      <c r="Q50" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="R50" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="S50" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="T50" s="9" t="s">
+        <v>409</v>
+      </c>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
       <c r="W50" s="9"/>

--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25311"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="136" documentId="11_E57AE7D6C4B4445115608800AF4DB0028C6BE972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58AA0C41-743D-485F-9640-3DF2839339A9}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="11_E57AE7D6C4B4445115608800AF4DB0028C6BE972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{485A0D1C-9F61-46C0-837F-8D0EB869A925}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="433">
   <si>
     <t>Conference</t>
   </si>
@@ -1079,18 +1079,6 @@
     <t>06.12.2021</t>
   </si>
   <si>
-    <t>Society for Clinical Trials - webinar</t>
-  </si>
-  <si>
-    <t>06.06.2022</t>
-  </si>
-  <si>
-    <t>now webinar not SCT conference - Rachael</t>
-  </si>
-  <si>
-    <t>The Estimand Framework from the ICH E9(R1) Statistical Principles for Clinical Trials Addendum: Current Implementation Status and Looking Forward</t>
-  </si>
-  <si>
     <t xml:space="preserve">ASA Biopharmaceutical Section webinar </t>
   </si>
   <si>
@@ -1109,25 +1097,16 @@
     <t>From Logic-respecting Efficacy Estimands to Logic-ensuring Analysis Principle in Randomized Clinical Trials with Subgroups</t>
   </si>
   <si>
-    <t>DIA annual meeting in China</t>
+    <t>Society for Clinical Trials - webinar</t>
   </si>
   <si>
-    <t>21.07.2022</t>
+    <t>06.06.2022</t>
   </si>
   <si>
-    <t>24.07.2022</t>
+    <t>now webinar not SCT conference - Rachael</t>
   </si>
   <si>
-    <t>https://www.diaglobal.org/en/flagship/dia-china-2022</t>
-  </si>
-  <si>
-    <t>Suzhou</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Special interest group “Estimands in oncology”, sponsored by PSI and EFSPI</t>
+    <t>The Estimand Framework from the ICH E9(R1) Statistical Principles for Clinical Trials Addendum: Current Implementation Status and Looking Forward</t>
   </si>
   <si>
     <t>12.06.2022</t>
@@ -1152,6 +1131,12 @@
   </si>
   <si>
     <t>10.12.2021</t>
+  </si>
+  <si>
+    <t>Special interest group “Estimands in oncology”, sponsored by PSI and EFSPI</t>
+  </si>
+  <si>
+    <t>talks/20220612_OncoEstimand-Poster-PSI-Final.pdf</t>
   </si>
   <si>
     <t>ICSA (International Chinese Statistical Association) Applied Statistics Symposium</t>
@@ -1203,6 +1188,27 @@
   </si>
   <si>
     <t>31.10.2021</t>
+  </si>
+  <si>
+    <t>DIA annual meeting in China</t>
+  </si>
+  <si>
+    <t>21.07.2022</t>
+  </si>
+  <si>
+    <t>24.07.2022</t>
+  </si>
+  <si>
+    <t>https://www.diaglobal.org/en/flagship/dia-china-2022</t>
+  </si>
+  <si>
+    <t>Suzhou</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>talks/20220721_OncoEstimand-Poster-China-Final.pdf</t>
   </si>
   <si>
     <t>06.08.2022</t>
@@ -1459,7 +1465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1559,6 +1565,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1913,11 +1923,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT995"/>
+  <dimension ref="A1:AT996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="O32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P43" sqref="P43"/>
+      <pane ySplit="1" topLeftCell="N38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2091,15 +2101,15 @@
         <v>38</v>
       </c>
       <c r="B2" s="7" t="str">
-        <f t="shared" ref="B2:B50" si="0">MID(E2, 9, 2)</f>
+        <f>MID(E2, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C2" s="7" t="str">
-        <f t="shared" ref="C2:C50" si="1">MID(E2, 4, 2)</f>
+        <f>MID(E2, 4, 2)</f>
         <v>02</v>
       </c>
       <c r="D2" s="7" t="str">
-        <f t="shared" ref="D2:D50" si="2">MID(E2, 1, 2)</f>
+        <f>MID(E2, 1, 2)</f>
         <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2168,15 +2178,15 @@
         <v>47</v>
       </c>
       <c r="B3" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E3, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C3" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E3, 4, 2)</f>
         <v>03</v>
       </c>
       <c r="D3" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E3, 1, 2)</f>
         <v>18</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -2263,15 +2273,15 @@
         <v>65</v>
       </c>
       <c r="B4" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E4, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C4" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E4, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E4, 1, 2)</f>
         <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2358,15 +2368,15 @@
         <v>84</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E5, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C5" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E5, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D5" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E5, 1, 2)</f>
         <v>02</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -2441,15 +2451,15 @@
         <v>93</v>
       </c>
       <c r="B6" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E6, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C6" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E6, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D6" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E6, 1, 2)</f>
         <v>23</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -2518,15 +2528,15 @@
         <v>102</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E7, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C7" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E7, 4, 2)</f>
         <v>07</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E7, 1, 2)</f>
         <v>14</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -2595,15 +2605,15 @@
         <v>111</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E8, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C8" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E8, 4, 2)</f>
         <v>07</v>
       </c>
       <c r="D8" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E8, 1, 2)</f>
         <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -2690,15 +2700,15 @@
         <v>127</v>
       </c>
       <c r="B9" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E9, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C9" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E9, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D9" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E9, 1, 2)</f>
         <v>23</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -2767,15 +2777,15 @@
         <v>135</v>
       </c>
       <c r="B10" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E10, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C10" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E10, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D10" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E10, 1, 2)</f>
         <v>23</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -2856,15 +2866,15 @@
         <v>148</v>
       </c>
       <c r="B11" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E11, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C11" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E11, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D11" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E11, 1, 2)</f>
         <v>27</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -2939,15 +2949,15 @@
         <v>161</v>
       </c>
       <c r="B12" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E12, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C12" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E12, 4, 2)</f>
         <v>10</v>
       </c>
       <c r="D12" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E12, 1, 2)</f>
         <v>20</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -3016,15 +3026,15 @@
         <v>168</v>
       </c>
       <c r="B13" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E13, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C13" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E13, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D13" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E13, 1, 2)</f>
         <v>06</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -3093,15 +3103,15 @@
         <v>174</v>
       </c>
       <c r="B14" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E14, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C14" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E14, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D14" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E14, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -3174,15 +3184,15 @@
         <v>181</v>
       </c>
       <c r="B15" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E15, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C15" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E15, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D15" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E15, 1, 2)</f>
         <v>11</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -3251,15 +3261,15 @@
         <v>186</v>
       </c>
       <c r="B16" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E16, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C16" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E16, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D16" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E16, 1, 2)</f>
         <v>29</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -3370,15 +3380,15 @@
         <v>111</v>
       </c>
       <c r="B17" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E17, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C17" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E17, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D17" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E17, 1, 2)</f>
         <v>01</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -3463,15 +3473,15 @@
         <v>222</v>
       </c>
       <c r="B18" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E18, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C18" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E18, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D18" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E18, 1, 2)</f>
         <v>07</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -3546,15 +3556,15 @@
         <v>135</v>
       </c>
       <c r="B19" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E19, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C19" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E19, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D19" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E19, 1, 2)</f>
         <v>22</v>
       </c>
       <c r="E19" s="13" t="s">
@@ -3623,15 +3633,15 @@
         <v>234</v>
       </c>
       <c r="B20" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E20, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C20" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E20, 4, 2)</f>
         <v>11</v>
       </c>
       <c r="D20" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E20, 1, 2)</f>
         <v>05</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -3700,15 +3710,15 @@
         <v>240</v>
       </c>
       <c r="B21" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E21, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C21" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E21, 4, 2)</f>
         <v>11</v>
       </c>
       <c r="D21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E21, 1, 2)</f>
         <v>17</v>
       </c>
       <c r="E21" s="23" t="s">
@@ -3783,15 +3793,15 @@
         <v>246</v>
       </c>
       <c r="B22" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E22, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C22" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E22, 4, 2)</f>
         <v>11</v>
       </c>
       <c r="D22" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E22, 1, 2)</f>
         <v>27</v>
       </c>
       <c r="E22" s="13" t="s">
@@ -3866,15 +3876,15 @@
         <v>252</v>
       </c>
       <c r="B23" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E23, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C23" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E23, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D23" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E23, 1, 2)</f>
         <v>09</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -3947,15 +3957,15 @@
         <v>257</v>
       </c>
       <c r="B24" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E24, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C24" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E24, 4, 2)</f>
         <v>02</v>
       </c>
       <c r="D24" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E24, 1, 2)</f>
         <v>11</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -4030,15 +4040,15 @@
         <v>263</v>
       </c>
       <c r="B25" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E25, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C25" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E25, 4, 2)</f>
         <v>04</v>
       </c>
       <c r="D25" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E25, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -4107,15 +4117,15 @@
         <v>269</v>
       </c>
       <c r="B26" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E26, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C26" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E26, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D26" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E26, 1, 2)</f>
         <v>20</v>
       </c>
       <c r="E26" s="13" t="s">
@@ -4206,15 +4216,15 @@
         <v>275</v>
       </c>
       <c r="B27" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E27, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C27" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E27, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D27" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E27, 1, 2)</f>
         <v>01</v>
       </c>
       <c r="E27" s="13" t="s">
@@ -4319,15 +4329,15 @@
         <v>111</v>
       </c>
       <c r="B28" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E28, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C28" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E28, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D28" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E28, 1, 2)</f>
         <v>08</v>
       </c>
       <c r="E28" s="13" t="s">
@@ -4410,15 +4420,15 @@
         <v>135</v>
       </c>
       <c r="B29" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E29, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C29" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E29, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D29" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E29, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -4491,15 +4501,15 @@
         <v>135</v>
       </c>
       <c r="B30" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E30, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C30" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E30, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D30" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E30, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E30" s="13" t="s">
@@ -4588,15 +4598,15 @@
         <v>135</v>
       </c>
       <c r="B31" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E31, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C31" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E31, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D31" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E31, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E31" s="13" t="s">
@@ -4679,15 +4689,15 @@
         <v>323</v>
       </c>
       <c r="B32" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E32, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C32" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E32, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D32" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E32, 1, 2)</f>
         <v>28</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -4792,15 +4802,15 @@
         <v>328</v>
       </c>
       <c r="B33" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E33, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C33" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E33, 4, 2)</f>
         <v>10</v>
       </c>
       <c r="D33" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E33, 1, 2)</f>
         <v>12</v>
       </c>
       <c r="E33" s="13" t="s">
@@ -4872,15 +4882,15 @@
         <v>47</v>
       </c>
       <c r="B34" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E34, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C34" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E34, 4, 2)</f>
         <v>03</v>
       </c>
       <c r="D34" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E34, 1, 2)</f>
         <v>28</v>
       </c>
       <c r="E34" s="13" t="s">
@@ -4947,15 +4957,15 @@
         <v>269</v>
       </c>
       <c r="B35" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E35, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C35" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E35, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D35" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E35, 1, 2)</f>
         <v>15</v>
       </c>
       <c r="E35" s="13" t="s">
@@ -5021,23 +5031,30 @@
       <c r="A36" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="7" t="str">
+        <f>MID(E36, 9, 2)</f>
         <v>22</v>
       </c>
-      <c r="C36" s="7">
-        <v>6</v>
-      </c>
-      <c r="D36" s="7"/>
+      <c r="C36" s="7" t="str">
+        <f>MID(E36, 4, 2)</f>
+        <v>05</v>
+      </c>
+      <c r="D36" s="7" t="str">
+        <f>MID(E36, 1, 2)</f>
+        <v>26</v>
+      </c>
       <c r="E36" s="13" t="s">
         <v>351</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="H36" s="29"/>
+      <c r="H36" s="35" t="s">
+        <v>353</v>
+      </c>
       <c r="I36" s="13"/>
       <c r="J36" s="6"/>
       <c r="K36" s="9" t="s">
@@ -5045,12 +5062,14 @@
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
+      <c r="N36" s="9" t="s">
+        <v>354</v>
+      </c>
       <c r="O36" s="9" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -5085,29 +5104,30 @@
     </row>
     <row r="37" spans="1:46">
       <c r="A37" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B37" s="7">
+        <v>356</v>
+      </c>
+      <c r="B37" s="7" t="str">
+        <f>MID(E37, 9, 2)</f>
         <v>22</v>
       </c>
-      <c r="C37" s="7">
-        <v>5</v>
-      </c>
-      <c r="D37" s="7">
-        <v>26</v>
+      <c r="C37" s="7" t="str">
+        <f>MID(E37, 4, 2)</f>
+        <v>06</v>
+      </c>
+      <c r="D37" s="7" t="str">
+        <f>MID(E37, 1, 2)</f>
+        <v>06</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="H37" s="35" t="s">
         <v>357</v>
       </c>
+      <c r="G37" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H37" s="29"/>
       <c r="I37" s="13"/>
       <c r="J37" s="6"/>
       <c r="K37" s="9" t="s">
@@ -5115,11 +5135,9 @@
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="9" t="s">
-        <v>358</v>
-      </c>
+      <c r="N37" s="9"/>
       <c r="O37" s="9" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>359</v>
@@ -5155,70 +5173,82 @@
       <c r="AS37" s="25"/>
       <c r="AT37" s="25"/>
     </row>
-    <row r="38" spans="1:46">
-      <c r="A38" s="25" t="s">
+    <row r="38" spans="1:46" ht="57.75">
+      <c r="A38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="7" t="str">
+        <f>MID(E38, 9, 2)</f>
+        <v>22</v>
+      </c>
+      <c r="C38" s="7" t="str">
+        <f>MID(E38, 4, 2)</f>
+        <v>06</v>
+      </c>
+      <c r="D38" s="7" t="str">
+        <f>MID(E38, 1, 2)</f>
+        <v>12</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="B38" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C38" s="7">
-        <v>7</v>
-      </c>
-      <c r="D38" s="7">
-        <v>21</v>
-      </c>
-      <c r="E38" s="26" t="s">
+      <c r="F38" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="G38" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="I38" s="25" t="s">
+      <c r="I38" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="J38" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27" t="s">
+      <c r="K38" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="N38" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="O38" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="P38" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="25"/>
-      <c r="AI38" s="25"/>
-      <c r="AJ38" s="25"/>
-      <c r="AK38" s="25"/>
-      <c r="AL38" s="25"/>
+      <c r="O38" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q38" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="13"/>
       <c r="AM38" s="13"/>
       <c r="AN38" s="13"/>
       <c r="AO38" s="13"/>
@@ -5228,57 +5258,53 @@
       <c r="AS38" s="13"/>
       <c r="AT38" s="13"/>
     </row>
-    <row r="39" spans="1:46" ht="57.75">
+    <row r="39" spans="1:46" ht="28.5">
       <c r="A39" s="6" t="s">
-        <v>84</v>
+        <v>370</v>
       </c>
       <c r="B39" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E39, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C39" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E39, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D39" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>MID(E39, 1, 2)</f>
+        <v>19</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>370</v>
+        <v>373</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>374</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>372</v>
+        <v>70</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>154</v>
+        <v>376</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="33" t="s">
+        <v>377</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>203</v>
+        <v>378</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
@@ -5311,51 +5337,48 @@
       <c r="AS39" s="13"/>
       <c r="AT39" s="13"/>
     </row>
-    <row r="40" spans="1:46" ht="28.5">
+    <row r="40" spans="1:46">
       <c r="A40" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B40" s="7">
+        <v>380</v>
+      </c>
+      <c r="B40" s="7" t="str">
+        <f>MID(E40, 9, 2)</f>
         <v>22</v>
       </c>
-      <c r="C40" s="7">
-        <v>6</v>
-      </c>
-      <c r="D40" s="7">
-        <v>19</v>
+      <c r="C40" s="7" t="str">
+        <f>MID(E40, 4, 2)</f>
+        <v>07</v>
+      </c>
+      <c r="D40" s="7" t="str">
+        <f>MID(E40, 1, 2)</f>
+        <v>11</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>379</v>
+        <v>382</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="29" t="s">
+        <v>383</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="O40" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>384</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
@@ -5388,69 +5411,73 @@
       <c r="AT40" s="13"/>
     </row>
     <row r="41" spans="1:46">
-      <c r="A41" s="6" t="s">
-        <v>385</v>
+      <c r="A41" s="25" t="s">
+        <v>387</v>
       </c>
       <c r="B41" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E41, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C41" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E41, 4, 2)</f>
         <v>07</v>
       </c>
       <c r="D41" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="29" t="s">
+        <f>MID(E41, 1, 2)</f>
+        <v>21</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="F41" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="G41" s="25"/>
+      <c r="H41" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9" t="s">
+      <c r="I41" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="M41" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="13"/>
-      <c r="AI41" s="13"/>
-      <c r="AJ41" s="13"/>
-      <c r="AK41" s="13"/>
-      <c r="AL41" s="13"/>
+      <c r="J41" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="P41" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q41" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="25"/>
+      <c r="AI41" s="25"/>
+      <c r="AJ41" s="25"/>
+      <c r="AK41" s="25"/>
+      <c r="AL41" s="25"/>
       <c r="AM41" s="13"/>
       <c r="AN41" s="13"/>
       <c r="AO41" s="13"/>
@@ -5465,28 +5492,28 @@
         <v>111</v>
       </c>
       <c r="B42" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E42, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C42" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E42, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D42" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E42, 1, 2)</f>
         <v>06</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>138</v>
@@ -5496,19 +5523,19 @@
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
@@ -5546,39 +5573,39 @@
         <v>102</v>
       </c>
       <c r="B43" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E43, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C43" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E43, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D43" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E43, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="29" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>89</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="N43" s="9" t="s">
         <v>98</v>
@@ -5587,7 +5614,7 @@
         <v>53</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
@@ -5625,31 +5652,31 @@
         <v>135</v>
       </c>
       <c r="B44" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E44, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C44" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E44, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D44" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E44, 1, 2)</f>
         <v>20</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>70</v>
@@ -5663,17 +5690,17 @@
         <v>304</v>
       </c>
       <c r="O44" s="33" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P44" s="34" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="33" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="S44" s="33" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
@@ -5703,39 +5730,37 @@
       <c r="AS44" s="13"/>
       <c r="AT44" s="13"/>
     </row>
-    <row r="45" spans="1:46" ht="28.5">
+    <row r="45" spans="1:46">
       <c r="A45" s="6" t="s">
-        <v>416</v>
+        <v>135</v>
       </c>
       <c r="B45" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E45, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C45" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>MID(E45, 4, 2)</f>
+        <v>09</v>
       </c>
       <c r="D45" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f>MID(E45, 1, 2)</f>
+        <v>20</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>419</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="G45" s="6"/>
       <c r="H45" s="29" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>422</v>
+        <v>70</v>
       </c>
       <c r="K45" s="9" t="s">
         <v>342</v>
@@ -5743,15 +5768,21 @@
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="O45" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="P45" s="6"/>
+        <v>154</v>
+      </c>
+      <c r="O45" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" s="25" t="s">
+        <v>368</v>
+      </c>
       <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
+      <c r="R45" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="S45" s="33" t="s">
+        <v>417</v>
+      </c>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
@@ -5771,136 +5802,152 @@
       <c r="AJ45" s="13"/>
       <c r="AK45" s="13"/>
       <c r="AL45" s="13"/>
-      <c r="AM45" s="25"/>
-      <c r="AN45" s="25"/>
-      <c r="AO45" s="25"/>
-      <c r="AP45" s="25"/>
-      <c r="AQ45" s="25"/>
-      <c r="AR45" s="25"/>
-      <c r="AS45" s="25"/>
-      <c r="AT45" s="25"/>
-    </row>
-    <row r="46" spans="1:46">
-      <c r="A46" s="25" t="s">
+      <c r="AM45" s="13"/>
+      <c r="AN45" s="13"/>
+      <c r="AO45" s="13"/>
+      <c r="AP45" s="13"/>
+      <c r="AQ45" s="13"/>
+      <c r="AR45" s="13"/>
+      <c r="AS45" s="13"/>
+      <c r="AT45" s="13"/>
+    </row>
+    <row r="46" spans="1:46" ht="28.5">
+      <c r="A46" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B46" s="7" t="str">
+        <f>MID(E46, 9, 2)</f>
+        <v>22</v>
+      </c>
+      <c r="C46" s="7" t="str">
+        <f>MID(E46, 4, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="D46" s="7" t="str">
+        <f>MID(E46, 1, 2)</f>
+        <v>19</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="J46" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B46" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="K46" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
+      <c r="AI46" s="13"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="13"/>
+      <c r="AL46" s="13"/>
+      <c r="AM46" s="25"/>
+      <c r="AN46" s="25"/>
+      <c r="AO46" s="25"/>
+      <c r="AP46" s="25"/>
+      <c r="AQ46" s="25"/>
+      <c r="AR46" s="25"/>
+      <c r="AS46" s="25"/>
+      <c r="AT46" s="25"/>
+    </row>
+    <row r="47" spans="1:46">
+      <c r="A47" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="B47" s="7" t="str">
+        <f>MID(E47, 9, 2)</f>
         <v>22</v>
       </c>
-      <c r="C46" s="7" t="str">
-        <f t="shared" si="1"/>
+      <c r="C47" s="7" t="str">
+        <f>MID(E47, 4, 2)</f>
         <v>12</v>
       </c>
-      <c r="D46" s="7" t="str">
-        <f t="shared" si="2"/>
+      <c r="D47" s="7" t="str">
+        <f>MID(E47, 1, 2)</f>
         <v>18</v>
       </c>
-      <c r="E46" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="30" t="s">
+      <c r="E47" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="I46" s="25" t="s">
+      <c r="F47" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="J46" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="25"/>
-      <c r="AE46" s="25"/>
-      <c r="AF46" s="25"/>
-      <c r="AG46" s="25"/>
-      <c r="AH46" s="25"/>
-      <c r="AI46" s="25"/>
-      <c r="AJ46" s="25"/>
-      <c r="AK46" s="25"/>
-      <c r="AL46" s="25"/>
-      <c r="AM46" s="9"/>
-      <c r="AN46" s="9"/>
-      <c r="AO46" s="9"/>
-      <c r="AP46" s="9"/>
-      <c r="AQ46" s="9"/>
-      <c r="AR46" s="9"/>
-      <c r="AS46" s="9"/>
-      <c r="AT46" s="9"/>
-    </row>
-    <row r="47" spans="1:46">
-      <c r="A47" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B47" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C47" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D47" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="G47" s="25"/>
+      <c r="H47" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="12"/>
-      <c r="AC47" s="9"/>
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="9"/>
-      <c r="AF47" s="9"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="9"/>
-      <c r="AI47" s="9"/>
-      <c r="AJ47" s="9"/>
-      <c r="AK47" s="9"/>
-      <c r="AL47" s="9"/>
+      <c r="I47" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="J47" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25"/>
+      <c r="AI47" s="25"/>
+      <c r="AJ47" s="25"/>
+      <c r="AK47" s="25"/>
+      <c r="AL47" s="25"/>
       <c r="AM47" s="9"/>
       <c r="AN47" s="9"/>
       <c r="AO47" s="9"/>
@@ -5912,22 +5959,22 @@
     </row>
     <row r="48" spans="1:46">
       <c r="A48" s="9" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B48" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E48, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C48" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E48, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D48" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E48, 1, 2)</f>
         <v>31</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -5973,22 +6020,22 @@
     </row>
     <row r="49" spans="1:46">
       <c r="A49" s="9" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="B49" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E49, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C49" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E49, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D49" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E49, 1, 2)</f>
         <v>31</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -6034,30 +6081,28 @@
     </row>
     <row r="50" spans="1:46">
       <c r="A50" s="9" t="s">
-        <v>430</v>
+        <v>65</v>
       </c>
       <c r="B50" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E50, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C50" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E50, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D50" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E50, 1, 2)</f>
         <v>31</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="9"/>
       <c r="I50" s="18"/>
-      <c r="J50" s="6" t="s">
-        <v>365</v>
-      </c>
+      <c r="J50" s="6"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -6086,54 +6131,69 @@
       <c r="AJ50" s="9"/>
       <c r="AK50" s="9"/>
       <c r="AL50" s="9"/>
-      <c r="AM50" s="13"/>
-      <c r="AN50" s="13"/>
-      <c r="AO50" s="13"/>
-      <c r="AP50" s="13"/>
-      <c r="AQ50" s="13"/>
-      <c r="AR50" s="13"/>
-      <c r="AS50" s="13"/>
-      <c r="AT50" s="13"/>
+      <c r="AM50" s="9"/>
+      <c r="AN50" s="9"/>
+      <c r="AO50" s="9"/>
+      <c r="AP50" s="9"/>
+      <c r="AQ50" s="9"/>
+      <c r="AR50" s="9"/>
+      <c r="AS50" s="9"/>
+      <c r="AT50" s="9"/>
     </row>
     <row r="51" spans="1:46">
-      <c r="A51" s="13"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
+      <c r="A51" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B51" s="7" t="str">
+        <f>MID(E51, 9, 2)</f>
+        <v>22</v>
+      </c>
+      <c r="C51" s="7" t="str">
+        <f>MID(E51, 4, 2)</f>
+        <v>12</v>
+      </c>
+      <c r="D51" s="7" t="str">
+        <f>MID(E51, 1, 2)</f>
+        <v>31</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="6"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="6" t="s">
+        <v>392</v>
+      </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="6"/>
-      <c r="AB51" s="6"/>
-      <c r="AC51" s="6"/>
-      <c r="AD51" s="13"/>
-      <c r="AE51" s="13"/>
-      <c r="AF51" s="13"/>
-      <c r="AG51" s="13"/>
-      <c r="AH51" s="13"/>
-      <c r="AI51" s="13"/>
-      <c r="AJ51" s="13"/>
-      <c r="AK51" s="13"/>
-      <c r="AL51" s="13"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9"/>
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="9"/>
+      <c r="AJ51" s="9"/>
+      <c r="AK51" s="9"/>
+      <c r="AL51" s="9"/>
       <c r="AM51" s="13"/>
       <c r="AN51" s="13"/>
       <c r="AO51" s="13"/>
@@ -14064,52 +14124,52 @@
       <c r="AT216" s="13"/>
     </row>
     <row r="217" spans="1:46">
-      <c r="A217" s="9"/>
-      <c r="B217" s="31"/>
-      <c r="C217" s="31"/>
-      <c r="D217" s="31"/>
-      <c r="E217" s="32"/>
-      <c r="F217" s="32"/>
-      <c r="G217" s="9"/>
-      <c r="H217" s="9"/>
-      <c r="I217" s="9"/>
-      <c r="J217" s="9"/>
+      <c r="A217" s="13"/>
+      <c r="B217" s="28"/>
+      <c r="C217" s="28"/>
+      <c r="D217" s="28"/>
+      <c r="E217" s="24"/>
+      <c r="F217" s="24"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="13"/>
+      <c r="I217" s="13"/>
+      <c r="J217" s="6"/>
       <c r="K217" s="9"/>
       <c r="L217" s="9"/>
       <c r="M217" s="9"/>
       <c r="N217" s="9"/>
       <c r="O217" s="9"/>
-      <c r="P217" s="9"/>
-      <c r="Q217" s="9"/>
-      <c r="R217" s="9"/>
-      <c r="S217" s="9"/>
-      <c r="T217" s="9"/>
-      <c r="U217" s="9"/>
-      <c r="V217" s="9"/>
-      <c r="W217" s="9"/>
-      <c r="X217" s="9"/>
-      <c r="Y217" s="9"/>
-      <c r="Z217" s="9"/>
-      <c r="AA217" s="9"/>
-      <c r="AB217" s="9"/>
-      <c r="AC217" s="9"/>
-      <c r="AD217" s="9"/>
-      <c r="AE217" s="9"/>
-      <c r="AF217" s="9"/>
-      <c r="AG217" s="9"/>
-      <c r="AH217" s="9"/>
-      <c r="AI217" s="9"/>
-      <c r="AJ217" s="9"/>
-      <c r="AK217" s="9"/>
-      <c r="AL217" s="9"/>
-      <c r="AM217" s="9"/>
-      <c r="AN217" s="9"/>
-      <c r="AO217" s="9"/>
-      <c r="AP217" s="9"/>
-      <c r="AQ217" s="9"/>
-      <c r="AR217" s="9"/>
-      <c r="AS217" s="9"/>
-      <c r="AT217" s="9"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
+      <c r="R217" s="6"/>
+      <c r="S217" s="6"/>
+      <c r="T217" s="6"/>
+      <c r="U217" s="6"/>
+      <c r="V217" s="6"/>
+      <c r="W217" s="6"/>
+      <c r="X217" s="6"/>
+      <c r="Y217" s="6"/>
+      <c r="Z217" s="6"/>
+      <c r="AA217" s="6"/>
+      <c r="AB217" s="6"/>
+      <c r="AC217" s="6"/>
+      <c r="AD217" s="13"/>
+      <c r="AE217" s="13"/>
+      <c r="AF217" s="13"/>
+      <c r="AG217" s="13"/>
+      <c r="AH217" s="13"/>
+      <c r="AI217" s="13"/>
+      <c r="AJ217" s="13"/>
+      <c r="AK217" s="13"/>
+      <c r="AL217" s="13"/>
+      <c r="AM217" s="13"/>
+      <c r="AN217" s="13"/>
+      <c r="AO217" s="13"/>
+      <c r="AP217" s="13"/>
+      <c r="AQ217" s="13"/>
+      <c r="AR217" s="13"/>
+      <c r="AS217" s="13"/>
+      <c r="AT217" s="13"/>
     </row>
     <row r="218" spans="1:46">
       <c r="A218" s="9"/>
@@ -51455,7 +51515,60 @@
       <c r="AS995" s="9"/>
       <c r="AT995" s="9"/>
     </row>
+    <row r="996" spans="1:46">
+      <c r="A996" s="9"/>
+      <c r="B996" s="31"/>
+      <c r="C996" s="31"/>
+      <c r="D996" s="31"/>
+      <c r="E996" s="32"/>
+      <c r="F996" s="32"/>
+      <c r="G996" s="9"/>
+      <c r="H996" s="9"/>
+      <c r="I996" s="9"/>
+      <c r="J996" s="9"/>
+      <c r="K996" s="9"/>
+      <c r="L996" s="9"/>
+      <c r="M996" s="9"/>
+      <c r="N996" s="9"/>
+      <c r="O996" s="9"/>
+      <c r="P996" s="9"/>
+      <c r="Q996" s="9"/>
+      <c r="R996" s="9"/>
+      <c r="S996" s="9"/>
+      <c r="T996" s="9"/>
+      <c r="U996" s="9"/>
+      <c r="V996" s="9"/>
+      <c r="W996" s="9"/>
+      <c r="X996" s="9"/>
+      <c r="Y996" s="9"/>
+      <c r="Z996" s="9"/>
+      <c r="AA996" s="9"/>
+      <c r="AB996" s="9"/>
+      <c r="AC996" s="9"/>
+      <c r="AD996" s="9"/>
+      <c r="AE996" s="9"/>
+      <c r="AF996" s="9"/>
+      <c r="AG996" s="9"/>
+      <c r="AH996" s="9"/>
+      <c r="AI996" s="9"/>
+      <c r="AJ996" s="9"/>
+      <c r="AK996" s="9"/>
+      <c r="AL996" s="9"/>
+      <c r="AM996" s="9"/>
+      <c r="AN996" s="9"/>
+      <c r="AO996" s="9"/>
+      <c r="AP996" s="9"/>
+      <c r="AQ996" s="9"/>
+      <c r="AR996" s="9"/>
+      <c r="AS996" s="9"/>
+      <c r="AT996" s="9"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL51">
+    <sortCondition ref="B2:B51"/>
+    <sortCondition ref="C2:C51"/>
+    <sortCondition ref="D2:D51"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="H3" r:id="rId2" location="paperID316" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -51497,20 +51610,21 @@
     <hyperlink ref="H33" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="H34" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="H35" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="H38" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="H39" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H41" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H38" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H40" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="H42" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="H43" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="H44" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="H45" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="H46" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="H40" r:id="rId49" xr:uid="{07BF4283-7A05-4C2B-814D-EE19D3D03A78}"/>
-    <hyperlink ref="H37" r:id="rId50" xr:uid="{09C4BEEF-B758-4F42-98F0-0A7CCEFCC085}"/>
+    <hyperlink ref="H46" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H47" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H39" r:id="rId49" xr:uid="{07BF4283-7A05-4C2B-814D-EE19D3D03A78}"/>
+    <hyperlink ref="H36" r:id="rId50" xr:uid="{09C4BEEF-B758-4F42-98F0-0A7CCEFCC085}"/>
+    <hyperlink ref="H45" r:id="rId51" xr:uid="{0B4EA0C7-8803-4088-AE9C-1FC0AA3169E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId51"/>
+  <drawing r:id="rId52"/>
 </worksheet>
 </file>
 
@@ -51524,6 +51638,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100329EEE15A9214C4A9CD88C49071DE3D3" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1cfbdc3aec0f9764958d51c9cd4ae398">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1512c054-5eba-4473-9e73-107d9d6b916a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b93104c4cb30fae26fe00c66df1ba726" ns2:_="">
     <xsd:import namespace="1512c054-5eba-4473-9e73-107d9d6b916a"/>
@@ -51669,20 +51789,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61472F2-21CB-4677-9DEB-F5ADB6BFD29F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61472F2-21CB-4677-9DEB-F5ADB6BFD29F}"/>
 </file>
--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25311"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="146" documentId="11_E57AE7D6C4B4445115608800AF4DB0028C6BE972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{485A0D1C-9F61-46C0-837F-8D0EB869A925}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\23_Working_groups\30_estimand_onco\90_webpage\oncowg_webpage\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="1" r:id="rId1"/>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="419">
   <si>
     <t>Conference</t>
   </si>
@@ -1079,7 +1083,7 @@
     <t>06.12.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">ASA Biopharmaceutical Section webinar </t>
+    <t>ASA Biopharmaceutical Section</t>
   </si>
   <si>
     <t>26.05.2022</t>
@@ -1091,13 +1095,10 @@
     <t>https://www.eventbrite.com/e/logic-respecting-efficacy-estimands-to-logic-ensuring-analysis-principle-tickets-336986344227</t>
   </si>
   <si>
-    <t>webinar Presentation</t>
+    <t>webinar</t>
   </si>
   <si>
     <t>From Logic-respecting Efficacy Estimands to Logic-ensuring Analysis Principle in Randomized Clinical Trials with Subgroups</t>
-  </si>
-  <si>
-    <t>Society for Clinical Trials - webinar</t>
   </si>
   <si>
     <t>06.06.2022</t>
@@ -1288,55 +1289,16 @@
     <t>Conditional and Unconditional Treatment Effects in Clinical Trials</t>
   </si>
   <si>
-    <t>ISOQoL 2022</t>
+    <t>21.09.2022</t>
   </si>
   <si>
-    <t>19.10.2022</t>
-  </si>
-  <si>
-    <t>22.10.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ome PRO task force members delivering workshop on estimands and PROs (not just oncology) </t>
-  </si>
-  <si>
-    <t>https://www.isoqol.org/events/29th-annual-conference/</t>
-  </si>
-  <si>
-    <t>Prague</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Workshop</t>
-  </si>
-  <si>
-    <t>ICSA (International Chinese Statistical Association) international conference</t>
-  </si>
-  <si>
-    <t>18.12.2022</t>
-  </si>
-  <si>
-    <t>20.12.2022</t>
-  </si>
-  <si>
-    <t>https://www.icsa.org/12th-icsa-international-conference-december-18-20-2022/</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>31.12.2022</t>
-  </si>
-  <si>
-    <t>DIA Quantitative Science Forum</t>
+    <t>talks/20220920_OncoEstimand-Poster-BIOP-Final.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm&quot; &quot;d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
@@ -1922,12 +1884,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="N38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P45" sqref="P45"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2096,20 +2058,20 @@
       <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
     </row>
-    <row r="2" spans="1:46" ht="57.75">
+    <row r="2" spans="1:46" ht="42.75">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="7" t="str">
-        <f>MID(E2, 9, 2)</f>
+        <f t="shared" ref="B2:B33" si="0">MID(E2, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C2" s="7" t="str">
-        <f>MID(E2, 4, 2)</f>
+        <f t="shared" ref="C2:C33" si="1">MID(E2, 4, 2)</f>
         <v>02</v>
       </c>
       <c r="D2" s="7" t="str">
-        <f>MID(E2, 1, 2)</f>
+        <f t="shared" ref="D2:D33" si="2">MID(E2, 1, 2)</f>
         <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2173,20 +2135,20 @@
       <c r="AS2" s="9"/>
       <c r="AT2" s="9"/>
     </row>
-    <row r="3" spans="1:46" ht="43.5">
+    <row r="3" spans="1:46" ht="28.5">
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="7" t="str">
-        <f>MID(E3, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C3" s="7" t="str">
-        <f>MID(E3, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>03</v>
       </c>
       <c r="D3" s="7" t="str">
-        <f>MID(E3, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -2273,15 +2235,15 @@
         <v>65</v>
       </c>
       <c r="B4" s="7" t="str">
-        <f>MID(E4, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C4" s="7" t="str">
-        <f>MID(E4, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f>MID(E4, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2368,15 +2330,15 @@
         <v>84</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f>MID(E5, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C5" s="7" t="str">
-        <f>MID(E5, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>06</v>
       </c>
       <c r="D5" s="7" t="str">
-        <f>MID(E5, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -2451,15 +2413,15 @@
         <v>93</v>
       </c>
       <c r="B6" s="7" t="str">
-        <f>MID(E6, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C6" s="7" t="str">
-        <f>MID(E6, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>06</v>
       </c>
       <c r="D6" s="7" t="str">
-        <f>MID(E6, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -2528,15 +2490,15 @@
         <v>102</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f>MID(E7, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C7" s="7" t="str">
-        <f>MID(E7, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>07</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f>MID(E7, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -2605,15 +2567,15 @@
         <v>111</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f>MID(E8, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C8" s="7" t="str">
-        <f>MID(E8, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>07</v>
       </c>
       <c r="D8" s="7" t="str">
-        <f>MID(E8, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -2695,20 +2657,20 @@
       <c r="AS8" s="13"/>
       <c r="AT8" s="13"/>
     </row>
-    <row r="9" spans="1:46" ht="43.5">
+    <row r="9" spans="1:46" ht="42.75">
       <c r="A9" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B9" s="7" t="str">
-        <f>MID(E9, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C9" s="7" t="str">
-        <f>MID(E9, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D9" s="7" t="str">
-        <f>MID(E9, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -2777,15 +2739,15 @@
         <v>135</v>
       </c>
       <c r="B10" s="7" t="str">
-        <f>MID(E10, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C10" s="7" t="str">
-        <f>MID(E10, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D10" s="7" t="str">
-        <f>MID(E10, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -2866,15 +2828,15 @@
         <v>148</v>
       </c>
       <c r="B11" s="7" t="str">
-        <f>MID(E11, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C11" s="7" t="str">
-        <f>MID(E11, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D11" s="7" t="str">
-        <f>MID(E11, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -2949,15 +2911,15 @@
         <v>161</v>
       </c>
       <c r="B12" s="7" t="str">
-        <f>MID(E12, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C12" s="7" t="str">
-        <f>MID(E12, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D12" s="7" t="str">
-        <f>MID(E12, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -3026,15 +2988,15 @@
         <v>168</v>
       </c>
       <c r="B13" s="7" t="str">
-        <f>MID(E13, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C13" s="7" t="str">
-        <f>MID(E13, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="D13" s="7" t="str">
-        <f>MID(E13, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>06</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -3103,15 +3065,15 @@
         <v>174</v>
       </c>
       <c r="B14" s="7" t="str">
-        <f>MID(E14, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C14" s="7" t="str">
-        <f>MID(E14, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="D14" s="7" t="str">
-        <f>MID(E14, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -3179,20 +3141,20 @@
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
     </row>
-    <row r="15" spans="1:46" ht="43.5">
+    <row r="15" spans="1:46" ht="42.75">
       <c r="A15" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B15" s="7" t="str">
-        <f>MID(E15, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C15" s="7" t="str">
-        <f>MID(E15, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>06</v>
       </c>
       <c r="D15" s="7" t="str">
-        <f>MID(E15, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -3261,15 +3223,15 @@
         <v>186</v>
       </c>
       <c r="B16" s="7" t="str">
-        <f>MID(E16, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C16" s="7" t="str">
-        <f>MID(E16, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>06</v>
       </c>
       <c r="D16" s="7" t="str">
-        <f>MID(E16, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -3380,15 +3342,15 @@
         <v>111</v>
       </c>
       <c r="B17" s="7" t="str">
-        <f>MID(E17, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C17" s="7" t="str">
-        <f>MID(E17, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>08</v>
       </c>
       <c r="D17" s="7" t="str">
-        <f>MID(E17, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -3473,15 +3435,15 @@
         <v>222</v>
       </c>
       <c r="B18" s="7" t="str">
-        <f>MID(E18, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C18" s="7" t="str">
-        <f>MID(E18, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D18" s="7" t="str">
-        <f>MID(E18, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>07</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -3556,15 +3518,15 @@
         <v>135</v>
       </c>
       <c r="B19" s="7" t="str">
-        <f>MID(E19, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C19" s="7" t="str">
-        <f>MID(E19, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D19" s="7" t="str">
-        <f>MID(E19, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="E19" s="13" t="s">
@@ -3633,15 +3595,15 @@
         <v>234</v>
       </c>
       <c r="B20" s="7" t="str">
-        <f>MID(E20, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C20" s="7" t="str">
-        <f>MID(E20, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D20" s="7" t="str">
-        <f>MID(E20, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>05</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -3705,20 +3667,20 @@
       <c r="AS20" s="9"/>
       <c r="AT20" s="9"/>
     </row>
-    <row r="21" spans="1:46" ht="30.75">
+    <row r="21" spans="1:46" ht="30">
       <c r="A21" s="13" t="s">
         <v>240</v>
       </c>
       <c r="B21" s="7" t="str">
-        <f>MID(E21, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C21" s="7" t="str">
-        <f>MID(E21, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D21" s="7" t="str">
-        <f>MID(E21, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="E21" s="23" t="s">
@@ -3793,15 +3755,15 @@
         <v>246</v>
       </c>
       <c r="B22" s="7" t="str">
-        <f>MID(E22, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="7" t="str">
-        <f>MID(E22, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D22" s="7" t="str">
-        <f>MID(E22, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="E22" s="13" t="s">
@@ -3876,15 +3838,15 @@
         <v>252</v>
       </c>
       <c r="B23" s="7" t="str">
-        <f>MID(E23, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C23" s="7" t="str">
-        <f>MID(E23, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D23" s="7" t="str">
-        <f>MID(E23, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>09</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -3957,15 +3919,15 @@
         <v>257</v>
       </c>
       <c r="B24" s="7" t="str">
-        <f>MID(E24, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C24" s="7" t="str">
-        <f>MID(E24, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="D24" s="7" t="str">
-        <f>MID(E24, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -4040,15 +4002,15 @@
         <v>263</v>
       </c>
       <c r="B25" s="7" t="str">
-        <f>MID(E25, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C25" s="7" t="str">
-        <f>MID(E25, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="D25" s="7" t="str">
-        <f>MID(E25, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -4117,15 +4079,15 @@
         <v>269</v>
       </c>
       <c r="B26" s="7" t="str">
-        <f>MID(E26, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C26" s="7" t="str">
-        <f>MID(E26, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="D26" s="7" t="str">
-        <f>MID(E26, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E26" s="13" t="s">
@@ -4216,15 +4178,15 @@
         <v>275</v>
       </c>
       <c r="B27" s="7" t="str">
-        <f>MID(E27, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C27" s="7" t="str">
-        <f>MID(E27, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>06</v>
       </c>
       <c r="D27" s="7" t="str">
-        <f>MID(E27, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="E27" s="13" t="s">
@@ -4329,15 +4291,15 @@
         <v>111</v>
       </c>
       <c r="B28" s="7" t="str">
-        <f>MID(E28, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C28" s="7" t="str">
-        <f>MID(E28, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>08</v>
       </c>
       <c r="D28" s="7" t="str">
-        <f>MID(E28, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>08</v>
       </c>
       <c r="E28" s="13" t="s">
@@ -4420,15 +4382,15 @@
         <v>135</v>
       </c>
       <c r="B29" s="7" t="str">
-        <f>MID(E29, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C29" s="7" t="str">
-        <f>MID(E29, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D29" s="7" t="str">
-        <f>MID(E29, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -4501,15 +4463,15 @@
         <v>135</v>
       </c>
       <c r="B30" s="7" t="str">
-        <f>MID(E30, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C30" s="7" t="str">
-        <f>MID(E30, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D30" s="7" t="str">
-        <f>MID(E30, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E30" s="13" t="s">
@@ -4598,15 +4560,15 @@
         <v>135</v>
       </c>
       <c r="B31" s="7" t="str">
-        <f>MID(E31, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C31" s="7" t="str">
-        <f>MID(E31, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D31" s="7" t="str">
-        <f>MID(E31, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E31" s="13" t="s">
@@ -4689,15 +4651,15 @@
         <v>323</v>
       </c>
       <c r="B32" s="7" t="str">
-        <f>MID(E32, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C32" s="7" t="str">
-        <f>MID(E32, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D32" s="7" t="str">
-        <f>MID(E32, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -4802,15 +4764,15 @@
         <v>328</v>
       </c>
       <c r="B33" s="7" t="str">
-        <f>MID(E33, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C33" s="7" t="str">
-        <f>MID(E33, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D33" s="7" t="str">
-        <f>MID(E33, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="E33" s="13" t="s">
@@ -4882,15 +4844,15 @@
         <v>47</v>
       </c>
       <c r="B34" s="7" t="str">
-        <f>MID(E34, 9, 2)</f>
+        <f t="shared" ref="B34:B51" si="3">MID(E34, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C34" s="7" t="str">
-        <f>MID(E34, 4, 2)</f>
+        <f t="shared" ref="C34:C51" si="4">MID(E34, 4, 2)</f>
         <v>03</v>
       </c>
       <c r="D34" s="7" t="str">
-        <f>MID(E34, 1, 2)</f>
+        <f t="shared" ref="D34:D65" si="5">MID(E34, 1, 2)</f>
         <v>28</v>
       </c>
       <c r="E34" s="13" t="s">
@@ -4957,15 +4919,15 @@
         <v>269</v>
       </c>
       <c r="B35" s="7" t="str">
-        <f>MID(E35, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C35" s="7" t="str">
-        <f>MID(E35, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>05</v>
       </c>
       <c r="D35" s="7" t="str">
-        <f>MID(E35, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="E35" s="13" t="s">
@@ -5032,15 +4994,15 @@
         <v>350</v>
       </c>
       <c r="B36" s="7" t="str">
-        <f>MID(E36, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C36" s="7" t="str">
-        <f>MID(E36, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>05</v>
       </c>
       <c r="D36" s="7" t="str">
-        <f>MID(E36, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="E36" s="13" t="s">
@@ -5104,28 +5066,28 @@
     </row>
     <row r="37" spans="1:46">
       <c r="A37" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="C37" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>06</v>
+      </c>
+      <c r="D37" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>06</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="B37" s="7" t="str">
-        <f>MID(E37, 9, 2)</f>
-        <v>22</v>
-      </c>
-      <c r="C37" s="7" t="str">
-        <f>MID(E37, 4, 2)</f>
-        <v>06</v>
-      </c>
-      <c r="D37" s="7" t="str">
-        <f>MID(E37, 1, 2)</f>
-        <v>06</v>
-      </c>
-      <c r="E37" s="13" t="s">
+      <c r="F37" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="13"/>
@@ -5135,12 +5097,14 @@
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
+      <c r="N37" s="9" t="s">
+        <v>354</v>
+      </c>
       <c r="O37" s="9" t="s">
         <v>165</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
@@ -5173,48 +5137,48 @@
       <c r="AS37" s="25"/>
       <c r="AT37" s="25"/>
     </row>
-    <row r="38" spans="1:46" ht="57.75">
+    <row r="38" spans="1:46" ht="57">
       <c r="A38" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="7" t="str">
-        <f>MID(E38, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C38" s="7" t="str">
-        <f>MID(E38, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="D38" s="7" t="str">
-        <f>MID(E38, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="E38" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="G38" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="H38" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="H38" s="29" t="s">
+      <c r="I38" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="J38" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="K38" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="L38" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="L38" s="9" t="s">
-        <v>367</v>
-      </c>
       <c r="M38" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N38" s="9" t="s">
         <v>154</v>
@@ -5223,10 +5187,10 @@
         <v>203</v>
       </c>
       <c r="P38" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q38" s="37" t="s">
         <v>368</v>
-      </c>
-      <c r="Q38" s="37" t="s">
-        <v>369</v>
       </c>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -5260,51 +5224,51 @@
     </row>
     <row r="39" spans="1:46" ht="28.5">
       <c r="A39" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B39" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="C39" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>06</v>
+      </c>
+      <c r="D39" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="B39" s="7" t="str">
-        <f>MID(E39, 9, 2)</f>
-        <v>22</v>
-      </c>
-      <c r="C39" s="7" t="str">
-        <f>MID(E39, 4, 2)</f>
-        <v>06</v>
-      </c>
-      <c r="D39" s="7" t="str">
-        <f>MID(E39, 1, 2)</f>
-        <v>19</v>
-      </c>
-      <c r="E39" s="13" t="s">
+      <c r="F39" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="G39" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="H39" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="I39" s="13" t="s">
         <v>374</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>375</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="O39" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="O39" s="9" t="s">
+      <c r="P39" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
@@ -5339,42 +5303,42 @@
     </row>
     <row r="40" spans="1:46">
       <c r="A40" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B40" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="C40" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+      <c r="D40" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="B40" s="7" t="str">
-        <f>MID(E40, 9, 2)</f>
-        <v>22</v>
-      </c>
-      <c r="C40" s="7" t="str">
-        <f>MID(E40, 4, 2)</f>
-        <v>07</v>
-      </c>
-      <c r="D40" s="7" t="str">
-        <f>MID(E40, 1, 2)</f>
-        <v>11</v>
-      </c>
-      <c r="E40" s="13" t="s">
+      <c r="F40" s="13" t="s">
         <v>381</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>382</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="I40" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="J40" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
@@ -5412,35 +5376,35 @@
     </row>
     <row r="41" spans="1:46">
       <c r="A41" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="B41" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="C41" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+      <c r="D41" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="B41" s="7" t="str">
-        <f>MID(E41, 9, 2)</f>
-        <v>22</v>
-      </c>
-      <c r="C41" s="7" t="str">
-        <f>MID(E41, 4, 2)</f>
-        <v>07</v>
-      </c>
-      <c r="D41" s="7" t="str">
-        <f>MID(E41, 1, 2)</f>
-        <v>21</v>
-      </c>
-      <c r="E41" s="26" t="s">
+      <c r="F41" s="26" t="s">
         <v>388</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>389</v>
       </c>
       <c r="G41" s="25"/>
       <c r="H41" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="I41" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="I41" s="25" t="s">
+      <c r="J41" s="25" t="s">
         <v>391</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>392</v>
       </c>
       <c r="K41" s="27"/>
       <c r="L41" s="27"/>
@@ -5452,10 +5416,10 @@
         <v>284</v>
       </c>
       <c r="P41" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q41" s="38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
@@ -5487,33 +5451,33 @@
       <c r="AS41" s="13"/>
       <c r="AT41" s="13"/>
     </row>
-    <row r="42" spans="1:46">
+    <row r="42" spans="1:46" ht="28.5">
       <c r="A42" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B42" s="7" t="str">
-        <f>MID(E42, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C42" s="7" t="str">
-        <f>MID(E42, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>08</v>
       </c>
       <c r="D42" s="7" t="str">
-        <f>MID(E42, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>06</v>
       </c>
       <c r="E42" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="G42" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="H42" s="29" t="s">
         <v>396</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>397</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>138</v>
@@ -5523,19 +5487,19 @@
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="M42" s="9" t="s">
+      <c r="N42" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="N42" s="9" t="s">
+      <c r="O42" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="O42" s="9" t="s">
+      <c r="P42" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
@@ -5573,39 +5537,39 @@
         <v>102</v>
       </c>
       <c r="B43" s="7" t="str">
-        <f>MID(E43, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C43" s="7" t="str">
-        <f>MID(E43, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>08</v>
       </c>
       <c r="D43" s="7" t="str">
-        <f>MID(E43, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="E43" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>403</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>404</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="I43" s="13" t="s">
         <v>405</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>406</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>89</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N43" s="9" t="s">
         <v>98</v>
@@ -5614,7 +5578,7 @@
         <v>53</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
@@ -5647,36 +5611,36 @@
       <c r="AS43" s="13"/>
       <c r="AT43" s="13"/>
     </row>
-    <row r="44" spans="1:46" ht="216.75">
+    <row r="44" spans="1:46" ht="213.75">
       <c r="A44" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B44" s="7" t="str">
-        <f>MID(E44, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C44" s="7" t="str">
-        <f>MID(E44, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="D44" s="7" t="str">
-        <f>MID(E44, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E44" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="G44" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="H44" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="H44" s="29" t="s">
+      <c r="I44" s="13" t="s">
         <v>412</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>413</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>70</v>
@@ -5690,17 +5654,17 @@
         <v>304</v>
       </c>
       <c r="O44" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="P44" s="34" t="s">
         <v>414</v>
-      </c>
-      <c r="P44" s="34" t="s">
-        <v>415</v>
       </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="S44" s="33" t="s">
         <v>416</v>
-      </c>
-      <c r="S44" s="33" t="s">
-        <v>417</v>
       </c>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
@@ -5735,29 +5699,29 @@
         <v>135</v>
       </c>
       <c r="B45" s="7" t="str">
-        <f>MID(E45, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C45" s="7" t="str">
-        <f>MID(E45, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="D45" s="7" t="str">
-        <f>MID(E45, 1, 2)</f>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="E45" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>409</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>410</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>412</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>413</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>70</v>
@@ -5774,15 +5738,13 @@
         <v>72</v>
       </c>
       <c r="P45" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="S45" s="33" t="s">
-        <v>417</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
@@ -5811,51 +5773,22 @@
       <c r="AS45" s="13"/>
       <c r="AT45" s="13"/>
     </row>
-    <row r="46" spans="1:46" ht="28.5">
-      <c r="A46" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B46" s="7" t="str">
-        <f>MID(E46, 9, 2)</f>
-        <v>22</v>
-      </c>
-      <c r="C46" s="7" t="str">
-        <f>MID(E46, 4, 2)</f>
-        <v>10</v>
-      </c>
-      <c r="D46" s="7" t="str">
-        <f>MID(E46, 1, 2)</f>
-        <v>19</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>342</v>
-      </c>
+    <row r="46" spans="1:46">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="O46" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
@@ -5889,37 +5822,16 @@
       <c r="AT46" s="25"/>
     </row>
     <row r="47" spans="1:46">
-      <c r="A47" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="B47" s="7" t="str">
-        <f>MID(E47, 9, 2)</f>
-        <v>22</v>
-      </c>
-      <c r="C47" s="7" t="str">
-        <f>MID(E47, 4, 2)</f>
-        <v>12</v>
-      </c>
-      <c r="D47" s="7" t="str">
-        <f>MID(E47, 1, 2)</f>
-        <v>18</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>428</v>
-      </c>
+      <c r="A47" s="25"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="I47" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="J47" s="25" t="s">
-        <v>392</v>
-      </c>
+      <c r="H47" s="30"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
       <c r="K47" s="27"/>
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
@@ -5958,24 +5870,11 @@
       <c r="AT47" s="9"/>
     </row>
     <row r="48" spans="1:46">
-      <c r="A48" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B48" s="7" t="str">
-        <f>MID(E48, 9, 2)</f>
-        <v>22</v>
-      </c>
-      <c r="C48" s="7" t="str">
-        <f>MID(E48, 4, 2)</f>
-        <v>12</v>
-      </c>
-      <c r="D48" s="7" t="str">
-        <f>MID(E48, 1, 2)</f>
-        <v>31</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>431</v>
-      </c>
+      <c r="A48" s="9"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="9"/>
@@ -6019,24 +5918,11 @@
       <c r="AT48" s="9"/>
     </row>
     <row r="49" spans="1:46">
-      <c r="A49" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B49" s="7" t="str">
-        <f>MID(E49, 9, 2)</f>
-        <v>22</v>
-      </c>
-      <c r="C49" s="7" t="str">
-        <f>MID(E49, 4, 2)</f>
-        <v>12</v>
-      </c>
-      <c r="D49" s="7" t="str">
-        <f>MID(E49, 1, 2)</f>
-        <v>31</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>431</v>
-      </c>
+      <c r="A49" s="9"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="9"/>
@@ -6080,24 +5966,11 @@
       <c r="AT49" s="9"/>
     </row>
     <row r="50" spans="1:46">
-      <c r="A50" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="7" t="str">
-        <f>MID(E50, 9, 2)</f>
-        <v>22</v>
-      </c>
-      <c r="C50" s="7" t="str">
-        <f>MID(E50, 4, 2)</f>
-        <v>12</v>
-      </c>
-      <c r="D50" s="7" t="str">
-        <f>MID(E50, 1, 2)</f>
-        <v>31</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>431</v>
-      </c>
+      <c r="A50" s="9"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="9"/>
@@ -6141,31 +6014,16 @@
       <c r="AT50" s="9"/>
     </row>
     <row r="51" spans="1:46">
-      <c r="A51" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="B51" s="7" t="str">
-        <f>MID(E51, 9, 2)</f>
-        <v>22</v>
-      </c>
-      <c r="C51" s="7" t="str">
-        <f>MID(E51, 4, 2)</f>
-        <v>12</v>
-      </c>
-      <c r="D51" s="7" t="str">
-        <f>MID(E51, 1, 2)</f>
-        <v>31</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>431</v>
-      </c>
+      <c r="A51" s="9"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="9"/>
       <c r="I51" s="18"/>
-      <c r="J51" s="6" t="s">
-        <v>392</v>
-      </c>
+      <c r="J51" s="6"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
@@ -51564,67 +51422,65 @@
       <c r="AT996" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL51">
-    <sortCondition ref="B2:B51"/>
-    <sortCondition ref="C2:C51"/>
-    <sortCondition ref="D2:D51"/>
+  <sortState ref="A2:AT996">
+    <sortCondition ref="B2:B996"/>
+    <sortCondition ref="C2:C996"/>
+    <sortCondition ref="D2:D996"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H3" r:id="rId2" location="paperID316" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="T11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AI16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H17" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H18" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q18" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="T18" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H19" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H21" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="Q21" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="T21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H25" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H26" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H27" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="AI27" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H28" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="H29" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H31" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H33" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H34" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H35" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="H41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="H38" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H40" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="H42" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="H43" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="H44" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="H46" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="H47" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="H39" r:id="rId49" xr:uid="{07BF4283-7A05-4C2B-814D-EE19D3D03A78}"/>
-    <hyperlink ref="H36" r:id="rId50" xr:uid="{09C4BEEF-B758-4F42-98F0-0A7CCEFCC085}"/>
-    <hyperlink ref="H45" r:id="rId51" xr:uid="{0B4EA0C7-8803-4088-AE9C-1FC0AA3169E3}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2" location="paperID316"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="T11" r:id="rId11"/>
+    <hyperlink ref="H12" r:id="rId12"/>
+    <hyperlink ref="H13" r:id="rId13"/>
+    <hyperlink ref="Q13" r:id="rId14"/>
+    <hyperlink ref="H14" r:id="rId15"/>
+    <hyperlink ref="Q14" r:id="rId16"/>
+    <hyperlink ref="H15" r:id="rId17"/>
+    <hyperlink ref="H16" r:id="rId18"/>
+    <hyperlink ref="AI16" r:id="rId19"/>
+    <hyperlink ref="H17" r:id="rId20"/>
+    <hyperlink ref="H18" r:id="rId21"/>
+    <hyperlink ref="Q18" r:id="rId22"/>
+    <hyperlink ref="T18" r:id="rId23"/>
+    <hyperlink ref="H19" r:id="rId24"/>
+    <hyperlink ref="H20" r:id="rId25"/>
+    <hyperlink ref="H21" r:id="rId26"/>
+    <hyperlink ref="Q21" r:id="rId27"/>
+    <hyperlink ref="T21" r:id="rId28"/>
+    <hyperlink ref="H22" r:id="rId29"/>
+    <hyperlink ref="H25" r:id="rId30"/>
+    <hyperlink ref="H26" r:id="rId31"/>
+    <hyperlink ref="H27" r:id="rId32"/>
+    <hyperlink ref="AI27" r:id="rId33"/>
+    <hyperlink ref="H28" r:id="rId34"/>
+    <hyperlink ref="H29" r:id="rId35"/>
+    <hyperlink ref="H30" r:id="rId36"/>
+    <hyperlink ref="H31" r:id="rId37"/>
+    <hyperlink ref="H33" r:id="rId38"/>
+    <hyperlink ref="H34" r:id="rId39"/>
+    <hyperlink ref="H35" r:id="rId40"/>
+    <hyperlink ref="H41" r:id="rId41"/>
+    <hyperlink ref="H38" r:id="rId42"/>
+    <hyperlink ref="H40" r:id="rId43"/>
+    <hyperlink ref="H42" r:id="rId44"/>
+    <hyperlink ref="H43" r:id="rId45"/>
+    <hyperlink ref="H44" r:id="rId46"/>
+    <hyperlink ref="H39" r:id="rId47"/>
+    <hyperlink ref="H36" r:id="rId48"/>
+    <hyperlink ref="H45" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId52"/>
+  <drawing r:id="rId50"/>
 </worksheet>
 </file>
 
@@ -51638,12 +51494,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100329EEE15A9214C4A9CD88C49071DE3D3" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1cfbdc3aec0f9764958d51c9cd4ae398">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1512c054-5eba-4473-9e73-107d9d6b916a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b93104c4cb30fae26fe00c66df1ba726" ns2:_="">
     <xsd:import namespace="1512c054-5eba-4473-9e73-107d9d6b916a"/>
@@ -51789,14 +51639,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61472F2-21CB-4677-9DEB-F5ADB6BFD29F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1512c054-5eba-4473-9e73-107d9d6b916a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61472F2-21CB-4677-9DEB-F5ADB6BFD29F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\23_Working_groups\30_estimand_onco\90_webpage\oncowg_webpage\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25311"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="11_E57AE7D6C4B4445115608800AF4DB0028C6BE972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A80071CB-5BB3-4FA5-A09B-2078695772D9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="1" r:id="rId1"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="445">
   <si>
     <t>Conference</t>
   </si>
@@ -1083,6 +1079,15 @@
     <t>06.12.2021</t>
   </si>
   <si>
+    <t>The Estimand Framework from the ICH E9(R1) Statistical Principles for Clinical Trials Addendum: Current Implementation Status and Looking Forward</t>
+  </si>
+  <si>
+    <t>Godwin Yung</t>
+  </si>
+  <si>
+    <t>Answering old questions with new tools: Application of the ICH E9 addendum in oncology</t>
+  </si>
+  <si>
     <t>ASA Biopharmaceutical Section</t>
   </si>
   <si>
@@ -1099,15 +1104,6 @@
   </si>
   <si>
     <t>From Logic-respecting Efficacy Estimands to Logic-ensuring Analysis Principle in Randomized Clinical Trials with Subgroups</t>
-  </si>
-  <si>
-    <t>06.06.2022</t>
-  </si>
-  <si>
-    <t>now webinar not SCT conference - Rachael</t>
-  </si>
-  <si>
-    <t>The Estimand Framework from the ICH E9(R1) Statistical Principles for Clinical Trials Addendum: Current Implementation Status and Looking Forward</t>
   </si>
   <si>
     <t>12.06.2022</t>
@@ -1134,10 +1130,31 @@
     <t>10.12.2021</t>
   </si>
   <si>
-    <t>Special interest group “Estimands in oncology”, sponsored by PSI and EFSPI</t>
+    <t>Poster and invited session</t>
+  </si>
+  <si>
+    <t>Stefan Englert (poster)</t>
+  </si>
+  <si>
+    <t>Poster Special interest group “Estimands in oncology”, sponsored by PSI and EFSPI</t>
   </si>
   <si>
     <t>talks/20220612_OncoEstimand-Poster-PSI-Final.pdf</t>
+  </si>
+  <si>
+    <t>Oliver Sailer</t>
+  </si>
+  <si>
+    <t>Duration of response and time to response into the estimand framework</t>
+  </si>
+  <si>
+    <t>Covariate adjust with binary and  time to event endpoint and how to  interpret marginal effect in oncology clinical trials</t>
+  </si>
+  <si>
+    <t>Stefan Englert (talk)</t>
+  </si>
+  <si>
+    <t>Censoring and censoring mechanisms in light of the estimand framework</t>
   </si>
   <si>
     <t>ICSA (International Chinese Statistical Association) Applied Statistics Symposium</t>
@@ -1209,6 +1226,9 @@
     <t>China</t>
   </si>
   <si>
+    <t>Special interest group “Estimands in oncology”, sponsored by PSI and EFSPI</t>
+  </si>
+  <si>
     <t>talks/20220721_OncoEstimand-Poster-China-Final.pdf</t>
   </si>
   <si>
@@ -1257,6 +1277,18 @@
     <t>Follow-up time in clinical trials with a time-to-event endpoint: Redefining the question(s)</t>
   </si>
   <si>
+    <t>14.09.2022</t>
+  </si>
+  <si>
+    <t>15.09.2022</t>
+  </si>
+  <si>
+    <t>EFSPI/PSI SIGs Poster&amp;Lunch Session (Stefan to lead), Kaspar member of org committee for the workshop</t>
+  </si>
+  <si>
+    <t>https://efspi.org/Documents/Events/Events%202021/7th%20Reg.pdf</t>
+  </si>
+  <si>
     <t>20.09.2022</t>
   </si>
   <si>
@@ -1289,16 +1321,58 @@
     <t>Conditional and Unconditional Treatment Effects in Clinical Trials</t>
   </si>
   <si>
-    <t>21.09.2022</t>
+    <t>talks/20220920_OncoEstimand-Poster-BIOP-Final.pdf</t>
   </si>
   <si>
-    <t>talks/20220920_OncoEstimand-Poster-BIOP-Final.pdf</t>
+    <t>ISOQoL 2022</t>
+  </si>
+  <si>
+    <t>19.10.2022</t>
+  </si>
+  <si>
+    <t>22.10.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some PRO task force members delivering workshop on estimands and PROs (not just oncology) </t>
+  </si>
+  <si>
+    <t>https://www.isoqol.org/events/29th-annual-conference/</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>ICSA (International Chinese Statistical Association) international conference</t>
+  </si>
+  <si>
+    <t>18.12.2022</t>
+  </si>
+  <si>
+    <t>20.12.2022</t>
+  </si>
+  <si>
+    <t>https://www.icsa.org/12th-icsa-international-conference-december-18-20-2022/</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>31.12.2022</t>
+  </si>
+  <si>
+    <t>DIA Quantitative Science Forum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm&quot; &quot;d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
@@ -1427,7 +1501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1527,10 +1601,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1884,12 +1955,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT996"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD51"/>
+      <pane ySplit="1" topLeftCell="Q34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2058,20 +2129,20 @@
       <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
     </row>
-    <row r="2" spans="1:46" ht="42.75">
+    <row r="2" spans="1:46" ht="57.75">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="7" t="str">
-        <f t="shared" ref="B2:B33" si="0">MID(E2, 9, 2)</f>
+        <f>MID(E2, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C2" s="7" t="str">
-        <f t="shared" ref="C2:C33" si="1">MID(E2, 4, 2)</f>
+        <f>MID(E2, 4, 2)</f>
         <v>02</v>
       </c>
       <c r="D2" s="7" t="str">
-        <f t="shared" ref="D2:D33" si="2">MID(E2, 1, 2)</f>
+        <f>MID(E2, 1, 2)</f>
         <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2135,20 +2206,20 @@
       <c r="AS2" s="9"/>
       <c r="AT2" s="9"/>
     </row>
-    <row r="3" spans="1:46" ht="28.5">
+    <row r="3" spans="1:46" ht="43.5">
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E3, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C3" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E3, 4, 2)</f>
         <v>03</v>
       </c>
       <c r="D3" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E3, 1, 2)</f>
         <v>18</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -2235,15 +2306,15 @@
         <v>65</v>
       </c>
       <c r="B4" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E4, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C4" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E4, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E4, 1, 2)</f>
         <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2330,15 +2401,15 @@
         <v>84</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E5, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C5" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E5, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D5" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E5, 1, 2)</f>
         <v>02</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -2413,15 +2484,15 @@
         <v>93</v>
       </c>
       <c r="B6" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E6, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C6" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E6, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D6" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E6, 1, 2)</f>
         <v>23</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -2490,15 +2561,15 @@
         <v>102</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E7, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C7" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E7, 4, 2)</f>
         <v>07</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E7, 1, 2)</f>
         <v>14</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -2567,15 +2638,15 @@
         <v>111</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E8, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C8" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E8, 4, 2)</f>
         <v>07</v>
       </c>
       <c r="D8" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E8, 1, 2)</f>
         <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -2657,20 +2728,20 @@
       <c r="AS8" s="13"/>
       <c r="AT8" s="13"/>
     </row>
-    <row r="9" spans="1:46" ht="42.75">
+    <row r="9" spans="1:46" ht="43.5">
       <c r="A9" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B9" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E9, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C9" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E9, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D9" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E9, 1, 2)</f>
         <v>23</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -2739,15 +2810,15 @@
         <v>135</v>
       </c>
       <c r="B10" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E10, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C10" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E10, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D10" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E10, 1, 2)</f>
         <v>23</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -2828,15 +2899,15 @@
         <v>148</v>
       </c>
       <c r="B11" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E11, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C11" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E11, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D11" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E11, 1, 2)</f>
         <v>27</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -2911,15 +2982,15 @@
         <v>161</v>
       </c>
       <c r="B12" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E12, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C12" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E12, 4, 2)</f>
         <v>10</v>
       </c>
       <c r="D12" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E12, 1, 2)</f>
         <v>20</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -2988,15 +3059,15 @@
         <v>168</v>
       </c>
       <c r="B13" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E13, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C13" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E13, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D13" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E13, 1, 2)</f>
         <v>06</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -3065,15 +3136,15 @@
         <v>174</v>
       </c>
       <c r="B14" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E14, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C14" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E14, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D14" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E14, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -3141,20 +3212,20 @@
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
     </row>
-    <row r="15" spans="1:46" ht="42.75">
+    <row r="15" spans="1:46" ht="43.5">
       <c r="A15" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B15" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E15, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C15" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E15, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D15" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E15, 1, 2)</f>
         <v>11</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -3223,15 +3294,15 @@
         <v>186</v>
       </c>
       <c r="B16" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E16, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C16" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E16, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D16" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E16, 1, 2)</f>
         <v>29</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -3342,15 +3413,15 @@
         <v>111</v>
       </c>
       <c r="B17" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E17, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C17" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E17, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D17" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E17, 1, 2)</f>
         <v>01</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -3435,15 +3506,15 @@
         <v>222</v>
       </c>
       <c r="B18" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E18, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C18" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E18, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D18" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E18, 1, 2)</f>
         <v>07</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -3518,15 +3589,15 @@
         <v>135</v>
       </c>
       <c r="B19" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E19, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C19" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E19, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D19" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E19, 1, 2)</f>
         <v>22</v>
       </c>
       <c r="E19" s="13" t="s">
@@ -3595,15 +3666,15 @@
         <v>234</v>
       </c>
       <c r="B20" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E20, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C20" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E20, 4, 2)</f>
         <v>11</v>
       </c>
       <c r="D20" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E20, 1, 2)</f>
         <v>05</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -3667,20 +3738,20 @@
       <c r="AS20" s="9"/>
       <c r="AT20" s="9"/>
     </row>
-    <row r="21" spans="1:46" ht="30">
+    <row r="21" spans="1:46" ht="30.75">
       <c r="A21" s="13" t="s">
         <v>240</v>
       </c>
       <c r="B21" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E21, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C21" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E21, 4, 2)</f>
         <v>11</v>
       </c>
       <c r="D21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E21, 1, 2)</f>
         <v>17</v>
       </c>
       <c r="E21" s="23" t="s">
@@ -3755,15 +3826,15 @@
         <v>246</v>
       </c>
       <c r="B22" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E22, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C22" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E22, 4, 2)</f>
         <v>11</v>
       </c>
       <c r="D22" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E22, 1, 2)</f>
         <v>27</v>
       </c>
       <c r="E22" s="13" t="s">
@@ -3838,15 +3909,15 @@
         <v>252</v>
       </c>
       <c r="B23" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E23, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C23" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E23, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D23" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E23, 1, 2)</f>
         <v>09</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -3919,15 +3990,15 @@
         <v>257</v>
       </c>
       <c r="B24" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E24, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C24" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E24, 4, 2)</f>
         <v>02</v>
       </c>
       <c r="D24" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E24, 1, 2)</f>
         <v>11</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -4002,15 +4073,15 @@
         <v>263</v>
       </c>
       <c r="B25" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E25, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C25" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E25, 4, 2)</f>
         <v>04</v>
       </c>
       <c r="D25" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E25, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -4079,15 +4150,15 @@
         <v>269</v>
       </c>
       <c r="B26" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E26, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C26" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E26, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D26" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E26, 1, 2)</f>
         <v>20</v>
       </c>
       <c r="E26" s="13" t="s">
@@ -4178,15 +4249,15 @@
         <v>275</v>
       </c>
       <c r="B27" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E27, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C27" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E27, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D27" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E27, 1, 2)</f>
         <v>01</v>
       </c>
       <c r="E27" s="13" t="s">
@@ -4291,15 +4362,15 @@
         <v>111</v>
       </c>
       <c r="B28" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E28, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C28" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E28, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D28" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E28, 1, 2)</f>
         <v>08</v>
       </c>
       <c r="E28" s="13" t="s">
@@ -4382,15 +4453,15 @@
         <v>135</v>
       </c>
       <c r="B29" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E29, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C29" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E29, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D29" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E29, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -4463,15 +4534,15 @@
         <v>135</v>
       </c>
       <c r="B30" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E30, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C30" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E30, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D30" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E30, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E30" s="13" t="s">
@@ -4560,15 +4631,15 @@
         <v>135</v>
       </c>
       <c r="B31" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E31, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C31" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E31, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D31" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E31, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E31" s="13" t="s">
@@ -4651,15 +4722,15 @@
         <v>323</v>
       </c>
       <c r="B32" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E32, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C32" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E32, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D32" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E32, 1, 2)</f>
         <v>28</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -4764,15 +4835,15 @@
         <v>328</v>
       </c>
       <c r="B33" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E33, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C33" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E33, 4, 2)</f>
         <v>10</v>
       </c>
       <c r="D33" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E33, 1, 2)</f>
         <v>12</v>
       </c>
       <c r="E33" s="13" t="s">
@@ -4844,15 +4915,15 @@
         <v>47</v>
       </c>
       <c r="B34" s="7" t="str">
-        <f t="shared" ref="B34:B51" si="3">MID(E34, 9, 2)</f>
+        <f>MID(E34, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C34" s="7" t="str">
-        <f t="shared" ref="C34:C51" si="4">MID(E34, 4, 2)</f>
+        <f>MID(E34, 4, 2)</f>
         <v>03</v>
       </c>
       <c r="D34" s="7" t="str">
-        <f t="shared" ref="D34:D65" si="5">MID(E34, 1, 2)</f>
+        <f>MID(E34, 1, 2)</f>
         <v>28</v>
       </c>
       <c r="E34" s="13" t="s">
@@ -4919,15 +4990,15 @@
         <v>269</v>
       </c>
       <c r="B35" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E35, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C35" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E35, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D35" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E35, 1, 2)</f>
         <v>15</v>
       </c>
       <c r="E35" s="13" t="s">
@@ -4956,11 +5027,18 @@
         <v>349</v>
       </c>
       <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
+      <c r="O35" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>352</v>
+      </c>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
@@ -4991,31 +5069,31 @@
     </row>
     <row r="36" spans="1:46">
       <c r="A36" s="6" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B36" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E36, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C36" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E36, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D36" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E36, 1, 2)</f>
         <v>26</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="6"/>
@@ -5025,13 +5103,13 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>99</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -5064,57 +5142,81 @@
       <c r="AS36" s="25"/>
       <c r="AT36" s="25"/>
     </row>
-    <row r="37" spans="1:46">
+    <row r="37" spans="1:46" ht="57.75">
       <c r="A37" s="6" t="s">
-        <v>269</v>
+        <v>84</v>
       </c>
       <c r="B37" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E37, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C37" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E37, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D37" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>06</v>
+        <f>MID(E37, 1, 2)</f>
+        <v>12</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="6"/>
+        <v>361</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="K37" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+        <v>365</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>366</v>
+      </c>
       <c r="N37" s="9" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>165</v>
+        <v>368</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
+        <v>369</v>
+      </c>
+      <c r="Q37" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
+      <c r="U37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>373</v>
+      </c>
       <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
+      <c r="X37" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y37" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
@@ -5128,70 +5230,64 @@
       <c r="AJ37" s="13"/>
       <c r="AK37" s="13"/>
       <c r="AL37" s="13"/>
-      <c r="AM37" s="25"/>
-      <c r="AN37" s="25"/>
-      <c r="AO37" s="25"/>
-      <c r="AP37" s="25"/>
-      <c r="AQ37" s="25"/>
-      <c r="AR37" s="25"/>
-      <c r="AS37" s="25"/>
-      <c r="AT37" s="25"/>
-    </row>
-    <row r="38" spans="1:46" ht="57">
+      <c r="AM37" s="13"/>
+      <c r="AN37" s="13"/>
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="13"/>
+      <c r="AQ37" s="13"/>
+      <c r="AR37" s="13"/>
+      <c r="AS37" s="13"/>
+      <c r="AT37" s="13"/>
+    </row>
+    <row r="38" spans="1:46" ht="28.5">
       <c r="A38" s="6" t="s">
-        <v>84</v>
+        <v>376</v>
       </c>
       <c r="B38" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E38, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C38" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E38, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D38" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>MID(E38, 1, 2)</f>
+        <v>19</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>362</v>
+        <v>379</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>380</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>364</v>
+        <v>70</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>154</v>
+        <v>382</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="33" t="s">
+        <v>383</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>203</v>
+        <v>384</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q38" s="37" t="s">
-        <v>368</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
@@ -5222,54 +5318,48 @@
       <c r="AS38" s="13"/>
       <c r="AT38" s="13"/>
     </row>
-    <row r="39" spans="1:46" ht="28.5">
+    <row r="39" spans="1:46">
       <c r="A39" s="6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="B39" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E39, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C39" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>06</v>
+        <f>MID(E39, 4, 2)</f>
+        <v>07</v>
       </c>
       <c r="D39" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f>MID(E39, 1, 2)</f>
+        <v>11</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>373</v>
+        <v>388</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="29" t="s">
+        <v>389</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>378</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
@@ -5302,69 +5392,73 @@
       <c r="AT39" s="13"/>
     </row>
     <row r="40" spans="1:46">
-      <c r="A40" s="6" t="s">
-        <v>379</v>
+      <c r="A40" s="25" t="s">
+        <v>393</v>
       </c>
       <c r="B40" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E40, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C40" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E40, 4, 2)</f>
         <v>07</v>
       </c>
       <c r="D40" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13"/>
-      <c r="AL40" s="13"/>
+        <f>MID(E40, 1, 2)</f>
+        <v>21</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="H40" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="P40" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q40" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
+      <c r="AI40" s="25"/>
+      <c r="AJ40" s="25"/>
+      <c r="AK40" s="25"/>
+      <c r="AL40" s="25"/>
       <c r="AM40" s="13"/>
       <c r="AN40" s="13"/>
       <c r="AO40" s="13"/>
@@ -5375,73 +5469,77 @@
       <c r="AT40" s="13"/>
     </row>
     <row r="41" spans="1:46">
-      <c r="A41" s="25" t="s">
-        <v>386</v>
+      <c r="A41" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="B41" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E41, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C41" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
+        <f>MID(E41, 4, 2)</f>
+        <v>08</v>
       </c>
       <c r="D41" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="P41" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q41" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="25"/>
-      <c r="AD41" s="25"/>
-      <c r="AE41" s="25"/>
-      <c r="AF41" s="25"/>
-      <c r="AG41" s="25"/>
-      <c r="AH41" s="25"/>
-      <c r="AI41" s="25"/>
-      <c r="AJ41" s="25"/>
-      <c r="AK41" s="25"/>
-      <c r="AL41" s="25"/>
+        <f>MID(E41, 1, 2)</f>
+        <v>06</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="13"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="13"/>
+      <c r="AI41" s="13"/>
+      <c r="AJ41" s="13"/>
+      <c r="AK41" s="13"/>
+      <c r="AL41" s="13"/>
       <c r="AM41" s="13"/>
       <c r="AN41" s="13"/>
       <c r="AO41" s="13"/>
@@ -5451,55 +5549,53 @@
       <c r="AS41" s="13"/>
       <c r="AT41" s="13"/>
     </row>
-    <row r="42" spans="1:46" ht="28.5">
+    <row r="42" spans="1:46">
       <c r="A42" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B42" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E42, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C42" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E42, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D42" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>06</v>
+        <f>MID(E42, 1, 2)</f>
+        <v>21</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>395</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G42" s="6"/>
       <c r="H42" s="29" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>138</v>
+        <v>413</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>399</v>
+        <v>98</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>400</v>
+        <v>53</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
@@ -5533,114 +5629,79 @@
       <c r="AT42" s="13"/>
     </row>
     <row r="43" spans="1:46">
-      <c r="A43" s="6" t="s">
-        <v>102</v>
+      <c r="A43" s="25" t="s">
+        <v>127</v>
       </c>
       <c r="B43" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E43, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C43" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
+        <f>MID(E43, 4, 2)</f>
+        <v>09</v>
       </c>
       <c r="D43" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O43" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="13"/>
-      <c r="AE43" s="13"/>
-      <c r="AF43" s="13"/>
-      <c r="AG43" s="13"/>
-      <c r="AH43" s="13"/>
-      <c r="AI43" s="13"/>
-      <c r="AJ43" s="13"/>
-      <c r="AK43" s="13"/>
-      <c r="AL43" s="13"/>
-      <c r="AM43" s="13"/>
-      <c r="AN43" s="13"/>
-      <c r="AO43" s="13"/>
-      <c r="AP43" s="13"/>
-      <c r="AQ43" s="13"/>
-      <c r="AR43" s="13"/>
-      <c r="AS43" s="13"/>
-      <c r="AT43" s="13"/>
-    </row>
-    <row r="44" spans="1:46" ht="213.75">
+        <f>MID(E43, 1, 2)</f>
+        <v>14</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="G43" t="s">
+        <v>418</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="I43" t="s">
+        <v>131</v>
+      </c>
+      <c r="J43" t="s">
+        <v>132</v>
+      </c>
+      <c r="K43" t="s">
+        <v>342</v>
+      </c>
+      <c r="N43" t="s">
+        <v>154</v>
+      </c>
+      <c r="O43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" ht="216.75">
       <c r="A44" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B44" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E44, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C44" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E44, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D44" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E44, 1, 2)</f>
         <v>20</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>70</v>
@@ -5654,23 +5715,29 @@
         <v>304</v>
       </c>
       <c r="O44" s="33" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="P44" s="34" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="33" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="S44" s="33" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
+      <c r="U44" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="V44" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="W44" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="X44" s="33"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
@@ -5694,37 +5761,39 @@
       <c r="AS44" s="13"/>
       <c r="AT44" s="13"/>
     </row>
-    <row r="45" spans="1:46">
+    <row r="45" spans="1:46" ht="28.5">
       <c r="A45" s="6" t="s">
-        <v>135</v>
+        <v>430</v>
       </c>
       <c r="B45" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E45, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C45" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>09</v>
+        <f>MID(E45, 4, 2)</f>
+        <v>10</v>
       </c>
       <c r="D45" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f>MID(E45, 1, 2)</f>
+        <v>19</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="G45" s="6"/>
+        <v>432</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="H45" s="29" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>70</v>
+        <v>436</v>
       </c>
       <c r="K45" s="9" t="s">
         <v>342</v>
@@ -5732,19 +5801,15 @@
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="O45" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="P45" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
+        <v>437</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
@@ -5764,102 +5829,136 @@
       <c r="AJ45" s="13"/>
       <c r="AK45" s="13"/>
       <c r="AL45" s="13"/>
-      <c r="AM45" s="13"/>
-      <c r="AN45" s="13"/>
-      <c r="AO45" s="13"/>
-      <c r="AP45" s="13"/>
-      <c r="AQ45" s="13"/>
-      <c r="AR45" s="13"/>
-      <c r="AS45" s="13"/>
-      <c r="AT45" s="13"/>
+      <c r="AM45" s="25"/>
+      <c r="AN45" s="25"/>
+      <c r="AO45" s="25"/>
+      <c r="AP45" s="25"/>
+      <c r="AQ45" s="25"/>
+      <c r="AR45" s="25"/>
+      <c r="AS45" s="25"/>
+      <c r="AT45" s="25"/>
     </row>
     <row r="46" spans="1:46">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="13"/>
-      <c r="AI46" s="13"/>
-      <c r="AJ46" s="13"/>
-      <c r="AK46" s="13"/>
-      <c r="AL46" s="13"/>
-      <c r="AM46" s="25"/>
-      <c r="AN46" s="25"/>
-      <c r="AO46" s="25"/>
-      <c r="AP46" s="25"/>
-      <c r="AQ46" s="25"/>
-      <c r="AR46" s="25"/>
-      <c r="AS46" s="25"/>
-      <c r="AT46" s="25"/>
+      <c r="A46" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="B46" s="7" t="str">
+        <f>MID(E46, 9, 2)</f>
+        <v>22</v>
+      </c>
+      <c r="C46" s="7" t="str">
+        <f>MID(E46, 4, 2)</f>
+        <v>12</v>
+      </c>
+      <c r="D46" s="7" t="str">
+        <f>MID(E46, 1, 2)</f>
+        <v>18</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="G46" s="25"/>
+      <c r="H46" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+      <c r="AG46" s="25"/>
+      <c r="AH46" s="25"/>
+      <c r="AI46" s="25"/>
+      <c r="AJ46" s="25"/>
+      <c r="AK46" s="25"/>
+      <c r="AL46" s="25"/>
+      <c r="AM46" s="9"/>
+      <c r="AN46" s="9"/>
+      <c r="AO46" s="9"/>
+      <c r="AP46" s="9"/>
+      <c r="AQ46" s="9"/>
+      <c r="AR46" s="9"/>
+      <c r="AS46" s="9"/>
+      <c r="AT46" s="9"/>
     </row>
     <row r="47" spans="1:46">
-      <c r="A47" s="25"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="25"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="25"/>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="25"/>
-      <c r="AD47" s="25"/>
-      <c r="AE47" s="25"/>
-      <c r="AF47" s="25"/>
-      <c r="AG47" s="25"/>
-      <c r="AH47" s="25"/>
-      <c r="AI47" s="25"/>
-      <c r="AJ47" s="25"/>
-      <c r="AK47" s="25"/>
-      <c r="AL47" s="25"/>
+      <c r="A47" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" s="7" t="str">
+        <f>MID(E47, 9, 2)</f>
+        <v>22</v>
+      </c>
+      <c r="C47" s="7" t="str">
+        <f>MID(E47, 4, 2)</f>
+        <v>12</v>
+      </c>
+      <c r="D47" s="7" t="str">
+        <f>MID(E47, 1, 2)</f>
+        <v>31</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="9"/>
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="9"/>
       <c r="AM47" s="9"/>
       <c r="AN47" s="9"/>
       <c r="AO47" s="9"/>
@@ -5870,11 +5969,24 @@
       <c r="AT47" s="9"/>
     </row>
     <row r="48" spans="1:46">
-      <c r="A48" s="9"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="6"/>
+      <c r="A48" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48" s="7" t="str">
+        <f>MID(E48, 9, 2)</f>
+        <v>22</v>
+      </c>
+      <c r="C48" s="7" t="str">
+        <f>MID(E48, 4, 2)</f>
+        <v>12</v>
+      </c>
+      <c r="D48" s="7" t="str">
+        <f>MID(E48, 1, 2)</f>
+        <v>31</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="9"/>
@@ -5918,11 +6030,24 @@
       <c r="AT48" s="9"/>
     </row>
     <row r="49" spans="1:46">
-      <c r="A49" s="9"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="6"/>
+      <c r="A49" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="7" t="str">
+        <f>MID(E49, 9, 2)</f>
+        <v>22</v>
+      </c>
+      <c r="C49" s="7" t="str">
+        <f>MID(E49, 4, 2)</f>
+        <v>12</v>
+      </c>
+      <c r="D49" s="7" t="str">
+        <f>MID(E49, 1, 2)</f>
+        <v>31</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="9"/>
@@ -5966,16 +6091,31 @@
       <c r="AT49" s="9"/>
     </row>
     <row r="50" spans="1:46">
-      <c r="A50" s="9"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="6"/>
+      <c r="A50" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B50" s="7" t="str">
+        <f>MID(E50, 9, 2)</f>
+        <v>22</v>
+      </c>
+      <c r="C50" s="7" t="str">
+        <f>MID(E50, 4, 2)</f>
+        <v>12</v>
+      </c>
+      <c r="D50" s="7" t="str">
+        <f>MID(E50, 1, 2)</f>
+        <v>31</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="9"/>
       <c r="I50" s="18"/>
-      <c r="J50" s="6"/>
+      <c r="J50" s="6" t="s">
+        <v>398</v>
+      </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -6004,54 +6144,54 @@
       <c r="AJ50" s="9"/>
       <c r="AK50" s="9"/>
       <c r="AL50" s="9"/>
-      <c r="AM50" s="9"/>
-      <c r="AN50" s="9"/>
-      <c r="AO50" s="9"/>
-      <c r="AP50" s="9"/>
-      <c r="AQ50" s="9"/>
-      <c r="AR50" s="9"/>
-      <c r="AS50" s="9"/>
-      <c r="AT50" s="9"/>
+      <c r="AM50" s="13"/>
+      <c r="AN50" s="13"/>
+      <c r="AO50" s="13"/>
+      <c r="AP50" s="13"/>
+      <c r="AQ50" s="13"/>
+      <c r="AR50" s="13"/>
+      <c r="AS50" s="13"/>
+      <c r="AT50" s="13"/>
     </row>
     <row r="51" spans="1:46">
-      <c r="A51" s="9"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="18"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
       <c r="J51" s="6"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="9"/>
-      <c r="AD51" s="9"/>
-      <c r="AE51" s="9"/>
-      <c r="AF51" s="9"/>
-      <c r="AG51" s="9"/>
-      <c r="AH51" s="9"/>
-      <c r="AI51" s="9"/>
-      <c r="AJ51" s="9"/>
-      <c r="AK51" s="9"/>
-      <c r="AL51" s="9"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="13"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="13"/>
+      <c r="AI51" s="13"/>
+      <c r="AJ51" s="13"/>
+      <c r="AK51" s="13"/>
+      <c r="AL51" s="13"/>
       <c r="AM51" s="13"/>
       <c r="AN51" s="13"/>
       <c r="AO51" s="13"/>
@@ -13982,52 +14122,52 @@
       <c r="AT216" s="13"/>
     </row>
     <row r="217" spans="1:46">
-      <c r="A217" s="13"/>
-      <c r="B217" s="28"/>
-      <c r="C217" s="28"/>
-      <c r="D217" s="28"/>
-      <c r="E217" s="24"/>
-      <c r="F217" s="24"/>
-      <c r="G217" s="6"/>
-      <c r="H217" s="13"/>
-      <c r="I217" s="13"/>
-      <c r="J217" s="6"/>
+      <c r="A217" s="9"/>
+      <c r="B217" s="31"/>
+      <c r="C217" s="31"/>
+      <c r="D217" s="31"/>
+      <c r="E217" s="32"/>
+      <c r="F217" s="32"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="9"/>
+      <c r="I217" s="9"/>
+      <c r="J217" s="9"/>
       <c r="K217" s="9"/>
       <c r="L217" s="9"/>
       <c r="M217" s="9"/>
       <c r="N217" s="9"/>
       <c r="O217" s="9"/>
-      <c r="P217" s="6"/>
-      <c r="Q217" s="6"/>
-      <c r="R217" s="6"/>
-      <c r="S217" s="6"/>
-      <c r="T217" s="6"/>
-      <c r="U217" s="6"/>
-      <c r="V217" s="6"/>
-      <c r="W217" s="6"/>
-      <c r="X217" s="6"/>
-      <c r="Y217" s="6"/>
-      <c r="Z217" s="6"/>
-      <c r="AA217" s="6"/>
-      <c r="AB217" s="6"/>
-      <c r="AC217" s="6"/>
-      <c r="AD217" s="13"/>
-      <c r="AE217" s="13"/>
-      <c r="AF217" s="13"/>
-      <c r="AG217" s="13"/>
-      <c r="AH217" s="13"/>
-      <c r="AI217" s="13"/>
-      <c r="AJ217" s="13"/>
-      <c r="AK217" s="13"/>
-      <c r="AL217" s="13"/>
-      <c r="AM217" s="13"/>
-      <c r="AN217" s="13"/>
-      <c r="AO217" s="13"/>
-      <c r="AP217" s="13"/>
-      <c r="AQ217" s="13"/>
-      <c r="AR217" s="13"/>
-      <c r="AS217" s="13"/>
-      <c r="AT217" s="13"/>
+      <c r="P217" s="9"/>
+      <c r="Q217" s="9"/>
+      <c r="R217" s="9"/>
+      <c r="S217" s="9"/>
+      <c r="T217" s="9"/>
+      <c r="U217" s="9"/>
+      <c r="V217" s="9"/>
+      <c r="W217" s="9"/>
+      <c r="X217" s="9"/>
+      <c r="Y217" s="9"/>
+      <c r="Z217" s="9"/>
+      <c r="AA217" s="9"/>
+      <c r="AB217" s="9"/>
+      <c r="AC217" s="9"/>
+      <c r="AD217" s="9"/>
+      <c r="AE217" s="9"/>
+      <c r="AF217" s="9"/>
+      <c r="AG217" s="9"/>
+      <c r="AH217" s="9"/>
+      <c r="AI217" s="9"/>
+      <c r="AJ217" s="9"/>
+      <c r="AK217" s="9"/>
+      <c r="AL217" s="9"/>
+      <c r="AM217" s="9"/>
+      <c r="AN217" s="9"/>
+      <c r="AO217" s="9"/>
+      <c r="AP217" s="9"/>
+      <c r="AQ217" s="9"/>
+      <c r="AR217" s="9"/>
+      <c r="AS217" s="9"/>
+      <c r="AT217" s="9"/>
     </row>
     <row r="218" spans="1:46">
       <c r="A218" s="9"/>
@@ -51373,114 +51513,68 @@
       <c r="AS995" s="9"/>
       <c r="AT995" s="9"/>
     </row>
-    <row r="996" spans="1:46">
-      <c r="A996" s="9"/>
-      <c r="B996" s="31"/>
-      <c r="C996" s="31"/>
-      <c r="D996" s="31"/>
-      <c r="E996" s="32"/>
-      <c r="F996" s="32"/>
-      <c r="G996" s="9"/>
-      <c r="H996" s="9"/>
-      <c r="I996" s="9"/>
-      <c r="J996" s="9"/>
-      <c r="K996" s="9"/>
-      <c r="L996" s="9"/>
-      <c r="M996" s="9"/>
-      <c r="N996" s="9"/>
-      <c r="O996" s="9"/>
-      <c r="P996" s="9"/>
-      <c r="Q996" s="9"/>
-      <c r="R996" s="9"/>
-      <c r="S996" s="9"/>
-      <c r="T996" s="9"/>
-      <c r="U996" s="9"/>
-      <c r="V996" s="9"/>
-      <c r="W996" s="9"/>
-      <c r="X996" s="9"/>
-      <c r="Y996" s="9"/>
-      <c r="Z996" s="9"/>
-      <c r="AA996" s="9"/>
-      <c r="AB996" s="9"/>
-      <c r="AC996" s="9"/>
-      <c r="AD996" s="9"/>
-      <c r="AE996" s="9"/>
-      <c r="AF996" s="9"/>
-      <c r="AG996" s="9"/>
-      <c r="AH996" s="9"/>
-      <c r="AI996" s="9"/>
-      <c r="AJ996" s="9"/>
-      <c r="AK996" s="9"/>
-      <c r="AL996" s="9"/>
-      <c r="AM996" s="9"/>
-      <c r="AN996" s="9"/>
-      <c r="AO996" s="9"/>
-      <c r="AP996" s="9"/>
-      <c r="AQ996" s="9"/>
-      <c r="AR996" s="9"/>
-      <c r="AS996" s="9"/>
-      <c r="AT996" s="9"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:AT996">
-    <sortCondition ref="B2:B996"/>
-    <sortCondition ref="C2:C996"/>
-    <sortCondition ref="D2:D996"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AT995">
+    <sortCondition ref="B2:B995"/>
+    <sortCondition ref="C2:C995"/>
+    <sortCondition ref="D2:D995"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2" location="paperID316"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H6" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-    <hyperlink ref="H8" r:id="rId7"/>
-    <hyperlink ref="H9" r:id="rId8"/>
-    <hyperlink ref="H10" r:id="rId9"/>
-    <hyperlink ref="H11" r:id="rId10"/>
-    <hyperlink ref="T11" r:id="rId11"/>
-    <hyperlink ref="H12" r:id="rId12"/>
-    <hyperlink ref="H13" r:id="rId13"/>
-    <hyperlink ref="Q13" r:id="rId14"/>
-    <hyperlink ref="H14" r:id="rId15"/>
-    <hyperlink ref="Q14" r:id="rId16"/>
-    <hyperlink ref="H15" r:id="rId17"/>
-    <hyperlink ref="H16" r:id="rId18"/>
-    <hyperlink ref="AI16" r:id="rId19"/>
-    <hyperlink ref="H17" r:id="rId20"/>
-    <hyperlink ref="H18" r:id="rId21"/>
-    <hyperlink ref="Q18" r:id="rId22"/>
-    <hyperlink ref="T18" r:id="rId23"/>
-    <hyperlink ref="H19" r:id="rId24"/>
-    <hyperlink ref="H20" r:id="rId25"/>
-    <hyperlink ref="H21" r:id="rId26"/>
-    <hyperlink ref="Q21" r:id="rId27"/>
-    <hyperlink ref="T21" r:id="rId28"/>
-    <hyperlink ref="H22" r:id="rId29"/>
-    <hyperlink ref="H25" r:id="rId30"/>
-    <hyperlink ref="H26" r:id="rId31"/>
-    <hyperlink ref="H27" r:id="rId32"/>
-    <hyperlink ref="AI27" r:id="rId33"/>
-    <hyperlink ref="H28" r:id="rId34"/>
-    <hyperlink ref="H29" r:id="rId35"/>
-    <hyperlink ref="H30" r:id="rId36"/>
-    <hyperlink ref="H31" r:id="rId37"/>
-    <hyperlink ref="H33" r:id="rId38"/>
-    <hyperlink ref="H34" r:id="rId39"/>
-    <hyperlink ref="H35" r:id="rId40"/>
-    <hyperlink ref="H41" r:id="rId41"/>
-    <hyperlink ref="H38" r:id="rId42"/>
-    <hyperlink ref="H40" r:id="rId43"/>
-    <hyperlink ref="H42" r:id="rId44"/>
-    <hyperlink ref="H43" r:id="rId45"/>
-    <hyperlink ref="H44" r:id="rId46"/>
-    <hyperlink ref="H39" r:id="rId47"/>
-    <hyperlink ref="H36" r:id="rId48"/>
-    <hyperlink ref="H45" r:id="rId49"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" location="paperID316" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="T11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AI16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H17" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H18" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q18" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="T18" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H19" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H21" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="Q21" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="T21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H25" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H26" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H27" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AI27" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H28" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H29" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H31" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H33" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H34" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H35" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H40" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H37" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H39" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H41" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="H42" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H44" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="H45" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H46" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H38" r:id="rId49" xr:uid="{07BF4283-7A05-4C2B-814D-EE19D3D03A78}"/>
+    <hyperlink ref="H36" r:id="rId50" xr:uid="{09C4BEEF-B758-4F42-98F0-0A7CCEFCC085}"/>
+    <hyperlink ref="H43" r:id="rId51" xr:uid="{4499F48E-4EEC-4C7A-A538-691F87D61DB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId50"/>
+  <drawing r:id="rId52"/>
 </worksheet>
 </file>
 
@@ -51494,6 +51588,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100329EEE15A9214C4A9CD88C49071DE3D3" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1cfbdc3aec0f9764958d51c9cd4ae398">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1512c054-5eba-4473-9e73-107d9d6b916a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b93104c4cb30fae26fe00c66df1ba726" ns2:_="">
     <xsd:import namespace="1512c054-5eba-4473-9e73-107d9d6b916a"/>
@@ -51639,43 +51739,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61472F2-21CB-4677-9DEB-F5ADB6BFD29F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1512c054-5eba-4473-9e73-107d9d6b916a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61472F2-21CB-4677-9DEB-F5ADB6BFD29F}"/>
 </file>
--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25318"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="202" documentId="11_E57AE7D6C4B4445115608800AF4DB0028C6BE972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A80071CB-5BB3-4FA5-A09B-2078695772D9}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="11_E57AE7D6C4B4445115608800AF4DB0028C6BE972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10B3D343-E6E4-444D-BBDD-E50BE8BFDBE5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="454">
   <si>
     <t>Conference</t>
   </si>
@@ -695,6 +695,27 @@
     <t>Richard J. Cook</t>
   </si>
   <si>
+    <t>GMDS &amp; CEN IBS 2020</t>
+  </si>
+  <si>
+    <t>06.09.2020</t>
+  </si>
+  <si>
+    <t>11.09.2020</t>
+  </si>
+  <si>
+    <t>http://www.stadtgame.de/news/gmds-cen-2020/</t>
+  </si>
+  <si>
+    <t>Juliane Manitz</t>
+  </si>
+  <si>
+    <t>Estimands for Overall Survival in _x000B_clinical trials with treatment switching</t>
+  </si>
+  <si>
+    <t>talks/20200906_GMDS_GEN_Manitz_switching.pdf</t>
+  </si>
+  <si>
     <t>Webinar of the Basel Biometrics Section: RCTs meeting causal inference: principal stratum strategy and beyond</t>
   </si>
   <si>
@@ -849,9 +870,6 @@
   </si>
   <si>
     <t>talks/SCT 2021 estimand onco.pdf</t>
-  </si>
-  <si>
-    <t>Juliane Manitz</t>
   </si>
   <si>
     <t>PSI EIWG Webinar: Estimands in Oncology - How and Why</t>
@@ -1059,6 +1077,15 @@
   </si>
   <si>
     <t>19.12.2021</t>
+  </si>
+  <si>
+    <t>PSI Journal Club – Treatment Switching in Clinical Trials</t>
+  </si>
+  <si>
+    <t>26.04.2022</t>
+  </si>
+  <si>
+    <t>https://www.psiweb.org/vod/item/psi-journal-club-treatment-switching-in-clinical-trials</t>
   </si>
   <si>
     <t>15.05.2022</t>
@@ -1626,7 +1653,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -1956,11 +1983,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT995"/>
+  <dimension ref="A1:AT997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="Q34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S36" sqref="S36"/>
+      <pane ySplit="1" topLeftCell="N32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3501,8 +3528,8 @@
       <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
     </row>
-    <row r="18" spans="1:46" ht="28.5">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:46">
+      <c r="A18" s="9" t="s">
         <v>222</v>
       </c>
       <c r="B18" s="7" t="str">
@@ -3515,48 +3542,42 @@
       </c>
       <c r="D18" s="7" t="str">
         <f>MID(E18, 1, 2)</f>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>223</v>
+      <c r="F18" s="11" t="s">
+        <v>224</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="I18" s="18"/>
+      <c r="H18" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="J18" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>171</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>53</v>
+        <v>98</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>226</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="T18" s="17" t="s">
         <v>227</v>
       </c>
+      <c r="Q18" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
@@ -3564,29 +3585,29 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-    </row>
-    <row r="19" spans="1:46">
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+    </row>
+    <row r="19" spans="1:46" ht="28.5">
       <c r="A19" s="13" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="B19" s="7" t="str">
         <f>MID(E19, 9, 2)</f>
@@ -3598,24 +3619,24 @@
       </c>
       <c r="D19" s="7" t="str">
         <f>MID(E19, 1, 2)</f>
-        <v>22</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>229</v>
+        <v>07</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="6" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3623,17 +3644,23 @@
         <v>43</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P19" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q19" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="R19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S19" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
+      <c r="T19" s="17" t="s">
+        <v>234</v>
+      </c>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
@@ -3662,8 +3689,8 @@
       <c r="AT19" s="13"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="9" t="s">
-        <v>234</v>
+      <c r="A20" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="B20" s="7" t="str">
         <f>MID(E20, 9, 2)</f>
@@ -3671,28 +3698,28 @@
       </c>
       <c r="C20" s="7" t="str">
         <f>MID(E20, 4, 2)</f>
-        <v>11</v>
+        <v>09</v>
       </c>
       <c r="D20" s="7" t="str">
         <f>MID(E20, 1, 2)</f>
-        <v>05</v>
-      </c>
-      <c r="E20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>235</v>
+      <c r="F20" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="17" t="s">
-        <v>236</v>
+      <c r="H20" s="29" t="s">
+        <v>237</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>231</v>
+        <v>70</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
@@ -3700,13 +3727,13 @@
         <v>43</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
@@ -3718,29 +3745,29 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="9"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="9"/>
-      <c r="AT20" s="9"/>
-    </row>
-    <row r="21" spans="1:46" ht="30.75">
-      <c r="A21" s="13" t="s">
-        <v>240</v>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+    </row>
+    <row r="21" spans="1:46">
+      <c r="A21" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="B21" s="7" t="str">
         <f>MID(E21, 9, 2)</f>
@@ -3752,48 +3779,42 @@
       </c>
       <c r="D21" s="7" t="str">
         <f>MID(E21, 1, 2)</f>
-        <v>17</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>241</v>
+        <v>05</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="29" t="s">
-        <v>242</v>
+      <c r="H21" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>243</v>
+      <c r="J21" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9" t="s">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="Q21" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="T21" s="17" t="s">
-        <v>242</v>
-      </c>
+      <c r="Q21" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
@@ -3801,29 +3822,29 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-    </row>
-    <row r="22" spans="1:46">
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="9"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
+    </row>
+    <row r="22" spans="1:46" ht="30.75">
       <c r="A22" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B22" s="7" t="str">
         <f>MID(E22, 9, 2)</f>
@@ -3835,47 +3856,47 @@
       </c>
       <c r="D22" s="7" t="str">
         <f>MID(E22, 1, 2)</f>
-        <v>27</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>247</v>
+        <v>17</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="12" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="O22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q22" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="P22" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>251</v>
-      </c>
       <c r="R22" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="T22" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>249</v>
       </c>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
@@ -3906,7 +3927,7 @@
     </row>
     <row r="23" spans="1:46">
       <c r="A23" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B23" s="7" t="str">
         <f>MID(E23, 9, 2)</f>
@@ -3914,49 +3935,51 @@
       </c>
       <c r="C23" s="7" t="str">
         <f>MID(E23, 4, 2)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="7" t="str">
         <f>MID(E23, 1, 2)</f>
-        <v>09</v>
+        <v>27</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="13"/>
+      <c r="H23" s="29" t="s">
+        <v>255</v>
+      </c>
       <c r="I23" s="18"/>
       <c r="J23" s="12" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9" t="s">
-        <v>254</v>
+        <v>43</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="R23" s="9" t="s">
         <v>53</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
@@ -3987,59 +4010,57 @@
     </row>
     <row r="24" spans="1:46">
       <c r="A24" s="13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B24" s="7" t="str">
         <f>MID(E24, 9, 2)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="7" t="str">
         <f>MID(E24, 4, 2)</f>
-        <v>02</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7" t="str">
         <f>MID(E24, 1, 2)</f>
-        <v>11</v>
+        <v>09</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="13" t="s">
-        <v>259</v>
-      </c>
+      <c r="H24" s="13"/>
       <c r="I24" s="18"/>
       <c r="J24" s="12" t="s">
         <v>70</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O24" s="9" t="s">
         <v>44</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R24" s="9" t="s">
         <v>53</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
@@ -4069,8 +4090,8 @@
       <c r="AT24" s="13"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="A25" s="6" t="s">
-        <v>263</v>
+      <c r="A25" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="B25" s="7" t="str">
         <f>MID(E25, 9, 2)</f>
@@ -4078,20 +4099,20 @@
       </c>
       <c r="C25" s="7" t="str">
         <f>MID(E25, 4, 2)</f>
-        <v>04</v>
+        <v>02</v>
       </c>
       <c r="D25" s="7" t="str">
         <f>MID(E25, 1, 2)</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>265</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="13" t="s">
         <v>266</v>
       </c>
       <c r="I25" s="18"/>
@@ -4099,25 +4120,31 @@
         <v>70</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9" t="s">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="Q25" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S25" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
+      <c r="T25" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
@@ -4145,9 +4172,9 @@
       <c r="AS25" s="13"/>
       <c r="AT25" s="13"/>
     </row>
-    <row r="26" spans="1:46" ht="28.5">
+    <row r="26" spans="1:46">
       <c r="A26" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B26" s="7" t="str">
         <f>MID(E26, 9, 2)</f>
@@ -4155,77 +4182,55 @@
       </c>
       <c r="C26" s="7" t="str">
         <f>MID(E26, 4, 2)</f>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="D26" s="7" t="str">
         <f>MID(E26, 1, 2)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F26" s="24"/>
+        <v>271</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>272</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="29" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="12" t="s">
         <v>70</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>272</v>
+        <v>201</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="T26" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="W26" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="X26" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y26" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z26" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA26" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>273</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
       <c r="AD26" s="13"/>
       <c r="AE26" s="13"/>
       <c r="AF26" s="13"/>
@@ -4244,9 +4249,9 @@
       <c r="AS26" s="13"/>
       <c r="AT26" s="13"/>
     </row>
-    <row r="27" spans="1:46">
+    <row r="27" spans="1:46" ht="28.5">
       <c r="A27" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B27" s="7" t="str">
         <f>MID(E27, 9, 2)</f>
@@ -4254,97 +4259,83 @@
       </c>
       <c r="C27" s="7" t="str">
         <f>MID(E27, 4, 2)</f>
-        <v>06</v>
+        <v>05</v>
       </c>
       <c r="D27" s="7" t="str">
         <f>MID(E27, 1, 2)</f>
-        <v>01</v>
+        <v>20</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="F27" s="13" t="s">
         <v>277</v>
       </c>
+      <c r="F27" s="24"/>
       <c r="G27" s="6"/>
       <c r="H27" s="29" t="s">
         <v>278</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="12" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9" t="s">
-        <v>279</v>
+        <v>116</v>
       </c>
       <c r="O27" s="9" t="s">
         <v>203</v>
       </c>
       <c r="P27" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q27" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="Q27" s="9" t="s">
-        <v>281</v>
-      </c>
       <c r="R27" s="9" t="s">
-        <v>282</v>
+        <v>72</v>
       </c>
       <c r="S27" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="T27" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="T27" s="9" t="s">
-        <v>281</v>
-      </c>
       <c r="U27" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="X27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="V27" s="9" t="s">
+      <c r="Y27" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z27" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="W27" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="X27" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y27" s="9" t="s">
+      <c r="AA27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC27" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="Z27" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA27" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD27" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE27" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF27" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="AG27" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH27" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI27" s="29" t="s">
-        <v>285</v>
-      </c>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
       <c r="AK27" s="13"/>
       <c r="AL27" s="13"/>
@@ -4359,7 +4350,7 @@
     </row>
     <row r="28" spans="1:46">
       <c r="A28" s="6" t="s">
-        <v>111</v>
+        <v>281</v>
       </c>
       <c r="B28" s="7" t="str">
         <f>MID(E28, 9, 2)</f>
@@ -4367,75 +4358,97 @@
       </c>
       <c r="C28" s="7" t="str">
         <f>MID(E28, 4, 2)</f>
-        <v>08</v>
+        <v>06</v>
       </c>
       <c r="D28" s="7" t="str">
         <f>MID(E28, 1, 2)</f>
-        <v>08</v>
+        <v>01</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="29" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I28" s="18"/>
-      <c r="J28" s="6" t="s">
-        <v>70</v>
+      <c r="J28" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9" t="s">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="O28" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z28" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA28" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="AB28" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD28" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="S28" s="9" t="s">
+      <c r="AE28" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF28" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG28" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH28" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI28" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="W28" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="X28" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y28" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="Z28" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
       <c r="AJ28" s="13"/>
       <c r="AK28" s="13"/>
       <c r="AL28" s="13"/>
@@ -4450,7 +4463,7 @@
     </row>
     <row r="29" spans="1:46">
       <c r="A29" s="6" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B29" s="7" t="str">
         <f>MID(E29, 9, 2)</f>
@@ -4458,56 +4471,66 @@
       </c>
       <c r="C29" s="7" t="str">
         <f>MID(E29, 4, 2)</f>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="D29" s="7" t="str">
         <f>MID(E29, 1, 2)</f>
-        <v>21</v>
+        <v>08</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="V29" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="W29" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="X29" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y29" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="P29" s="9" t="s">
+      <c r="Z29" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="Q29" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="R29" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="S29" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
@@ -4546,67 +4569,51 @@
         <v>21</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="29" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="T30" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="U30" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="V30" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="W30" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="X30" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y30" s="9" t="s">
-        <v>313</v>
-      </c>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
-      <c r="AA30" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>313</v>
-      </c>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="13"/>
       <c r="AE30" s="13"/>
@@ -4643,61 +4650,67 @@
         <v>21</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="29" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="P31" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="U31" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="V31" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="W31" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="S31" s="6" t="s">
+      <c r="X31" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6" t="s">
+      <c r="Y31" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="V31" s="6" t="s">
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="W31" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="X31" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y31" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
+      <c r="AB31" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="AC31" s="6"/>
       <c r="AD31" s="13"/>
       <c r="AE31" s="13"/>
@@ -4717,9 +4730,9 @@
       <c r="AS31" s="13"/>
       <c r="AT31" s="13"/>
     </row>
-    <row r="32" spans="1:46" ht="28.5">
+    <row r="32" spans="1:46">
       <c r="A32" s="6" t="s">
-        <v>323</v>
+        <v>135</v>
       </c>
       <c r="B32" s="7" t="str">
         <f>MID(E32, 9, 2)</f>
@@ -4731,95 +4744,73 @@
       </c>
       <c r="D32" s="7" t="str">
         <f>MID(E32, 1, 2)</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="G32" s="6"/>
-      <c r="H32" s="13"/>
+      <c r="H32" s="29" t="s">
+        <v>304</v>
+      </c>
       <c r="I32" s="18"/>
       <c r="J32" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="Q32" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="R32" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="T32" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="U32" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="V32" s="6" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="W32" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X32" s="6" t="s">
-        <v>72</v>
+        <v>328</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z32" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA32" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB32" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC32" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD32" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE32" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF32" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="AG32" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="AH32" s="13" t="s">
-        <v>313</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
-      <c r="AJ32" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="AK32" s="13" t="s">
-        <v>313</v>
-      </c>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
       <c r="AL32" s="13"/>
       <c r="AM32" s="13"/>
       <c r="AN32" s="13"/>
@@ -4830,9 +4821,9 @@
       <c r="AS32" s="13"/>
       <c r="AT32" s="13"/>
     </row>
-    <row r="33" spans="1:46">
+    <row r="33" spans="1:46" ht="28.5">
       <c r="A33" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B33" s="7" t="str">
         <f>MID(E33, 9, 2)</f>
@@ -4840,66 +4831,99 @@
       </c>
       <c r="C33" s="7" t="str">
         <f>MID(E33, 4, 2)</f>
-        <v>10</v>
+        <v>09</v>
       </c>
       <c r="D33" s="7" t="str">
         <f>MID(E33, 1, 2)</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>330</v>
       </c>
       <c r="G33" s="6"/>
-      <c r="H33" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="J33" s="6"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="K33" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9" t="s">
-        <v>98</v>
+        <v>285</v>
       </c>
       <c r="O33" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="U33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="W33" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="X33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y33" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z33" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD33" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE33" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF33" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG33" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="AH33" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="Q33" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="S33" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="T33" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="13"/>
-      <c r="AK33" s="13"/>
+      <c r="AK33" s="13" t="s">
+        <v>319</v>
+      </c>
       <c r="AL33" s="13"/>
       <c r="AM33" s="13"/>
       <c r="AN33" s="13"/>
@@ -4912,52 +4936,57 @@
     </row>
     <row r="34" spans="1:46">
       <c r="A34" s="6" t="s">
-        <v>47</v>
+        <v>334</v>
       </c>
       <c r="B34" s="7" t="str">
         <f>MID(E34, 9, 2)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="7" t="str">
         <f>MID(E34, 4, 2)</f>
-        <v>03</v>
+        <v>10</v>
       </c>
       <c r="D34" s="7" t="str">
         <f>MID(E34, 1, 2)</f>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q34" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="R34" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K34" s="9" t="s">
+      <c r="S34" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="T34" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="M34" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
@@ -4985,9 +5014,9 @@
       <c r="AS34" s="13"/>
       <c r="AT34" s="13"/>
     </row>
-    <row r="35" spans="1:46" ht="28.5">
+    <row r="35" spans="1:46">
       <c r="A35" s="6" t="s">
-        <v>269</v>
+        <v>47</v>
       </c>
       <c r="B35" s="7" t="str">
         <f>MID(E35, 9, 2)</f>
@@ -4995,11 +5024,11 @@
       </c>
       <c r="C35" s="7" t="str">
         <f>MID(E35, 4, 2)</f>
-        <v>05</v>
+        <v>03</v>
       </c>
       <c r="D35" s="7" t="str">
         <f>MID(E35, 1, 2)</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>344</v>
@@ -5007,38 +5036,31 @@
       <c r="F35" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="6"/>
+      <c r="H35" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="I35" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="J35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K35" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>348</v>
+      </c>
       <c r="L35" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>349</v>
       </c>
       <c r="N35" s="9"/>
-      <c r="O35" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="R35" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>352</v>
-      </c>
+      <c r="O35" s="9"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
@@ -5058,18 +5080,18 @@
       <c r="AJ35" s="13"/>
       <c r="AK35" s="13"/>
       <c r="AL35" s="13"/>
-      <c r="AM35" s="25"/>
-      <c r="AN35" s="25"/>
-      <c r="AO35" s="25"/>
-      <c r="AP35" s="25"/>
-      <c r="AQ35" s="25"/>
-      <c r="AR35" s="25"/>
-      <c r="AS35" s="25"/>
-      <c r="AT35" s="25"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="13"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="13"/>
+      <c r="AS35" s="13"/>
+      <c r="AT35" s="13"/>
     </row>
     <row r="36" spans="1:46">
       <c r="A36" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B36" s="7" t="str">
         <f>MID(E36, 9, 2)</f>
@@ -5077,39 +5099,39 @@
       </c>
       <c r="C36" s="7" t="str">
         <f>MID(E36, 4, 2)</f>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="D36" s="7" t="str">
         <f>MID(E36, 1, 2)</f>
         <v>26</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>355</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="35" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I36" s="13"/>
-      <c r="J36" s="6"/>
+      <c r="J36" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="K36" s="9" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9" t="s">
-        <v>357</v>
+        <v>43</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -5133,18 +5155,18 @@
       <c r="AJ36" s="13"/>
       <c r="AK36" s="13"/>
       <c r="AL36" s="13"/>
-      <c r="AM36" s="25"/>
-      <c r="AN36" s="25"/>
-      <c r="AO36" s="25"/>
-      <c r="AP36" s="25"/>
-      <c r="AQ36" s="25"/>
-      <c r="AR36" s="25"/>
-      <c r="AS36" s="25"/>
-      <c r="AT36" s="25"/>
-    </row>
-    <row r="37" spans="1:46" ht="57.75">
+      <c r="AM36" s="13"/>
+      <c r="AN36" s="13"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="13"/>
+      <c r="AQ36" s="13"/>
+      <c r="AR36" s="13"/>
+      <c r="AS36" s="13"/>
+      <c r="AT36" s="13"/>
+    </row>
+    <row r="37" spans="1:46" ht="28.5">
       <c r="A37" s="6" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="B37" s="7" t="str">
         <f>MID(E37, 9, 2)</f>
@@ -5152,71 +5174,56 @@
       </c>
       <c r="C37" s="7" t="str">
         <f>MID(E37, 4, 2)</f>
-        <v>06</v>
+        <v>05</v>
       </c>
       <c r="D37" s="7" t="str">
         <f>MID(E37, 1, 2)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E37" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="P37" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="R37" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="S37" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="H37" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q37" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="R37" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="S37" s="6" t="s">
-        <v>372</v>
-      </c>
       <c r="T37" s="6"/>
-      <c r="U37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="V37" s="6" t="s">
-        <v>373</v>
-      </c>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
       <c r="W37" s="6"/>
-      <c r="X37" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y37" s="6" t="s">
-        <v>375</v>
-      </c>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
@@ -5230,18 +5237,18 @@
       <c r="AJ37" s="13"/>
       <c r="AK37" s="13"/>
       <c r="AL37" s="13"/>
-      <c r="AM37" s="13"/>
-      <c r="AN37" s="13"/>
-      <c r="AO37" s="13"/>
-      <c r="AP37" s="13"/>
-      <c r="AQ37" s="13"/>
-      <c r="AR37" s="13"/>
-      <c r="AS37" s="13"/>
-      <c r="AT37" s="13"/>
-    </row>
-    <row r="38" spans="1:46" ht="28.5">
+      <c r="AM37" s="25"/>
+      <c r="AN37" s="25"/>
+      <c r="AO37" s="25"/>
+      <c r="AP37" s="25"/>
+      <c r="AQ37" s="25"/>
+      <c r="AR37" s="25"/>
+      <c r="AS37" s="25"/>
+      <c r="AT37" s="25"/>
+    </row>
+    <row r="38" spans="1:46">
       <c r="A38" s="6" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B38" s="7" t="str">
         <f>MID(E38, 9, 2)</f>
@@ -5249,43 +5256,39 @@
       </c>
       <c r="C38" s="7" t="str">
         <f>MID(E38, 4, 2)</f>
-        <v>06</v>
+        <v>05</v>
       </c>
       <c r="D38" s="7" t="str">
         <f>MID(E38, 1, 2)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>379</v>
+        <v>363</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>364</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>70</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="6"/>
       <c r="K38" s="9" t="s">
-        <v>382</v>
+        <v>238</v>
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="33" t="s">
-        <v>383</v>
+      <c r="N38" s="9" t="s">
+        <v>366</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>384</v>
+        <v>99</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -5309,18 +5312,18 @@
       <c r="AJ38" s="13"/>
       <c r="AK38" s="13"/>
       <c r="AL38" s="13"/>
-      <c r="AM38" s="13"/>
-      <c r="AN38" s="13"/>
-      <c r="AO38" s="13"/>
-      <c r="AP38" s="13"/>
-      <c r="AQ38" s="13"/>
-      <c r="AR38" s="13"/>
-      <c r="AS38" s="13"/>
-      <c r="AT38" s="13"/>
-    </row>
-    <row r="39" spans="1:46">
+      <c r="AM38" s="25"/>
+      <c r="AN38" s="25"/>
+      <c r="AO38" s="25"/>
+      <c r="AP38" s="25"/>
+      <c r="AQ38" s="25"/>
+      <c r="AR38" s="25"/>
+      <c r="AS38" s="25"/>
+      <c r="AT38" s="25"/>
+    </row>
+    <row r="39" spans="1:46" ht="57.75">
       <c r="A39" s="6" t="s">
-        <v>386</v>
+        <v>84</v>
       </c>
       <c r="B39" s="7" t="str">
         <f>MID(E39, 9, 2)</f>
@@ -5328,47 +5331,71 @@
       </c>
       <c r="C39" s="7" t="str">
         <f>MID(E39, 4, 2)</f>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="D39" s="7" t="str">
         <f>MID(E39, 1, 2)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="G39" s="6"/>
+        <v>369</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>370</v>
+      </c>
       <c r="H39" s="29" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="K39" s="9"/>
+        <v>373</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>374</v>
+      </c>
       <c r="L39" s="9" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
+        <v>375</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q39" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>381</v>
+      </c>
       <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
+      <c r="U39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>382</v>
+      </c>
       <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
+      <c r="X39" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y39" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
@@ -5391,9 +5418,9 @@
       <c r="AS39" s="13"/>
       <c r="AT39" s="13"/>
     </row>
-    <row r="40" spans="1:46">
-      <c r="A40" s="25" t="s">
-        <v>393</v>
+    <row r="40" spans="1:46" ht="28.5">
+      <c r="A40" s="6" t="s">
+        <v>385</v>
       </c>
       <c r="B40" s="7" t="str">
         <f>MID(E40, 9, 2)</f>
@@ -5401,64 +5428,66 @@
       </c>
       <c r="C40" s="7" t="str">
         <f>MID(E40, 4, 2)</f>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="D40" s="7" t="str">
         <f>MID(E40, 1, 2)</f>
-        <v>21</v>
-      </c>
-      <c r="E40" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="P40" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F40" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="O40" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="P40" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q40" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="25"/>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="25"/>
-      <c r="AG40" s="25"/>
-      <c r="AH40" s="25"/>
-      <c r="AI40" s="25"/>
-      <c r="AJ40" s="25"/>
-      <c r="AK40" s="25"/>
-      <c r="AL40" s="25"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="13"/>
       <c r="AM40" s="13"/>
       <c r="AN40" s="13"/>
       <c r="AO40" s="13"/>
@@ -5470,7 +5499,7 @@
     </row>
     <row r="41" spans="1:46">
       <c r="A41" s="6" t="s">
-        <v>111</v>
+        <v>395</v>
       </c>
       <c r="B41" s="7" t="str">
         <f>MID(E41, 9, 2)</f>
@@ -5478,46 +5507,38 @@
       </c>
       <c r="C41" s="7" t="str">
         <f>MID(E41, 4, 2)</f>
-        <v>08</v>
+        <v>07</v>
       </c>
       <c r="D41" s="7" t="str">
         <f>MID(E41, 1, 2)</f>
-        <v>06</v>
+        <v>11</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>403</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G41" s="6"/>
       <c r="H41" s="29" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>138</v>
+        <v>399</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="O41" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>409</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
@@ -5550,8 +5571,8 @@
       <c r="AT41" s="13"/>
     </row>
     <row r="42" spans="1:46">
-      <c r="A42" s="6" t="s">
-        <v>102</v>
+      <c r="A42" s="25" t="s">
+        <v>402</v>
       </c>
       <c r="B42" s="7" t="str">
         <f>MID(E42, 9, 2)</f>
@@ -5559,66 +5580,64 @@
       </c>
       <c r="C42" s="7" t="str">
         <f>MID(E42, 4, 2)</f>
-        <v>08</v>
+        <v>07</v>
       </c>
       <c r="D42" s="7" t="str">
         <f>MID(E42, 1, 2)</f>
         <v>21</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O42" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="13"/>
-      <c r="AI42" s="13"/>
-      <c r="AJ42" s="13"/>
-      <c r="AK42" s="13"/>
-      <c r="AL42" s="13"/>
+      <c r="E42" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="P42" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q42" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+      <c r="AF42" s="25"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="25"/>
+      <c r="AJ42" s="25"/>
+      <c r="AK42" s="25"/>
+      <c r="AL42" s="25"/>
       <c r="AM42" s="13"/>
       <c r="AN42" s="13"/>
       <c r="AO42" s="13"/>
@@ -5629,8 +5648,8 @@
       <c r="AT42" s="13"/>
     </row>
     <row r="43" spans="1:46">
-      <c r="A43" s="25" t="s">
-        <v>127</v>
+      <c r="A43" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="B43" s="7" t="str">
         <f>MID(E43, 9, 2)</f>
@@ -5638,43 +5657,80 @@
       </c>
       <c r="C43" s="7" t="str">
         <f>MID(E43, 4, 2)</f>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="D43" s="7" t="str">
         <f>MID(E43, 1, 2)</f>
-        <v>14</v>
-      </c>
-      <c r="E43" s="25" t="s">
+        <v>06</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="N43" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="O43" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="G43" t="s">
+      <c r="P43" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="H43" s="37" t="s">
-        <v>419</v>
-      </c>
-      <c r="I43" t="s">
-        <v>131</v>
-      </c>
-      <c r="J43" t="s">
-        <v>132</v>
-      </c>
-      <c r="K43" t="s">
-        <v>342</v>
-      </c>
-      <c r="N43" t="s">
-        <v>154</v>
-      </c>
-      <c r="O43" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46" ht="216.75">
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
+      <c r="AI43" s="13"/>
+      <c r="AJ43" s="13"/>
+      <c r="AK43" s="13"/>
+      <c r="AL43" s="13"/>
+      <c r="AM43" s="13"/>
+      <c r="AN43" s="13"/>
+      <c r="AO43" s="13"/>
+      <c r="AP43" s="13"/>
+      <c r="AQ43" s="13"/>
+      <c r="AR43" s="13"/>
+      <c r="AS43" s="13"/>
+      <c r="AT43" s="13"/>
+    </row>
+    <row r="44" spans="1:46">
       <c r="A44" s="6" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B44" s="7" t="str">
         <f>MID(E44, 9, 2)</f>
@@ -5682,62 +5738,52 @@
       </c>
       <c r="C44" s="7" t="str">
         <f>MID(E44, 4, 2)</f>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="D44" s="7" t="str">
         <f>MID(E44, 1, 2)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E44" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="G44" s="6"/>
+      <c r="H44" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="I44" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H44" s="29" t="s">
+      <c r="J44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="M44" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="J44" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="O44" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="P44" s="34" t="s">
-        <v>426</v>
-      </c>
       <c r="Q44" s="6"/>
-      <c r="R44" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="S44" s="33" t="s">
-        <v>428</v>
-      </c>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
       <c r="T44" s="6"/>
-      <c r="U44" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="V44" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="W44" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="X44" s="33"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
@@ -5761,9 +5807,9 @@
       <c r="AS44" s="13"/>
       <c r="AT44" s="13"/>
     </row>
-    <row r="45" spans="1:46" ht="28.5">
-      <c r="A45" s="6" t="s">
-        <v>430</v>
+    <row r="45" spans="1:46">
+      <c r="A45" s="25" t="s">
+        <v>127</v>
       </c>
       <c r="B45" s="7" t="str">
         <f>MID(E45, 9, 2)</f>
@@ -5771,76 +5817,43 @@
       </c>
       <c r="C45" s="7" t="str">
         <f>MID(E45, 4, 2)</f>
-        <v>10</v>
+        <v>09</v>
       </c>
       <c r="D45" s="7" t="str">
         <f>MID(E45, 1, 2)</f>
-        <v>19</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="O45" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="13"/>
-      <c r="AF45" s="13"/>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="13"/>
-      <c r="AI45" s="13"/>
-      <c r="AJ45" s="13"/>
-      <c r="AK45" s="13"/>
-      <c r="AL45" s="13"/>
-      <c r="AM45" s="25"/>
-      <c r="AN45" s="25"/>
-      <c r="AO45" s="25"/>
-      <c r="AP45" s="25"/>
-      <c r="AQ45" s="25"/>
-      <c r="AR45" s="25"/>
-      <c r="AS45" s="25"/>
-      <c r="AT45" s="25"/>
-    </row>
-    <row r="46" spans="1:46">
-      <c r="A46" s="25" t="s">
-        <v>438</v>
+        <v>14</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="G45" t="s">
+        <v>427</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="I45" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" t="s">
+        <v>132</v>
+      </c>
+      <c r="K45" t="s">
+        <v>348</v>
+      </c>
+      <c r="N45" t="s">
+        <v>154</v>
+      </c>
+      <c r="O45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" ht="216.75">
+      <c r="A46" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="B46" s="7" t="str">
         <f>MID(E46, 9, 2)</f>
@@ -5848,68 +5861,88 @@
       </c>
       <c r="C46" s="7" t="str">
         <f>MID(E46, 4, 2)</f>
-        <v>12</v>
+        <v>09</v>
       </c>
       <c r="D46" s="7" t="str">
         <f>MID(E46, 1, 2)</f>
-        <v>18</v>
-      </c>
-      <c r="E46" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="O46" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="P46" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="S46" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="T46" s="6"/>
+      <c r="U46" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="V46" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="W46" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
+      <c r="AI46" s="13"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="13"/>
+      <c r="AL46" s="13"/>
+      <c r="AM46" s="13"/>
+      <c r="AN46" s="13"/>
+      <c r="AO46" s="13"/>
+      <c r="AP46" s="13"/>
+      <c r="AQ46" s="13"/>
+      <c r="AR46" s="13"/>
+      <c r="AS46" s="13"/>
+      <c r="AT46" s="13"/>
+    </row>
+    <row r="47" spans="1:46" ht="28.5">
+      <c r="A47" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="25"/>
-      <c r="AE46" s="25"/>
-      <c r="AF46" s="25"/>
-      <c r="AG46" s="25"/>
-      <c r="AH46" s="25"/>
-      <c r="AI46" s="25"/>
-      <c r="AJ46" s="25"/>
-      <c r="AK46" s="25"/>
-      <c r="AL46" s="25"/>
-      <c r="AM46" s="9"/>
-      <c r="AN46" s="9"/>
-      <c r="AO46" s="9"/>
-      <c r="AP46" s="9"/>
-      <c r="AQ46" s="9"/>
-      <c r="AR46" s="9"/>
-      <c r="AS46" s="9"/>
-      <c r="AT46" s="9"/>
-    </row>
-    <row r="47" spans="1:46">
-      <c r="A47" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="B47" s="7" t="str">
         <f>MID(E47, 9, 2)</f>
@@ -5917,60 +5950,76 @@
       </c>
       <c r="C47" s="7" t="str">
         <f>MID(E47, 4, 2)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D47" s="7" t="str">
         <f>MID(E47, 1, 2)</f>
-        <v>31</v>
-      </c>
-      <c r="E47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="H47" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="9"/>
+      <c r="I47" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>348</v>
+      </c>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="12"/>
-      <c r="AC47" s="9"/>
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="9"/>
-      <c r="AF47" s="9"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="9"/>
-      <c r="AI47" s="9"/>
-      <c r="AJ47" s="9"/>
-      <c r="AK47" s="9"/>
-      <c r="AL47" s="9"/>
-      <c r="AM47" s="9"/>
-      <c r="AN47" s="9"/>
-      <c r="AO47" s="9"/>
-      <c r="AP47" s="9"/>
-      <c r="AQ47" s="9"/>
-      <c r="AR47" s="9"/>
-      <c r="AS47" s="9"/>
-      <c r="AT47" s="9"/>
+      <c r="N47" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13"/>
+      <c r="AI47" s="13"/>
+      <c r="AJ47" s="13"/>
+      <c r="AK47" s="13"/>
+      <c r="AL47" s="13"/>
+      <c r="AM47" s="25"/>
+      <c r="AN47" s="25"/>
+      <c r="AO47" s="25"/>
+      <c r="AP47" s="25"/>
+      <c r="AQ47" s="25"/>
+      <c r="AR47" s="25"/>
+      <c r="AS47" s="25"/>
+      <c r="AT47" s="25"/>
     </row>
     <row r="48" spans="1:46">
-      <c r="A48" s="9" t="s">
-        <v>252</v>
+      <c r="A48" s="25" t="s">
+        <v>447</v>
       </c>
       <c r="B48" s="7" t="str">
         <f>MID(E48, 9, 2)</f>
@@ -5982,44 +6031,52 @@
       </c>
       <c r="D48" s="7" t="str">
         <f>MID(E48, 1, 2)</f>
-        <v>31</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="12"/>
-      <c r="AC48" s="9"/>
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="9"/>
-      <c r="AI48" s="9"/>
-      <c r="AJ48" s="9"/>
-      <c r="AK48" s="9"/>
-      <c r="AL48" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="G48" s="25"/>
+      <c r="H48" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="25"/>
+      <c r="AD48" s="25"/>
+      <c r="AE48" s="25"/>
+      <c r="AF48" s="25"/>
+      <c r="AG48" s="25"/>
+      <c r="AH48" s="25"/>
+      <c r="AI48" s="25"/>
+      <c r="AJ48" s="25"/>
+      <c r="AK48" s="25"/>
+      <c r="AL48" s="25"/>
       <c r="AM48" s="9"/>
       <c r="AN48" s="9"/>
       <c r="AO48" s="9"/>
@@ -6031,7 +6088,7 @@
     </row>
     <row r="49" spans="1:46">
       <c r="A49" s="9" t="s">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="B49" s="7" t="str">
         <f>MID(E49, 9, 2)</f>
@@ -6046,7 +6103,7 @@
         <v>31</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -6092,7 +6149,7 @@
     </row>
     <row r="50" spans="1:46">
       <c r="A50" s="9" t="s">
-        <v>444</v>
+        <v>259</v>
       </c>
       <c r="B50" s="7" t="str">
         <f>MID(E50, 9, 2)</f>
@@ -6107,15 +6164,13 @@
         <v>31</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="9"/>
       <c r="I50" s="18"/>
-      <c r="J50" s="6" t="s">
-        <v>398</v>
-      </c>
+      <c r="J50" s="6"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -6144,102 +6199,130 @@
       <c r="AJ50" s="9"/>
       <c r="AK50" s="9"/>
       <c r="AL50" s="9"/>
-      <c r="AM50" s="13"/>
-      <c r="AN50" s="13"/>
-      <c r="AO50" s="13"/>
-      <c r="AP50" s="13"/>
-      <c r="AQ50" s="13"/>
-      <c r="AR50" s="13"/>
-      <c r="AS50" s="13"/>
-      <c r="AT50" s="13"/>
+      <c r="AM50" s="9"/>
+      <c r="AN50" s="9"/>
+      <c r="AO50" s="9"/>
+      <c r="AP50" s="9"/>
+      <c r="AQ50" s="9"/>
+      <c r="AR50" s="9"/>
+      <c r="AS50" s="9"/>
+      <c r="AT50" s="9"/>
     </row>
     <row r="51" spans="1:46">
-      <c r="A51" s="13"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
+      <c r="A51" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="7" t="str">
+        <f>MID(E51, 9, 2)</f>
+        <v>22</v>
+      </c>
+      <c r="C51" s="7" t="str">
+        <f>MID(E51, 4, 2)</f>
+        <v>12</v>
+      </c>
+      <c r="D51" s="7" t="str">
+        <f>MID(E51, 1, 2)</f>
+        <v>31</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="18"/>
       <c r="J51" s="6"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="6"/>
-      <c r="AB51" s="6"/>
-      <c r="AC51" s="6"/>
-      <c r="AD51" s="13"/>
-      <c r="AE51" s="13"/>
-      <c r="AF51" s="13"/>
-      <c r="AG51" s="13"/>
-      <c r="AH51" s="13"/>
-      <c r="AI51" s="13"/>
-      <c r="AJ51" s="13"/>
-      <c r="AK51" s="13"/>
-      <c r="AL51" s="13"/>
-      <c r="AM51" s="13"/>
-      <c r="AN51" s="13"/>
-      <c r="AO51" s="13"/>
-      <c r="AP51" s="13"/>
-      <c r="AQ51" s="13"/>
-      <c r="AR51" s="13"/>
-      <c r="AS51" s="13"/>
-      <c r="AT51" s="13"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9"/>
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="9"/>
+      <c r="AJ51" s="9"/>
+      <c r="AK51" s="9"/>
+      <c r="AL51" s="9"/>
+      <c r="AM51" s="9"/>
+      <c r="AN51" s="9"/>
+      <c r="AO51" s="9"/>
+      <c r="AP51" s="9"/>
+      <c r="AQ51" s="9"/>
+      <c r="AR51" s="9"/>
+      <c r="AS51" s="9"/>
+      <c r="AT51" s="9"/>
     </row>
     <row r="52" spans="1:46">
-      <c r="A52" s="13"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
+      <c r="A52" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B52" s="7" t="str">
+        <f>MID(E52, 9, 2)</f>
+        <v>22</v>
+      </c>
+      <c r="C52" s="7" t="str">
+        <f>MID(E52, 4, 2)</f>
+        <v>12</v>
+      </c>
+      <c r="D52" s="7" t="str">
+        <f>MID(E52, 1, 2)</f>
+        <v>31</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="6"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="6" t="s">
+        <v>407</v>
+      </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="13"/>
-      <c r="AE52" s="13"/>
-      <c r="AF52" s="13"/>
-      <c r="AG52" s="13"/>
-      <c r="AH52" s="13"/>
-      <c r="AI52" s="13"/>
-      <c r="AJ52" s="13"/>
-      <c r="AK52" s="13"/>
-      <c r="AL52" s="13"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="9"/>
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="9"/>
+      <c r="AJ52" s="9"/>
+      <c r="AK52" s="9"/>
+      <c r="AL52" s="9"/>
       <c r="AM52" s="13"/>
       <c r="AN52" s="13"/>
       <c r="AO52" s="13"/>
@@ -14122,100 +14205,100 @@
       <c r="AT216" s="13"/>
     </row>
     <row r="217" spans="1:46">
-      <c r="A217" s="9"/>
-      <c r="B217" s="31"/>
-      <c r="C217" s="31"/>
-      <c r="D217" s="31"/>
-      <c r="E217" s="32"/>
-      <c r="F217" s="32"/>
-      <c r="G217" s="9"/>
-      <c r="H217" s="9"/>
-      <c r="I217" s="9"/>
-      <c r="J217" s="9"/>
+      <c r="A217" s="13"/>
+      <c r="B217" s="28"/>
+      <c r="C217" s="28"/>
+      <c r="D217" s="28"/>
+      <c r="E217" s="24"/>
+      <c r="F217" s="24"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="13"/>
+      <c r="I217" s="13"/>
+      <c r="J217" s="6"/>
       <c r="K217" s="9"/>
       <c r="L217" s="9"/>
       <c r="M217" s="9"/>
       <c r="N217" s="9"/>
       <c r="O217" s="9"/>
-      <c r="P217" s="9"/>
-      <c r="Q217" s="9"/>
-      <c r="R217" s="9"/>
-      <c r="S217" s="9"/>
-      <c r="T217" s="9"/>
-      <c r="U217" s="9"/>
-      <c r="V217" s="9"/>
-      <c r="W217" s="9"/>
-      <c r="X217" s="9"/>
-      <c r="Y217" s="9"/>
-      <c r="Z217" s="9"/>
-      <c r="AA217" s="9"/>
-      <c r="AB217" s="9"/>
-      <c r="AC217" s="9"/>
-      <c r="AD217" s="9"/>
-      <c r="AE217" s="9"/>
-      <c r="AF217" s="9"/>
-      <c r="AG217" s="9"/>
-      <c r="AH217" s="9"/>
-      <c r="AI217" s="9"/>
-      <c r="AJ217" s="9"/>
-      <c r="AK217" s="9"/>
-      <c r="AL217" s="9"/>
-      <c r="AM217" s="9"/>
-      <c r="AN217" s="9"/>
-      <c r="AO217" s="9"/>
-      <c r="AP217" s="9"/>
-      <c r="AQ217" s="9"/>
-      <c r="AR217" s="9"/>
-      <c r="AS217" s="9"/>
-      <c r="AT217" s="9"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
+      <c r="R217" s="6"/>
+      <c r="S217" s="6"/>
+      <c r="T217" s="6"/>
+      <c r="U217" s="6"/>
+      <c r="V217" s="6"/>
+      <c r="W217" s="6"/>
+      <c r="X217" s="6"/>
+      <c r="Y217" s="6"/>
+      <c r="Z217" s="6"/>
+      <c r="AA217" s="6"/>
+      <c r="AB217" s="6"/>
+      <c r="AC217" s="6"/>
+      <c r="AD217" s="13"/>
+      <c r="AE217" s="13"/>
+      <c r="AF217" s="13"/>
+      <c r="AG217" s="13"/>
+      <c r="AH217" s="13"/>
+      <c r="AI217" s="13"/>
+      <c r="AJ217" s="13"/>
+      <c r="AK217" s="13"/>
+      <c r="AL217" s="13"/>
+      <c r="AM217" s="13"/>
+      <c r="AN217" s="13"/>
+      <c r="AO217" s="13"/>
+      <c r="AP217" s="13"/>
+      <c r="AQ217" s="13"/>
+      <c r="AR217" s="13"/>
+      <c r="AS217" s="13"/>
+      <c r="AT217" s="13"/>
     </row>
     <row r="218" spans="1:46">
-      <c r="A218" s="9"/>
-      <c r="B218" s="31"/>
-      <c r="C218" s="31"/>
-      <c r="D218" s="31"/>
-      <c r="E218" s="32"/>
-      <c r="F218" s="32"/>
-      <c r="G218" s="9"/>
-      <c r="H218" s="9"/>
-      <c r="I218" s="9"/>
-      <c r="J218" s="9"/>
+      <c r="A218" s="13"/>
+      <c r="B218" s="28"/>
+      <c r="C218" s="28"/>
+      <c r="D218" s="28"/>
+      <c r="E218" s="24"/>
+      <c r="F218" s="24"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="13"/>
+      <c r="I218" s="13"/>
+      <c r="J218" s="6"/>
       <c r="K218" s="9"/>
       <c r="L218" s="9"/>
       <c r="M218" s="9"/>
       <c r="N218" s="9"/>
       <c r="O218" s="9"/>
-      <c r="P218" s="9"/>
-      <c r="Q218" s="9"/>
-      <c r="R218" s="9"/>
-      <c r="S218" s="9"/>
-      <c r="T218" s="9"/>
-      <c r="U218" s="9"/>
-      <c r="V218" s="9"/>
-      <c r="W218" s="9"/>
-      <c r="X218" s="9"/>
-      <c r="Y218" s="9"/>
-      <c r="Z218" s="9"/>
-      <c r="AA218" s="9"/>
-      <c r="AB218" s="9"/>
-      <c r="AC218" s="9"/>
-      <c r="AD218" s="9"/>
-      <c r="AE218" s="9"/>
-      <c r="AF218" s="9"/>
-      <c r="AG218" s="9"/>
-      <c r="AH218" s="9"/>
-      <c r="AI218" s="9"/>
-      <c r="AJ218" s="9"/>
-      <c r="AK218" s="9"/>
-      <c r="AL218" s="9"/>
-      <c r="AM218" s="9"/>
-      <c r="AN218" s="9"/>
-      <c r="AO218" s="9"/>
-      <c r="AP218" s="9"/>
-      <c r="AQ218" s="9"/>
-      <c r="AR218" s="9"/>
-      <c r="AS218" s="9"/>
-      <c r="AT218" s="9"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
+      <c r="R218" s="6"/>
+      <c r="S218" s="6"/>
+      <c r="T218" s="6"/>
+      <c r="U218" s="6"/>
+      <c r="V218" s="6"/>
+      <c r="W218" s="6"/>
+      <c r="X218" s="6"/>
+      <c r="Y218" s="6"/>
+      <c r="Z218" s="6"/>
+      <c r="AA218" s="6"/>
+      <c r="AB218" s="6"/>
+      <c r="AC218" s="6"/>
+      <c r="AD218" s="13"/>
+      <c r="AE218" s="13"/>
+      <c r="AF218" s="13"/>
+      <c r="AG218" s="13"/>
+      <c r="AH218" s="13"/>
+      <c r="AI218" s="13"/>
+      <c r="AJ218" s="13"/>
+      <c r="AK218" s="13"/>
+      <c r="AL218" s="13"/>
+      <c r="AM218" s="13"/>
+      <c r="AN218" s="13"/>
+      <c r="AO218" s="13"/>
+      <c r="AP218" s="13"/>
+      <c r="AQ218" s="13"/>
+      <c r="AR218" s="13"/>
+      <c r="AS218" s="13"/>
+      <c r="AT218" s="13"/>
     </row>
     <row r="219" spans="1:46">
       <c r="A219" s="9"/>
@@ -51513,11 +51596,107 @@
       <c r="AS995" s="9"/>
       <c r="AT995" s="9"/>
     </row>
+    <row r="996" spans="1:46">
+      <c r="A996" s="9"/>
+      <c r="B996" s="31"/>
+      <c r="C996" s="31"/>
+      <c r="D996" s="31"/>
+      <c r="E996" s="32"/>
+      <c r="F996" s="32"/>
+      <c r="G996" s="9"/>
+      <c r="H996" s="9"/>
+      <c r="I996" s="9"/>
+      <c r="J996" s="9"/>
+      <c r="K996" s="9"/>
+      <c r="L996" s="9"/>
+      <c r="M996" s="9"/>
+      <c r="N996" s="9"/>
+      <c r="O996" s="9"/>
+      <c r="P996" s="9"/>
+      <c r="Q996" s="9"/>
+      <c r="R996" s="9"/>
+      <c r="S996" s="9"/>
+      <c r="T996" s="9"/>
+      <c r="U996" s="9"/>
+      <c r="V996" s="9"/>
+      <c r="W996" s="9"/>
+      <c r="X996" s="9"/>
+      <c r="Y996" s="9"/>
+      <c r="Z996" s="9"/>
+      <c r="AA996" s="9"/>
+      <c r="AB996" s="9"/>
+      <c r="AC996" s="9"/>
+      <c r="AD996" s="9"/>
+      <c r="AE996" s="9"/>
+      <c r="AF996" s="9"/>
+      <c r="AG996" s="9"/>
+      <c r="AH996" s="9"/>
+      <c r="AI996" s="9"/>
+      <c r="AJ996" s="9"/>
+      <c r="AK996" s="9"/>
+      <c r="AL996" s="9"/>
+      <c r="AM996" s="9"/>
+      <c r="AN996" s="9"/>
+      <c r="AO996" s="9"/>
+      <c r="AP996" s="9"/>
+      <c r="AQ996" s="9"/>
+      <c r="AR996" s="9"/>
+      <c r="AS996" s="9"/>
+      <c r="AT996" s="9"/>
+    </row>
+    <row r="997" spans="1:46">
+      <c r="A997" s="9"/>
+      <c r="B997" s="31"/>
+      <c r="C997" s="31"/>
+      <c r="D997" s="31"/>
+      <c r="E997" s="32"/>
+      <c r="F997" s="32"/>
+      <c r="G997" s="9"/>
+      <c r="H997" s="9"/>
+      <c r="I997" s="9"/>
+      <c r="J997" s="9"/>
+      <c r="K997" s="9"/>
+      <c r="L997" s="9"/>
+      <c r="M997" s="9"/>
+      <c r="N997" s="9"/>
+      <c r="O997" s="9"/>
+      <c r="P997" s="9"/>
+      <c r="Q997" s="9"/>
+      <c r="R997" s="9"/>
+      <c r="S997" s="9"/>
+      <c r="T997" s="9"/>
+      <c r="U997" s="9"/>
+      <c r="V997" s="9"/>
+      <c r="W997" s="9"/>
+      <c r="X997" s="9"/>
+      <c r="Y997" s="9"/>
+      <c r="Z997" s="9"/>
+      <c r="AA997" s="9"/>
+      <c r="AB997" s="9"/>
+      <c r="AC997" s="9"/>
+      <c r="AD997" s="9"/>
+      <c r="AE997" s="9"/>
+      <c r="AF997" s="9"/>
+      <c r="AG997" s="9"/>
+      <c r="AH997" s="9"/>
+      <c r="AI997" s="9"/>
+      <c r="AJ997" s="9"/>
+      <c r="AK997" s="9"/>
+      <c r="AL997" s="9"/>
+      <c r="AM997" s="9"/>
+      <c r="AN997" s="9"/>
+      <c r="AO997" s="9"/>
+      <c r="AP997" s="9"/>
+      <c r="AQ997" s="9"/>
+      <c r="AR997" s="9"/>
+      <c r="AS997" s="9"/>
+      <c r="AT997" s="9"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AT995">
-    <sortCondition ref="B2:B995"/>
-    <sortCondition ref="C2:C995"/>
-    <sortCondition ref="D2:D995"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AT997">
+    <sortCondition ref="B2:B997"/>
+    <sortCondition ref="C2:C997"/>
+    <sortCondition ref="D2:D997"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -51540,60 +51719,47 @@
     <hyperlink ref="H16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="AI16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="H17" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H18" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q18" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="T18" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H19" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H21" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="Q21" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="T21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H25" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H26" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H27" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="AI27" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H28" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="H29" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H31" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H33" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H34" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H35" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="H40" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="H37" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H39" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="H41" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="H42" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="H44" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="H45" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="H46" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="H38" r:id="rId49" xr:uid="{07BF4283-7A05-4C2B-814D-EE19D3D03A78}"/>
-    <hyperlink ref="H36" r:id="rId50" xr:uid="{09C4BEEF-B758-4F42-98F0-0A7CCEFCC085}"/>
-    <hyperlink ref="H43" r:id="rId51" xr:uid="{4499F48E-4EEC-4C7A-A538-691F87D61DB9}"/>
+    <hyperlink ref="H19" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="T19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="Q22" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="T22" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H23" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H26" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H27" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H28" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AI28" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H29" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H31" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H32" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H34" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H35" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H37" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H39" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H41" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H43" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="H44" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="H47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H48" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H40" r:id="rId49" xr:uid="{07BF4283-7A05-4C2B-814D-EE19D3D03A78}"/>
+    <hyperlink ref="H38" r:id="rId50" xr:uid="{09C4BEEF-B758-4F42-98F0-0A7CCEFCC085}"/>
+    <hyperlink ref="H45" r:id="rId51" xr:uid="{4499F48E-4EEC-4C7A-A538-691F87D61DB9}"/>
+    <hyperlink ref="H18" r:id="rId52" xr:uid="{A8825DF3-E6CE-49DA-8E05-ACE8A3E7DDB7}"/>
+    <hyperlink ref="H36" r:id="rId53" xr:uid="{309D6906-5547-4C99-9533-C47144FA08DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId52"/>
+  <drawing r:id="rId54"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100329EEE15A9214C4A9CD88C49071DE3D3" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1cfbdc3aec0f9764958d51c9cd4ae398">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1512c054-5eba-4473-9e73-107d9d6b916a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b93104c4cb30fae26fe00c66df1ba726" ns2:_="">
     <xsd:import namespace="1512c054-5eba-4473-9e73-107d9d6b916a"/>
@@ -51739,8 +51905,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61472F2-21CB-4677-9DEB-F5ADB6BFD29F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51748,5 +51929,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61472F2-21CB-4677-9DEB-F5ADB6BFD29F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}"/>
 </file>
--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25318"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="231" documentId="11_E57AE7D6C4B4445115608800AF4DB0028C6BE972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10B3D343-E6E4-444D-BBDD-E50BE8BFDBE5}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="11_E57AE7D6C4B4445115608800AF4DB0028C6BE972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1F638CE-AA53-4AEB-8B84-5C2820668081}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="455">
   <si>
     <t>Conference</t>
   </si>
@@ -1088,6 +1088,9 @@
     <t>https://www.psiweb.org/vod/item/psi-journal-club-treatment-switching-in-clinical-trials</t>
   </si>
   <si>
+    <t>talks/20220426_PSI_Manitz_Switching.pdf</t>
+  </si>
+  <si>
     <t>15.05.2022</t>
   </si>
   <si>
@@ -1986,8 +1989,8 @@
   <dimension ref="A1:AT997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="N32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
+      <pane ySplit="1" topLeftCell="P32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -5133,7 +5136,9 @@
       <c r="P36" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="Q36" s="6"/>
+      <c r="Q36" s="6" t="s">
+        <v>353</v>
+      </c>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -5181,16 +5186,16 @@
         <v>15</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>97</v>
@@ -5200,23 +5205,23 @@
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9" t="s">
         <v>165</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
@@ -5248,7 +5253,7 @@
     </row>
     <row r="38" spans="1:46">
       <c r="A38" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B38" s="7" t="str">
         <f>MID(E38, 9, 2)</f>
@@ -5263,16 +5268,16 @@
         <v>26</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="6"/>
@@ -5282,13 +5287,13 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O38" s="9" t="s">
         <v>99</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -5338,63 +5343,63 @@
         <v>12</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q39" s="34" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="T39" s="6"/>
       <c r="U39" s="6" t="s">
         <v>56</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W39" s="6"/>
       <c r="X39" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y39" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
@@ -5420,7 +5425,7 @@
     </row>
     <row r="40" spans="1:46" ht="28.5">
       <c r="A40" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B40" s="7" t="str">
         <f>MID(E40, 9, 2)</f>
@@ -5435,36 +5440,36 @@
         <v>19</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="33" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
@@ -5499,7 +5504,7 @@
     </row>
     <row r="41" spans="1:46">
       <c r="A41" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B41" s="7" t="str">
         <f>MID(E41, 9, 2)</f>
@@ -5514,27 +5519,27 @@
         <v>11</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="29" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
@@ -5572,7 +5577,7 @@
     </row>
     <row r="42" spans="1:46">
       <c r="A42" s="25" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B42" s="7" t="str">
         <f>MID(E42, 9, 2)</f>
@@ -5587,20 +5592,20 @@
         <v>21</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K42" s="27"/>
       <c r="L42" s="27"/>
@@ -5612,10 +5617,10 @@
         <v>290</v>
       </c>
       <c r="P42" s="25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q42" s="25" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
@@ -5664,16 +5669,16 @@
         <v>06</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I43" s="13" t="s">
         <v>138</v>
@@ -5683,19 +5688,19 @@
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
@@ -5745,27 +5750,27 @@
         <v>21</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="29" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>89</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N44" s="9" t="s">
         <v>98</v>
@@ -5774,7 +5779,7 @@
         <v>53</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
@@ -5824,16 +5829,16 @@
         <v>14</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G45" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I45" t="s">
         <v>131</v>
@@ -5868,19 +5873,19 @@
         <v>20</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>70</v>
@@ -5894,27 +5899,27 @@
         <v>310</v>
       </c>
       <c r="O46" s="33" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P46" s="34" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="33" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S46" s="33" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="T46" s="6"/>
       <c r="U46" s="33" t="s">
         <v>72</v>
       </c>
       <c r="V46" s="25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="W46" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="X46" s="33"/>
       <c r="Y46" s="6"/>
@@ -5942,7 +5947,7 @@
     </row>
     <row r="47" spans="1:46" ht="28.5">
       <c r="A47" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B47" s="7" t="str">
         <f>MID(E47, 9, 2)</f>
@@ -5957,22 +5962,22 @@
         <v>19</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K47" s="9" t="s">
         <v>348</v>
@@ -5980,7 +5985,7 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O47" s="9" t="s">
         <v>165</v>
@@ -6019,7 +6024,7 @@
     </row>
     <row r="48" spans="1:46">
       <c r="A48" s="25" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B48" s="7" t="str">
         <f>MID(E48, 9, 2)</f>
@@ -6034,20 +6039,20 @@
         <v>18</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="30" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K48" s="27"/>
       <c r="L48" s="27"/>
@@ -6103,7 +6108,7 @@
         <v>31</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -6164,7 +6169,7 @@
         <v>31</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -6225,7 +6230,7 @@
         <v>31</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -6271,7 +6276,7 @@
     </row>
     <row r="52" spans="1:46">
       <c r="A52" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B52" s="7" t="str">
         <f>MID(E52, 9, 2)</f>
@@ -6286,14 +6291,14 @@
         <v>31</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="9"/>
       <c r="I52" s="18"/>
       <c r="J52" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>

--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25318"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="232" documentId="11_E57AE7D6C4B4445115608800AF4DB0028C6BE972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1F638CE-AA53-4AEB-8B84-5C2820668081}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\23_Working_groups\30_estimand_onco\90_webpage\oncowg_webpage\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="10785"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="457">
   <si>
     <t>Conference</t>
   </si>
@@ -1118,6 +1122,9 @@
     <t>Answering old questions with new tools: Application of the ICH E9 addendum in oncology</t>
   </si>
   <si>
+    <t>talks/20220606_SCT_Yung_Answering_old_questions.pdf</t>
+  </si>
+  <si>
     <t>ASA Biopharmaceutical Section</t>
   </si>
   <si>
@@ -1398,11 +1405,14 @@
   <si>
     <t>DIA Quantitative Science Forum</t>
   </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm&quot; &quot;d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
@@ -1985,12 +1995,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="P32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2159,20 +2169,20 @@
       <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
     </row>
-    <row r="2" spans="1:46" ht="57.75">
+    <row r="2" spans="1:46" ht="42.75">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="7" t="str">
-        <f>MID(E2, 9, 2)</f>
+        <f t="shared" ref="B2:B33" si="0">MID(E2, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C2" s="7" t="str">
-        <f>MID(E2, 4, 2)</f>
+        <f t="shared" ref="C2:C33" si="1">MID(E2, 4, 2)</f>
         <v>02</v>
       </c>
       <c r="D2" s="7" t="str">
-        <f>MID(E2, 1, 2)</f>
+        <f t="shared" ref="D2:D33" si="2">MID(E2, 1, 2)</f>
         <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2236,20 +2246,20 @@
       <c r="AS2" s="9"/>
       <c r="AT2" s="9"/>
     </row>
-    <row r="3" spans="1:46" ht="43.5">
+    <row r="3" spans="1:46" ht="28.5">
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="7" t="str">
-        <f>MID(E3, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C3" s="7" t="str">
-        <f>MID(E3, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>03</v>
       </c>
       <c r="D3" s="7" t="str">
-        <f>MID(E3, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -2336,15 +2346,15 @@
         <v>65</v>
       </c>
       <c r="B4" s="7" t="str">
-        <f>MID(E4, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C4" s="7" t="str">
-        <f>MID(E4, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f>MID(E4, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2431,15 +2441,15 @@
         <v>84</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f>MID(E5, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C5" s="7" t="str">
-        <f>MID(E5, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>06</v>
       </c>
       <c r="D5" s="7" t="str">
-        <f>MID(E5, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -2514,15 +2524,15 @@
         <v>93</v>
       </c>
       <c r="B6" s="7" t="str">
-        <f>MID(E6, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C6" s="7" t="str">
-        <f>MID(E6, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>06</v>
       </c>
       <c r="D6" s="7" t="str">
-        <f>MID(E6, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -2591,15 +2601,15 @@
         <v>102</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f>MID(E7, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C7" s="7" t="str">
-        <f>MID(E7, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>07</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f>MID(E7, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -2668,15 +2678,15 @@
         <v>111</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f>MID(E8, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C8" s="7" t="str">
-        <f>MID(E8, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>07</v>
       </c>
       <c r="D8" s="7" t="str">
-        <f>MID(E8, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -2758,20 +2768,20 @@
       <c r="AS8" s="13"/>
       <c r="AT8" s="13"/>
     </row>
-    <row r="9" spans="1:46" ht="43.5">
+    <row r="9" spans="1:46" ht="42.75">
       <c r="A9" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B9" s="7" t="str">
-        <f>MID(E9, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C9" s="7" t="str">
-        <f>MID(E9, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D9" s="7" t="str">
-        <f>MID(E9, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -2840,15 +2850,15 @@
         <v>135</v>
       </c>
       <c r="B10" s="7" t="str">
-        <f>MID(E10, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C10" s="7" t="str">
-        <f>MID(E10, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D10" s="7" t="str">
-        <f>MID(E10, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -2929,15 +2939,15 @@
         <v>148</v>
       </c>
       <c r="B11" s="7" t="str">
-        <f>MID(E11, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C11" s="7" t="str">
-        <f>MID(E11, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D11" s="7" t="str">
-        <f>MID(E11, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -3012,15 +3022,15 @@
         <v>161</v>
       </c>
       <c r="B12" s="7" t="str">
-        <f>MID(E12, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C12" s="7" t="str">
-        <f>MID(E12, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D12" s="7" t="str">
-        <f>MID(E12, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -3089,15 +3099,15 @@
         <v>168</v>
       </c>
       <c r="B13" s="7" t="str">
-        <f>MID(E13, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C13" s="7" t="str">
-        <f>MID(E13, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="D13" s="7" t="str">
-        <f>MID(E13, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>06</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -3166,15 +3176,15 @@
         <v>174</v>
       </c>
       <c r="B14" s="7" t="str">
-        <f>MID(E14, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C14" s="7" t="str">
-        <f>MID(E14, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="D14" s="7" t="str">
-        <f>MID(E14, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -3242,20 +3252,20 @@
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
     </row>
-    <row r="15" spans="1:46" ht="43.5">
+    <row r="15" spans="1:46" ht="42.75">
       <c r="A15" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B15" s="7" t="str">
-        <f>MID(E15, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C15" s="7" t="str">
-        <f>MID(E15, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>06</v>
       </c>
       <c r="D15" s="7" t="str">
-        <f>MID(E15, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -3324,15 +3334,15 @@
         <v>186</v>
       </c>
       <c r="B16" s="7" t="str">
-        <f>MID(E16, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C16" s="7" t="str">
-        <f>MID(E16, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>06</v>
       </c>
       <c r="D16" s="7" t="str">
-        <f>MID(E16, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -3443,15 +3453,15 @@
         <v>111</v>
       </c>
       <c r="B17" s="7" t="str">
-        <f>MID(E17, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C17" s="7" t="str">
-        <f>MID(E17, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>08</v>
       </c>
       <c r="D17" s="7" t="str">
-        <f>MID(E17, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -3536,15 +3546,15 @@
         <v>222</v>
       </c>
       <c r="B18" s="7" t="str">
-        <f>MID(E18, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C18" s="7" t="str">
-        <f>MID(E18, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D18" s="7" t="str">
-        <f>MID(E18, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>06</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -3613,15 +3623,15 @@
         <v>229</v>
       </c>
       <c r="B19" s="7" t="str">
-        <f>MID(E19, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C19" s="7" t="str">
-        <f>MID(E19, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D19" s="7" t="str">
-        <f>MID(E19, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>07</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -3696,15 +3706,15 @@
         <v>135</v>
       </c>
       <c r="B20" s="7" t="str">
-        <f>MID(E20, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C20" s="7" t="str">
-        <f>MID(E20, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D20" s="7" t="str">
-        <f>MID(E20, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -3773,15 +3783,15 @@
         <v>241</v>
       </c>
       <c r="B21" s="7" t="str">
-        <f>MID(E21, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C21" s="7" t="str">
-        <f>MID(E21, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D21" s="7" t="str">
-        <f>MID(E21, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>05</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -3845,20 +3855,20 @@
       <c r="AS21" s="9"/>
       <c r="AT21" s="9"/>
     </row>
-    <row r="22" spans="1:46" ht="30.75">
+    <row r="22" spans="1:46" ht="30">
       <c r="A22" s="13" t="s">
         <v>247</v>
       </c>
       <c r="B22" s="7" t="str">
-        <f>MID(E22, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="7" t="str">
-        <f>MID(E22, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D22" s="7" t="str">
-        <f>MID(E22, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="E22" s="23" t="s">
@@ -3933,15 +3943,15 @@
         <v>253</v>
       </c>
       <c r="B23" s="7" t="str">
-        <f>MID(E23, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C23" s="7" t="str">
-        <f>MID(E23, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D23" s="7" t="str">
-        <f>MID(E23, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -4016,15 +4026,15 @@
         <v>259</v>
       </c>
       <c r="B24" s="7" t="str">
-        <f>MID(E24, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C24" s="7" t="str">
-        <f>MID(E24, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D24" s="7" t="str">
-        <f>MID(E24, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>09</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -4097,15 +4107,15 @@
         <v>264</v>
       </c>
       <c r="B25" s="7" t="str">
-        <f>MID(E25, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C25" s="7" t="str">
-        <f>MID(E25, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="D25" s="7" t="str">
-        <f>MID(E25, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -4180,15 +4190,15 @@
         <v>270</v>
       </c>
       <c r="B26" s="7" t="str">
-        <f>MID(E26, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C26" s="7" t="str">
-        <f>MID(E26, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="D26" s="7" t="str">
-        <f>MID(E26, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E26" s="13" t="s">
@@ -4257,15 +4267,15 @@
         <v>276</v>
       </c>
       <c r="B27" s="7" t="str">
-        <f>MID(E27, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C27" s="7" t="str">
-        <f>MID(E27, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="D27" s="7" t="str">
-        <f>MID(E27, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E27" s="13" t="s">
@@ -4356,15 +4366,15 @@
         <v>281</v>
       </c>
       <c r="B28" s="7" t="str">
-        <f>MID(E28, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C28" s="7" t="str">
-        <f>MID(E28, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>06</v>
       </c>
       <c r="D28" s="7" t="str">
-        <f>MID(E28, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="E28" s="13" t="s">
@@ -4469,15 +4479,15 @@
         <v>111</v>
       </c>
       <c r="B29" s="7" t="str">
-        <f>MID(E29, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C29" s="7" t="str">
-        <f>MID(E29, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>08</v>
       </c>
       <c r="D29" s="7" t="str">
-        <f>MID(E29, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>08</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -4560,15 +4570,15 @@
         <v>135</v>
       </c>
       <c r="B30" s="7" t="str">
-        <f>MID(E30, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C30" s="7" t="str">
-        <f>MID(E30, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D30" s="7" t="str">
-        <f>MID(E30, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E30" s="13" t="s">
@@ -4641,15 +4651,15 @@
         <v>135</v>
       </c>
       <c r="B31" s="7" t="str">
-        <f>MID(E31, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C31" s="7" t="str">
-        <f>MID(E31, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D31" s="7" t="str">
-        <f>MID(E31, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E31" s="13" t="s">
@@ -4738,15 +4748,15 @@
         <v>135</v>
       </c>
       <c r="B32" s="7" t="str">
-        <f>MID(E32, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C32" s="7" t="str">
-        <f>MID(E32, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D32" s="7" t="str">
-        <f>MID(E32, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -4829,15 +4839,15 @@
         <v>329</v>
       </c>
       <c r="B33" s="7" t="str">
-        <f>MID(E33, 9, 2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C33" s="7" t="str">
-        <f>MID(E33, 4, 2)</f>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="D33" s="7" t="str">
-        <f>MID(E33, 1, 2)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="E33" s="13" t="s">
@@ -4942,15 +4952,15 @@
         <v>334</v>
       </c>
       <c r="B34" s="7" t="str">
-        <f>MID(E34, 9, 2)</f>
+        <f t="shared" ref="B34:B52" si="3">MID(E34, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C34" s="7" t="str">
-        <f>MID(E34, 4, 2)</f>
+        <f t="shared" ref="C34:C52" si="4">MID(E34, 4, 2)</f>
         <v>10</v>
       </c>
       <c r="D34" s="7" t="str">
-        <f>MID(E34, 1, 2)</f>
+        <f t="shared" ref="D34:D65" si="5">MID(E34, 1, 2)</f>
         <v>12</v>
       </c>
       <c r="E34" s="13" t="s">
@@ -5022,15 +5032,15 @@
         <v>47</v>
       </c>
       <c r="B35" s="7" t="str">
-        <f>MID(E35, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C35" s="7" t="str">
-        <f>MID(E35, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
       <c r="D35" s="7" t="str">
-        <f>MID(E35, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="E35" s="13" t="s">
@@ -5097,15 +5107,15 @@
         <v>350</v>
       </c>
       <c r="B36" s="7" t="str">
-        <f>MID(E36, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C36" s="7" t="str">
-        <f>MID(E36, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="D36" s="7" t="str">
-        <f>MID(E36, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="E36" s="13" t="s">
@@ -5174,15 +5184,15 @@
         <v>276</v>
       </c>
       <c r="B37" s="7" t="str">
-        <f>MID(E37, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C37" s="7" t="str">
-        <f>MID(E37, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>05</v>
       </c>
       <c r="D37" s="7" t="str">
-        <f>MID(E37, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="E37" s="13" t="s">
@@ -5203,14 +5213,18 @@
       <c r="J37" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K37" s="9"/>
+      <c r="K37" s="9" t="s">
+        <v>456</v>
+      </c>
       <c r="L37" s="9" t="s">
         <v>358</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="N37" s="9"/>
+      <c r="N37" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="O37" s="9" t="s">
         <v>165</v>
       </c>
@@ -5223,7 +5237,9 @@
       <c r="S37" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="T37" s="6"/>
+      <c r="T37" s="6" t="s">
+        <v>363</v>
+      </c>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
@@ -5253,31 +5269,31 @@
     </row>
     <row r="38" spans="1:46">
       <c r="A38" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B38" s="7" t="str">
-        <f>MID(E38, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C38" s="7" t="str">
-        <f>MID(E38, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>05</v>
       </c>
       <c r="D38" s="7" t="str">
-        <f>MID(E38, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="6"/>
@@ -5287,13 +5303,13 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O38" s="9" t="s">
         <v>99</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -5326,80 +5342,80 @@
       <c r="AS38" s="25"/>
       <c r="AT38" s="25"/>
     </row>
-    <row r="39" spans="1:46" ht="57.75">
+    <row r="39" spans="1:46" ht="57">
       <c r="A39" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B39" s="7" t="str">
-        <f>MID(E39, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C39" s="7" t="str">
-        <f>MID(E39, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="D39" s="7" t="str">
-        <f>MID(E39, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q39" s="34" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="T39" s="6"/>
       <c r="U39" s="6" t="s">
         <v>56</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="W39" s="6"/>
       <c r="X39" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y39" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
@@ -5425,51 +5441,51 @@
     </row>
     <row r="40" spans="1:46" ht="28.5">
       <c r="A40" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B40" s="7" t="str">
-        <f>MID(E40, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C40" s="7" t="str">
-        <f>MID(E40, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="D40" s="7" t="str">
-        <f>MID(E40, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="33" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
@@ -5504,42 +5520,42 @@
     </row>
     <row r="41" spans="1:46">
       <c r="A41" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B41" s="7" t="str">
-        <f>MID(E41, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C41" s="7" t="str">
-        <f>MID(E41, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="D41" s="7" t="str">
-        <f>MID(E41, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="29" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
@@ -5577,35 +5593,35 @@
     </row>
     <row r="42" spans="1:46">
       <c r="A42" s="25" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B42" s="7" t="str">
-        <f>MID(E42, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C42" s="7" t="str">
-        <f>MID(E42, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="D42" s="7" t="str">
-        <f>MID(E42, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K42" s="27"/>
       <c r="L42" s="27"/>
@@ -5617,10 +5633,10 @@
         <v>290</v>
       </c>
       <c r="P42" s="25" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q42" s="25" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
@@ -5652,33 +5668,33 @@
       <c r="AS42" s="13"/>
       <c r="AT42" s="13"/>
     </row>
-    <row r="43" spans="1:46">
+    <row r="43" spans="1:46" ht="28.5">
       <c r="A43" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B43" s="7" t="str">
-        <f>MID(E43, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C43" s="7" t="str">
-        <f>MID(E43, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>08</v>
       </c>
       <c r="D43" s="7" t="str">
-        <f>MID(E43, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>06</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I43" s="13" t="s">
         <v>138</v>
@@ -5688,19 +5704,19 @@
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
@@ -5738,39 +5754,39 @@
         <v>102</v>
       </c>
       <c r="B44" s="7" t="str">
-        <f>MID(E44, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C44" s="7" t="str">
-        <f>MID(E44, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>08</v>
       </c>
       <c r="D44" s="7" t="str">
-        <f>MID(E44, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="29" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>89</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N44" s="9" t="s">
         <v>98</v>
@@ -5779,7 +5795,7 @@
         <v>53</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
@@ -5817,28 +5833,28 @@
         <v>127</v>
       </c>
       <c r="B45" s="7" t="str">
-        <f>MID(E45, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C45" s="7" t="str">
-        <f>MID(E45, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="D45" s="7" t="str">
-        <f>MID(E45, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G45" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I45" t="s">
         <v>131</v>
@@ -5856,36 +5872,36 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:46" ht="216.75">
+    <row r="46" spans="1:46" ht="213.75">
       <c r="A46" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B46" s="7" t="str">
-        <f>MID(E46, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C46" s="7" t="str">
-        <f>MID(E46, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="D46" s="7" t="str">
-        <f>MID(E46, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>70</v>
@@ -5899,27 +5915,27 @@
         <v>310</v>
       </c>
       <c r="O46" s="33" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P46" s="34" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="33" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="S46" s="33" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="T46" s="6"/>
       <c r="U46" s="33" t="s">
         <v>72</v>
       </c>
       <c r="V46" s="25" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="W46" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="X46" s="33"/>
       <c r="Y46" s="6"/>
@@ -5947,37 +5963,37 @@
     </row>
     <row r="47" spans="1:46" ht="28.5">
       <c r="A47" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B47" s="7" t="str">
-        <f>MID(E47, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C47" s="7" t="str">
-        <f>MID(E47, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D47" s="7" t="str">
-        <f>MID(E47, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K47" s="9" t="s">
         <v>348</v>
@@ -5985,7 +6001,7 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O47" s="9" t="s">
         <v>165</v>
@@ -6024,35 +6040,35 @@
     </row>
     <row r="48" spans="1:46">
       <c r="A48" s="25" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B48" s="7" t="str">
-        <f>MID(E48, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C48" s="7" t="str">
-        <f>MID(E48, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="D48" s="7" t="str">
-        <f>MID(E48, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="30" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K48" s="27"/>
       <c r="L48" s="27"/>
@@ -6096,19 +6112,19 @@
         <v>270</v>
       </c>
       <c r="B49" s="7" t="str">
-        <f>MID(E49, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C49" s="7" t="str">
-        <f>MID(E49, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="D49" s="7" t="str">
-        <f>MID(E49, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -6157,19 +6173,19 @@
         <v>259</v>
       </c>
       <c r="B50" s="7" t="str">
-        <f>MID(E50, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C50" s="7" t="str">
-        <f>MID(E50, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="D50" s="7" t="str">
-        <f>MID(E50, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -6218,19 +6234,19 @@
         <v>65</v>
       </c>
       <c r="B51" s="7" t="str">
-        <f>MID(E51, 9, 2)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C51" s="7" t="str">
-        <f>MID(E51, 4, 2)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="D51" s="7" t="str">
-        <f>MID(E51, 1, 2)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -6276,29 +6292,29 @@
     </row>
     <row r="52" spans="1:46">
       <c r="A52" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B52" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="C52" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D52" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="B52" s="7" t="str">
-        <f>MID(E52, 9, 2)</f>
-        <v>22</v>
-      </c>
-      <c r="C52" s="7" t="str">
-        <f>MID(E52, 4, 2)</f>
-        <v>12</v>
-      </c>
-      <c r="D52" s="7" t="str">
-        <f>MID(E52, 1, 2)</f>
-        <v>31</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="9"/>
       <c r="I52" s="18"/>
       <c r="J52" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -51698,65 +51714,65 @@
       <c r="AT997" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AT997">
+  <sortState ref="A2:AT997">
     <sortCondition ref="B2:B997"/>
     <sortCondition ref="C2:C997"/>
     <sortCondition ref="D2:D997"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H3" r:id="rId2" location="paperID316" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="T11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AI16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H17" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H19" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Q19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="T19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="Q22" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="T22" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H23" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H26" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H27" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H28" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="AI28" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H29" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="H30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H31" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H32" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H34" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H35" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H37" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="H42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="H39" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H41" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="H43" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="H44" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="H46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="H47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="H48" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="H40" r:id="rId49" xr:uid="{07BF4283-7A05-4C2B-814D-EE19D3D03A78}"/>
-    <hyperlink ref="H38" r:id="rId50" xr:uid="{09C4BEEF-B758-4F42-98F0-0A7CCEFCC085}"/>
-    <hyperlink ref="H45" r:id="rId51" xr:uid="{4499F48E-4EEC-4C7A-A538-691F87D61DB9}"/>
-    <hyperlink ref="H18" r:id="rId52" xr:uid="{A8825DF3-E6CE-49DA-8E05-ACE8A3E7DDB7}"/>
-    <hyperlink ref="H36" r:id="rId53" xr:uid="{309D6906-5547-4C99-9533-C47144FA08DC}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2" location="paperID316"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="T11" r:id="rId11"/>
+    <hyperlink ref="H12" r:id="rId12"/>
+    <hyperlink ref="H13" r:id="rId13"/>
+    <hyperlink ref="Q13" r:id="rId14"/>
+    <hyperlink ref="H14" r:id="rId15"/>
+    <hyperlink ref="Q14" r:id="rId16"/>
+    <hyperlink ref="H15" r:id="rId17"/>
+    <hyperlink ref="H16" r:id="rId18"/>
+    <hyperlink ref="AI16" r:id="rId19"/>
+    <hyperlink ref="H17" r:id="rId20"/>
+    <hyperlink ref="H19" r:id="rId21"/>
+    <hyperlink ref="Q19" r:id="rId22"/>
+    <hyperlink ref="T19" r:id="rId23"/>
+    <hyperlink ref="H20" r:id="rId24"/>
+    <hyperlink ref="H21" r:id="rId25"/>
+    <hyperlink ref="H22" r:id="rId26"/>
+    <hyperlink ref="Q22" r:id="rId27"/>
+    <hyperlink ref="T22" r:id="rId28"/>
+    <hyperlink ref="H23" r:id="rId29"/>
+    <hyperlink ref="H26" r:id="rId30"/>
+    <hyperlink ref="H27" r:id="rId31"/>
+    <hyperlink ref="H28" r:id="rId32"/>
+    <hyperlink ref="AI28" r:id="rId33"/>
+    <hyperlink ref="H29" r:id="rId34"/>
+    <hyperlink ref="H30" r:id="rId35"/>
+    <hyperlink ref="H31" r:id="rId36"/>
+    <hyperlink ref="H32" r:id="rId37"/>
+    <hyperlink ref="H34" r:id="rId38"/>
+    <hyperlink ref="H35" r:id="rId39"/>
+    <hyperlink ref="H37" r:id="rId40"/>
+    <hyperlink ref="H42" r:id="rId41"/>
+    <hyperlink ref="H39" r:id="rId42"/>
+    <hyperlink ref="H41" r:id="rId43"/>
+    <hyperlink ref="H43" r:id="rId44"/>
+    <hyperlink ref="H44" r:id="rId45"/>
+    <hyperlink ref="H46" r:id="rId46"/>
+    <hyperlink ref="H47" r:id="rId47"/>
+    <hyperlink ref="H48" r:id="rId48"/>
+    <hyperlink ref="H40" r:id="rId49"/>
+    <hyperlink ref="H38" r:id="rId50"/>
+    <hyperlink ref="H45" r:id="rId51"/>
+    <hyperlink ref="H18" r:id="rId52"/>
+    <hyperlink ref="H36" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -51765,6 +51781,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100329EEE15A9214C4A9CD88C49071DE3D3" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1cfbdc3aec0f9764958d51c9cd4ae398">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1512c054-5eba-4473-9e73-107d9d6b916a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b93104c4cb30fae26fe00c66df1ba726" ns2:_="">
     <xsd:import namespace="1512c054-5eba-4473-9e73-107d9d6b916a"/>
@@ -51910,29 +51941,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61472F2-21CB-4677-9DEB-F5ADB6BFD29F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61472F2-21CB-4677-9DEB-F5ADB6BFD29F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1512c054-5eba-4473-9e73-107d9d6b916a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\23_Working_groups\30_estimand_onco\90_webpage\oncowg_webpage\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25329"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="11_E57AE7D6C4B4445115608800AF4DB0028C6BE972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6073586-898F-4A68-8020-EC0FA8777FCA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="10785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="458">
   <si>
     <t>Conference</t>
   </si>
@@ -1107,6 +1103,9 @@
     <t>https://www.sctweb.org/meeting/</t>
   </si>
   <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
     <t>15.11.2021</t>
   </si>
   <si>
@@ -1183,6 +1182,9 @@
   </si>
   <si>
     <t>Duration of response and time to response into the estimand framework</t>
+  </si>
+  <si>
+    <t>talks/20220614_Sailer_PSI_DOR.pdf</t>
   </si>
   <si>
     <t>Covariate adjust with binary and  time to event endpoint and how to  interpret marginal effect in oncology clinical trials</t>
@@ -1405,14 +1407,11 @@
   <si>
     <t>DIA Quantitative Science Forum</t>
   </si>
-  <si>
-    <t>Hybrid</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm&quot; &quot;d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
@@ -1995,12 +1994,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="S12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2169,20 +2168,20 @@
       <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
     </row>
-    <row r="2" spans="1:46" ht="42.75">
+    <row r="2" spans="1:46" ht="57.75">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="7" t="str">
-        <f t="shared" ref="B2:B33" si="0">MID(E2, 9, 2)</f>
+        <f>MID(E2, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C2" s="7" t="str">
-        <f t="shared" ref="C2:C33" si="1">MID(E2, 4, 2)</f>
+        <f>MID(E2, 4, 2)</f>
         <v>02</v>
       </c>
       <c r="D2" s="7" t="str">
-        <f t="shared" ref="D2:D33" si="2">MID(E2, 1, 2)</f>
+        <f>MID(E2, 1, 2)</f>
         <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2246,20 +2245,20 @@
       <c r="AS2" s="9"/>
       <c r="AT2" s="9"/>
     </row>
-    <row r="3" spans="1:46" ht="28.5">
+    <row r="3" spans="1:46" ht="43.5">
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E3, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C3" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E3, 4, 2)</f>
         <v>03</v>
       </c>
       <c r="D3" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E3, 1, 2)</f>
         <v>18</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -2346,15 +2345,15 @@
         <v>65</v>
       </c>
       <c r="B4" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E4, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C4" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E4, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E4, 1, 2)</f>
         <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2441,15 +2440,15 @@
         <v>84</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E5, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C5" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E5, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D5" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E5, 1, 2)</f>
         <v>02</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -2524,15 +2523,15 @@
         <v>93</v>
       </c>
       <c r="B6" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E6, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C6" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E6, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D6" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E6, 1, 2)</f>
         <v>23</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -2601,15 +2600,15 @@
         <v>102</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E7, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C7" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E7, 4, 2)</f>
         <v>07</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E7, 1, 2)</f>
         <v>14</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -2678,15 +2677,15 @@
         <v>111</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E8, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C8" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E8, 4, 2)</f>
         <v>07</v>
       </c>
       <c r="D8" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E8, 1, 2)</f>
         <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -2768,20 +2767,20 @@
       <c r="AS8" s="13"/>
       <c r="AT8" s="13"/>
     </row>
-    <row r="9" spans="1:46" ht="42.75">
+    <row r="9" spans="1:46" ht="43.5">
       <c r="A9" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B9" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E9, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C9" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E9, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D9" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E9, 1, 2)</f>
         <v>23</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -2850,15 +2849,15 @@
         <v>135</v>
       </c>
       <c r="B10" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E10, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C10" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E10, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D10" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E10, 1, 2)</f>
         <v>23</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -2939,15 +2938,15 @@
         <v>148</v>
       </c>
       <c r="B11" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E11, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C11" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E11, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D11" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E11, 1, 2)</f>
         <v>27</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -3022,15 +3021,15 @@
         <v>161</v>
       </c>
       <c r="B12" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E12, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C12" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E12, 4, 2)</f>
         <v>10</v>
       </c>
       <c r="D12" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E12, 1, 2)</f>
         <v>20</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -3099,15 +3098,15 @@
         <v>168</v>
       </c>
       <c r="B13" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E13, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C13" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E13, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D13" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E13, 1, 2)</f>
         <v>06</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -3176,15 +3175,15 @@
         <v>174</v>
       </c>
       <c r="B14" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E14, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C14" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E14, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D14" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E14, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -3252,20 +3251,20 @@
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
     </row>
-    <row r="15" spans="1:46" ht="42.75">
+    <row r="15" spans="1:46" ht="43.5">
       <c r="A15" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B15" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E15, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C15" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E15, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D15" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E15, 1, 2)</f>
         <v>11</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -3334,15 +3333,15 @@
         <v>186</v>
       </c>
       <c r="B16" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E16, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C16" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E16, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D16" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E16, 1, 2)</f>
         <v>29</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -3453,15 +3452,15 @@
         <v>111</v>
       </c>
       <c r="B17" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E17, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C17" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E17, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D17" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E17, 1, 2)</f>
         <v>01</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -3546,15 +3545,15 @@
         <v>222</v>
       </c>
       <c r="B18" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E18, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C18" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E18, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D18" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E18, 1, 2)</f>
         <v>06</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -3623,15 +3622,15 @@
         <v>229</v>
       </c>
       <c r="B19" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E19, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C19" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E19, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D19" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E19, 1, 2)</f>
         <v>07</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -3706,15 +3705,15 @@
         <v>135</v>
       </c>
       <c r="B20" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E20, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C20" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E20, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D20" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E20, 1, 2)</f>
         <v>22</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -3783,15 +3782,15 @@
         <v>241</v>
       </c>
       <c r="B21" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E21, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C21" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E21, 4, 2)</f>
         <v>11</v>
       </c>
       <c r="D21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E21, 1, 2)</f>
         <v>05</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -3855,20 +3854,20 @@
       <c r="AS21" s="9"/>
       <c r="AT21" s="9"/>
     </row>
-    <row r="22" spans="1:46" ht="30">
+    <row r="22" spans="1:46" ht="30.75">
       <c r="A22" s="13" t="s">
         <v>247</v>
       </c>
       <c r="B22" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E22, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C22" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E22, 4, 2)</f>
         <v>11</v>
       </c>
       <c r="D22" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E22, 1, 2)</f>
         <v>17</v>
       </c>
       <c r="E22" s="23" t="s">
@@ -3943,15 +3942,15 @@
         <v>253</v>
       </c>
       <c r="B23" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E23, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C23" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E23, 4, 2)</f>
         <v>11</v>
       </c>
       <c r="D23" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E23, 1, 2)</f>
         <v>27</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -4026,15 +4025,15 @@
         <v>259</v>
       </c>
       <c r="B24" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E24, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C24" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E24, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D24" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E24, 1, 2)</f>
         <v>09</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -4107,15 +4106,15 @@
         <v>264</v>
       </c>
       <c r="B25" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E25, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C25" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E25, 4, 2)</f>
         <v>02</v>
       </c>
       <c r="D25" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E25, 1, 2)</f>
         <v>11</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -4190,15 +4189,15 @@
         <v>270</v>
       </c>
       <c r="B26" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E26, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C26" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E26, 4, 2)</f>
         <v>04</v>
       </c>
       <c r="D26" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E26, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E26" s="13" t="s">
@@ -4267,15 +4266,15 @@
         <v>276</v>
       </c>
       <c r="B27" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E27, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C27" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E27, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D27" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E27, 1, 2)</f>
         <v>20</v>
       </c>
       <c r="E27" s="13" t="s">
@@ -4366,15 +4365,15 @@
         <v>281</v>
       </c>
       <c r="B28" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E28, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C28" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E28, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D28" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E28, 1, 2)</f>
         <v>01</v>
       </c>
       <c r="E28" s="13" t="s">
@@ -4479,15 +4478,15 @@
         <v>111</v>
       </c>
       <c r="B29" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E29, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C29" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E29, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D29" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E29, 1, 2)</f>
         <v>08</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -4570,15 +4569,15 @@
         <v>135</v>
       </c>
       <c r="B30" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E30, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C30" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E30, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D30" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E30, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E30" s="13" t="s">
@@ -4651,15 +4650,15 @@
         <v>135</v>
       </c>
       <c r="B31" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E31, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C31" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E31, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D31" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E31, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E31" s="13" t="s">
@@ -4748,15 +4747,15 @@
         <v>135</v>
       </c>
       <c r="B32" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E32, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C32" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E32, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D32" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E32, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -4839,15 +4838,15 @@
         <v>329</v>
       </c>
       <c r="B33" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E33, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C33" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E33, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D33" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E33, 1, 2)</f>
         <v>28</v>
       </c>
       <c r="E33" s="13" t="s">
@@ -4952,15 +4951,15 @@
         <v>334</v>
       </c>
       <c r="B34" s="7" t="str">
-        <f t="shared" ref="B34:B52" si="3">MID(E34, 9, 2)</f>
+        <f>MID(E34, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C34" s="7" t="str">
-        <f t="shared" ref="C34:C52" si="4">MID(E34, 4, 2)</f>
+        <f>MID(E34, 4, 2)</f>
         <v>10</v>
       </c>
       <c r="D34" s="7" t="str">
-        <f t="shared" ref="D34:D65" si="5">MID(E34, 1, 2)</f>
+        <f>MID(E34, 1, 2)</f>
         <v>12</v>
       </c>
       <c r="E34" s="13" t="s">
@@ -5032,15 +5031,15 @@
         <v>47</v>
       </c>
       <c r="B35" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E35, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C35" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E35, 4, 2)</f>
         <v>03</v>
       </c>
       <c r="D35" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E35, 1, 2)</f>
         <v>28</v>
       </c>
       <c r="E35" s="13" t="s">
@@ -5107,15 +5106,15 @@
         <v>350</v>
       </c>
       <c r="B36" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E36, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C36" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E36, 4, 2)</f>
         <v>04</v>
       </c>
       <c r="D36" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E36, 1, 2)</f>
         <v>26</v>
       </c>
       <c r="E36" s="13" t="s">
@@ -5184,15 +5183,15 @@
         <v>276</v>
       </c>
       <c r="B37" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E37, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C37" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E37, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D37" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E37, 1, 2)</f>
         <v>15</v>
       </c>
       <c r="E37" s="13" t="s">
@@ -5214,13 +5213,13 @@
         <v>70</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>456</v>
+        <v>358</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N37" s="9" t="s">
         <v>43</v>
@@ -5229,16 +5228,16 @@
         <v>165</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
@@ -5269,31 +5268,31 @@
     </row>
     <row r="38" spans="1:46">
       <c r="A38" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B38" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E38, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C38" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E38, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D38" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E38, 1, 2)</f>
         <v>26</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="6"/>
@@ -5303,13 +5302,13 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O38" s="9" t="s">
         <v>99</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -5342,80 +5341,82 @@
       <c r="AS38" s="25"/>
       <c r="AT38" s="25"/>
     </row>
-    <row r="39" spans="1:46" ht="57">
+    <row r="39" spans="1:46" ht="57.75">
       <c r="A39" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B39" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E39, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C39" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E39, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D39" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E39, 1, 2)</f>
         <v>12</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q39" s="34" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="T39" s="6"/>
+        <v>384</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>385</v>
+      </c>
       <c r="U39" s="6" t="s">
         <v>56</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="W39" s="6"/>
       <c r="X39" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Y39" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
@@ -5441,51 +5442,51 @@
     </row>
     <row r="40" spans="1:46" ht="28.5">
       <c r="A40" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B40" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E40, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C40" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E40, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D40" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E40, 1, 2)</f>
         <v>19</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="33" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
@@ -5520,42 +5521,42 @@
     </row>
     <row r="41" spans="1:46">
       <c r="A41" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B41" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E41, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C41" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E41, 4, 2)</f>
         <v>07</v>
       </c>
       <c r="D41" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E41, 1, 2)</f>
         <v>11</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="29" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
@@ -5593,35 +5594,35 @@
     </row>
     <row r="42" spans="1:46">
       <c r="A42" s="25" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B42" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E42, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C42" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E42, 4, 2)</f>
         <v>07</v>
       </c>
       <c r="D42" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E42, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="30" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K42" s="27"/>
       <c r="L42" s="27"/>
@@ -5633,10 +5634,10 @@
         <v>290</v>
       </c>
       <c r="P42" s="25" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q42" s="25" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
@@ -5668,33 +5669,33 @@
       <c r="AS42" s="13"/>
       <c r="AT42" s="13"/>
     </row>
-    <row r="43" spans="1:46" ht="28.5">
+    <row r="43" spans="1:46">
       <c r="A43" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B43" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E43, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C43" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E43, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D43" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E43, 1, 2)</f>
         <v>06</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I43" s="13" t="s">
         <v>138</v>
@@ -5704,19 +5705,19 @@
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
@@ -5754,39 +5755,39 @@
         <v>102</v>
       </c>
       <c r="B44" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E44, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C44" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E44, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D44" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E44, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="29" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>89</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N44" s="9" t="s">
         <v>98</v>
@@ -5795,7 +5796,7 @@
         <v>53</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
@@ -5833,28 +5834,28 @@
         <v>127</v>
       </c>
       <c r="B45" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E45, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C45" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E45, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D45" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E45, 1, 2)</f>
         <v>14</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G45" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I45" t="s">
         <v>131</v>
@@ -5872,36 +5873,36 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:46" ht="213.75">
+    <row r="46" spans="1:46" ht="216.75">
       <c r="A46" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B46" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E46, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C46" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E46, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D46" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E46, 1, 2)</f>
         <v>20</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>70</v>
@@ -5915,27 +5916,27 @@
         <v>310</v>
       </c>
       <c r="O46" s="33" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P46" s="34" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="33" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="S46" s="33" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="T46" s="6"/>
       <c r="U46" s="33" t="s">
         <v>72</v>
       </c>
       <c r="V46" s="25" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="W46" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="X46" s="33"/>
       <c r="Y46" s="6"/>
@@ -5963,37 +5964,37 @@
     </row>
     <row r="47" spans="1:46" ht="28.5">
       <c r="A47" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B47" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E47, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C47" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E47, 4, 2)</f>
         <v>10</v>
       </c>
       <c r="D47" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E47, 1, 2)</f>
         <v>19</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K47" s="9" t="s">
         <v>348</v>
@@ -6001,7 +6002,7 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="O47" s="9" t="s">
         <v>165</v>
@@ -6040,35 +6041,35 @@
     </row>
     <row r="48" spans="1:46">
       <c r="A48" s="25" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B48" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E48, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C48" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E48, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D48" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E48, 1, 2)</f>
         <v>18</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="30" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K48" s="27"/>
       <c r="L48" s="27"/>
@@ -6112,19 +6113,19 @@
         <v>270</v>
       </c>
       <c r="B49" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E49, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C49" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E49, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D49" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E49, 1, 2)</f>
         <v>31</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -6173,19 +6174,19 @@
         <v>259</v>
       </c>
       <c r="B50" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E50, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C50" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E50, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D50" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E50, 1, 2)</f>
         <v>31</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -6234,19 +6235,19 @@
         <v>65</v>
       </c>
       <c r="B51" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E51, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C51" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E51, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D51" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E51, 1, 2)</f>
         <v>31</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -6292,29 +6293,29 @@
     </row>
     <row r="52" spans="1:46">
       <c r="A52" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B52" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E52, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C52" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E52, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D52" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E52, 1, 2)</f>
         <v>31</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="9"/>
       <c r="I52" s="18"/>
       <c r="J52" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -51714,65 +51715,65 @@
       <c r="AT997" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A2:AT997">
-    <sortCondition ref="B2:B997"/>
-    <sortCondition ref="C2:C997"/>
-    <sortCondition ref="D2:D997"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL52">
+    <sortCondition ref="B2:B52"/>
+    <sortCondition ref="C2:C52"/>
+    <sortCondition ref="D2:D52"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2" location="paperID316"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H6" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-    <hyperlink ref="H8" r:id="rId7"/>
-    <hyperlink ref="H9" r:id="rId8"/>
-    <hyperlink ref="H10" r:id="rId9"/>
-    <hyperlink ref="H11" r:id="rId10"/>
-    <hyperlink ref="T11" r:id="rId11"/>
-    <hyperlink ref="H12" r:id="rId12"/>
-    <hyperlink ref="H13" r:id="rId13"/>
-    <hyperlink ref="Q13" r:id="rId14"/>
-    <hyperlink ref="H14" r:id="rId15"/>
-    <hyperlink ref="Q14" r:id="rId16"/>
-    <hyperlink ref="H15" r:id="rId17"/>
-    <hyperlink ref="H16" r:id="rId18"/>
-    <hyperlink ref="AI16" r:id="rId19"/>
-    <hyperlink ref="H17" r:id="rId20"/>
-    <hyperlink ref="H19" r:id="rId21"/>
-    <hyperlink ref="Q19" r:id="rId22"/>
-    <hyperlink ref="T19" r:id="rId23"/>
-    <hyperlink ref="H20" r:id="rId24"/>
-    <hyperlink ref="H21" r:id="rId25"/>
-    <hyperlink ref="H22" r:id="rId26"/>
-    <hyperlink ref="Q22" r:id="rId27"/>
-    <hyperlink ref="T22" r:id="rId28"/>
-    <hyperlink ref="H23" r:id="rId29"/>
-    <hyperlink ref="H26" r:id="rId30"/>
-    <hyperlink ref="H27" r:id="rId31"/>
-    <hyperlink ref="H28" r:id="rId32"/>
-    <hyperlink ref="AI28" r:id="rId33"/>
-    <hyperlink ref="H29" r:id="rId34"/>
-    <hyperlink ref="H30" r:id="rId35"/>
-    <hyperlink ref="H31" r:id="rId36"/>
-    <hyperlink ref="H32" r:id="rId37"/>
-    <hyperlink ref="H34" r:id="rId38"/>
-    <hyperlink ref="H35" r:id="rId39"/>
-    <hyperlink ref="H37" r:id="rId40"/>
-    <hyperlink ref="H42" r:id="rId41"/>
-    <hyperlink ref="H39" r:id="rId42"/>
-    <hyperlink ref="H41" r:id="rId43"/>
-    <hyperlink ref="H43" r:id="rId44"/>
-    <hyperlink ref="H44" r:id="rId45"/>
-    <hyperlink ref="H46" r:id="rId46"/>
-    <hyperlink ref="H47" r:id="rId47"/>
-    <hyperlink ref="H48" r:id="rId48"/>
-    <hyperlink ref="H40" r:id="rId49"/>
-    <hyperlink ref="H38" r:id="rId50"/>
-    <hyperlink ref="H45" r:id="rId51"/>
-    <hyperlink ref="H18" r:id="rId52"/>
-    <hyperlink ref="H36" r:id="rId53"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" location="paperID316" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="T11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AI16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H17" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H19" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="T19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="Q22" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="T22" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H23" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H26" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H27" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H28" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AI28" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H29" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H31" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H32" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H34" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H35" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H37" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H39" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H41" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H43" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="H44" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="H47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H48" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H40" r:id="rId49" xr:uid="{07BF4283-7A05-4C2B-814D-EE19D3D03A78}"/>
+    <hyperlink ref="H38" r:id="rId50" xr:uid="{09C4BEEF-B758-4F42-98F0-0A7CCEFCC085}"/>
+    <hyperlink ref="H45" r:id="rId51" xr:uid="{4499F48E-4EEC-4C7A-A538-691F87D61DB9}"/>
+    <hyperlink ref="H18" r:id="rId52" xr:uid="{A8825DF3-E6CE-49DA-8E05-ACE8A3E7DDB7}"/>
+    <hyperlink ref="H36" r:id="rId53" xr:uid="{309D6906-5547-4C99-9533-C47144FA08DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -51781,18 +51782,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51942,36 +51943,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61472F2-21CB-4677-9DEB-F5ADB6BFD29F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1512c054-5eba-4473-9e73-107d9d6b916a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61472F2-21CB-4677-9DEB-F5ADB6BFD29F}"/>
 </file>
--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25412"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="238" documentId="11_E57AE7D6C4B4445115608800AF4DB0028C6BE972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6073586-898F-4A68-8020-EC0FA8777FCA}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="11_E57AE7D6C4B4445115608800AF4DB0028C6BE972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C9A0AAF-55D7-49DB-9789-B6787EC9B1ED}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="463">
   <si>
     <t>Conference</t>
   </si>
@@ -1178,6 +1178,15 @@
     <t>talks/20220612_OncoEstimand-Poster-PSI-Final.pdf</t>
   </si>
   <si>
+    <t>Stefan Englert (intro talk)</t>
+  </si>
+  <si>
+    <t>Introduction to the Estimands in OncologyWorking Group</t>
+  </si>
+  <si>
+    <t>talks/20220616_PSI_Englert_intro.pdf</t>
+  </si>
+  <si>
     <t>Oliver Sailer</t>
   </si>
   <si>
@@ -1190,10 +1199,16 @@
     <t>Covariate adjust with binary and  time to event endpoint and how to  interpret marginal effect in oncology clinical trials</t>
   </si>
   <si>
+    <t>talks/20220616_PSI_Bornkamp_MargCond.pdf</t>
+  </si>
+  <si>
     <t>Stefan Englert (talk)</t>
   </si>
   <si>
     <t>Censoring and censoring mechanisms in light of the estimand framework</t>
+  </si>
+  <si>
+    <t>talks/20220616_PSI_Englert_censoring.pdf</t>
   </si>
   <si>
     <t>ICSA (International Chinese Statistical Association) Applied Statistics Symposium</t>
@@ -1998,49 +2013,49 @@
   <dimension ref="A1:AT997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="S12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T39" sqref="T39"/>
+      <pane ySplit="1" topLeftCell="Y20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z40" sqref="Z40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="73" customWidth="1"/>
+    <col min="1" max="1" width="110.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" customWidth="1"/>
-    <col min="8" max="8" width="52" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="42.28515625" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="205.140625" customWidth="1"/>
-    <col min="17" max="17" width="96.5703125" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" customWidth="1"/>
-    <col min="19" max="19" width="205.140625" customWidth="1"/>
-    <col min="20" max="20" width="142.7109375" customWidth="1"/>
-    <col min="21" max="21" width="32" customWidth="1"/>
-    <col min="22" max="22" width="205.140625" customWidth="1"/>
-    <col min="23" max="23" width="114.85546875" customWidth="1"/>
-    <col min="24" max="24" width="28.5703125" customWidth="1"/>
-    <col min="25" max="25" width="205.140625" customWidth="1"/>
-    <col min="26" max="26" width="62.42578125" customWidth="1"/>
-    <col min="27" max="27" width="33.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="95.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="292.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="216" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="101.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="216" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="150.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="216" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="120.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="216" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="157.28515625" customWidth="1"/>
-    <col min="29" max="29" width="33.140625" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" customWidth="1"/>
-    <col min="31" max="31" width="74.5703125" customWidth="1"/>
-    <col min="32" max="32" width="27.85546875" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" customWidth="1"/>
-    <col min="34" max="34" width="31.140625" customWidth="1"/>
-    <col min="35" max="35" width="141.85546875" customWidth="1"/>
-    <col min="36" max="36" width="17.85546875" customWidth="1"/>
-    <col min="37" max="37" width="62.42578125" customWidth="1"/>
-    <col min="38" max="38" width="20.7109375" customWidth="1"/>
+    <col min="29" max="29" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="78.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="149.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="39" max="46" width="157.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5341,7 +5356,7 @@
       <c r="AS38" s="25"/>
       <c r="AT38" s="25"/>
     </row>
-    <row r="39" spans="1:46" ht="57.75">
+    <row r="39" spans="1:46" ht="28.5">
       <c r="A39" s="6" t="s">
         <v>84</v>
       </c>
@@ -5396,34 +5411,44 @@
       <c r="Q39" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="R39" s="6" t="s">
+      <c r="R39" t="s">
         <v>383</v>
       </c>
-      <c r="S39" s="6" t="s">
+      <c r="S39" t="s">
         <v>384</v>
       </c>
-      <c r="T39" s="6" t="s">
+      <c r="T39" t="s">
         <v>385</v>
       </c>
       <c r="U39" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="W39" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="X39" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="V39" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6" t="s">
-        <v>387</v>
-      </c>
       <c r="Y39" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
+        <v>389</v>
+      </c>
+      <c r="Z39" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>393</v>
+      </c>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
       <c r="AF39" s="13"/>
       <c r="AG39" s="13"/>
       <c r="AH39" s="13"/>
@@ -5442,7 +5467,7 @@
     </row>
     <row r="40" spans="1:46" ht="28.5">
       <c r="A40" s="6" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B40" s="7" t="str">
         <f>MID(E40, 9, 2)</f>
@@ -5457,36 +5482,36 @@
         <v>19</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="33" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
@@ -5521,7 +5546,7 @@
     </row>
     <row r="41" spans="1:46">
       <c r="A41" s="6" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B41" s="7" t="str">
         <f>MID(E41, 9, 2)</f>
@@ -5536,27 +5561,27 @@
         <v>11</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="29" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
@@ -5594,7 +5619,7 @@
     </row>
     <row r="42" spans="1:46">
       <c r="A42" s="25" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B42" s="7" t="str">
         <f>MID(E42, 9, 2)</f>
@@ -5609,20 +5634,20 @@
         <v>21</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="30" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K42" s="27"/>
       <c r="L42" s="27"/>
@@ -5634,10 +5659,10 @@
         <v>290</v>
       </c>
       <c r="P42" s="25" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q42" s="25" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
@@ -5686,16 +5711,16 @@
         <v>06</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="I43" s="13" t="s">
         <v>138</v>
@@ -5705,19 +5730,19 @@
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
@@ -5767,27 +5792,27 @@
         <v>21</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="29" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>89</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N44" s="9" t="s">
         <v>98</v>
@@ -5796,7 +5821,7 @@
         <v>53</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
@@ -5846,16 +5871,16 @@
         <v>14</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G45" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="I45" t="s">
         <v>131</v>
@@ -5890,19 +5915,19 @@
         <v>20</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>70</v>
@@ -5916,27 +5941,27 @@
         <v>310</v>
       </c>
       <c r="O46" s="33" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="P46" s="34" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="33" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="S46" s="33" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="T46" s="6"/>
       <c r="U46" s="33" t="s">
         <v>72</v>
       </c>
       <c r="V46" s="25" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="W46" s="6" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="X46" s="33"/>
       <c r="Y46" s="6"/>
@@ -5964,7 +5989,7 @@
     </row>
     <row r="47" spans="1:46" ht="28.5">
       <c r="A47" s="6" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B47" s="7" t="str">
         <f>MID(E47, 9, 2)</f>
@@ -5979,22 +6004,22 @@
         <v>19</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K47" s="9" t="s">
         <v>348</v>
@@ -6002,7 +6027,7 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="O47" s="9" t="s">
         <v>165</v>
@@ -6041,7 +6066,7 @@
     </row>
     <row r="48" spans="1:46">
       <c r="A48" s="25" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B48" s="7" t="str">
         <f>MID(E48, 9, 2)</f>
@@ -6056,20 +6081,20 @@
         <v>18</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="30" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K48" s="27"/>
       <c r="L48" s="27"/>
@@ -6125,7 +6150,7 @@
         <v>31</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -6186,7 +6211,7 @@
         <v>31</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -6247,7 +6272,7 @@
         <v>31</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -6293,7 +6318,7 @@
     </row>
     <row r="52" spans="1:46">
       <c r="A52" s="9" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B52" s="7" t="str">
         <f>MID(E52, 9, 2)</f>
@@ -6308,14 +6333,14 @@
         <v>31</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="9"/>
       <c r="I52" s="18"/>
       <c r="J52" s="6" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>

--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="480">
   <si>
     <t>Conference</t>
   </si>
@@ -1465,6 +1465,18 @@
   <si>
     <t>talks/20220822_Rufibach_FUquant.pdf</t>
   </si>
+  <si>
+    <t>talks/20220920_Tian_adjustment.pdf</t>
+  </si>
+  <si>
+    <t>Dalong Patrick Huang</t>
+  </si>
+  <si>
+    <t>Adjusting for Covariates in Randomized Clinical Trials</t>
+  </si>
+  <si>
+    <t>talks/20220920_Huang_FDA.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -2032,7 +2044,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q45" sqref="Q45"/>
+      <selection pane="bottomLeft" activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6084,28 +6096,36 @@
       <c r="S47" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="T47" s="14"/>
-      <c r="U47" s="19" t="s">
+      <c r="T47" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="U47" t="s">
+        <v>477</v>
+      </c>
+      <c r="V47" t="s">
+        <v>478</v>
+      </c>
+      <c r="W47" t="s">
+        <v>479</v>
+      </c>
+      <c r="X47" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="V47" s="19" t="s">
+      <c r="Y47" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="W47" s="14" t="s">
+      <c r="Z47" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="X47" s="19" t="s">
+      <c r="AA47" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="Y47" s="14" t="s">
+      <c r="AB47" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="Z47" s="14" t="s">
+      <c r="AC47" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="AA47" s="14"/>
-      <c r="AB47" s="14"/>
-      <c r="AC47" s="14"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
@@ -52091,18 +52111,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52124,18 +52144,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="484">
   <si>
     <t>Conference</t>
   </si>
@@ -1486,6 +1486,9 @@
   <si>
     <t>talks/20221021_DIAChina_condmarg_Xu.pdf</t>
   </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/5L7e9FPJjhofi0bhJz2fvQ</t>
+  </si>
 </sst>
 </file>
 
@@ -2054,9 +2057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R49" sqref="R49"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6258,7 +6261,9 @@
         <v>21.10.2022</v>
       </c>
       <c r="G49" s="12"/>
-      <c r="H49" s="19"/>
+      <c r="H49" s="19" t="s">
+        <v>483</v>
+      </c>
       <c r="I49" s="17"/>
       <c r="J49" s="12" t="s">
         <v>418</v>
@@ -52186,18 +52191,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52219,18 +52224,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="487">
   <si>
     <t>Conference</t>
   </si>
@@ -1489,6 +1489,15 @@
   <si>
     <t>https://mp.weixin.qq.com/s/5L7e9FPJjhofi0bhJz2fvQ</t>
   </si>
+  <si>
+    <t>ASA New Jersey Chapter Webinar Series: Getting the question right: Applying the Estimand and Target Trial Frameworks with External Controls</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>communication/20221202_ASA_NJ_TTF_estimands.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -2055,11 +2064,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT999"/>
+  <dimension ref="A1:AT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5016,7 +5025,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="13" t="str">
-        <f t="shared" ref="C34:C53" si="3">MID(E34, 4, 2)</f>
+        <f t="shared" ref="C34:C54" si="3">MID(E34, 4, 2)</f>
         <v>10</v>
       </c>
       <c r="D34" s="13" t="str">
@@ -5992,7 +6001,7 @@
         <v>127</v>
       </c>
       <c r="B46" s="13" t="str">
-        <f t="shared" ref="B46:B53" si="4">MID(E46, 9, 2)</f>
+        <f t="shared" ref="B46:B54" si="4">MID(E46, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C46" s="13" t="str">
@@ -6000,7 +6009,7 @@
         <v>09</v>
       </c>
       <c r="D46" s="13" t="str">
-        <f t="shared" ref="D46:D53" si="5">MID(E46, 1, 2)</f>
+        <f t="shared" ref="D46:D54" si="5">MID(E46, 1, 2)</f>
         <v>14</v>
       </c>
       <c r="E46" s="21" t="s">
@@ -6245,11 +6254,11 @@
         <v>22</v>
       </c>
       <c r="C49" s="13" t="str">
-        <f t="shared" ref="C49" si="7">MID(E49, 4, 2)</f>
+        <f t="shared" ref="C49:C50" si="7">MID(E49, 4, 2)</f>
         <v>10</v>
       </c>
       <c r="D49" s="13" t="str">
-        <f t="shared" ref="D49" si="8">MID(E49, 1, 2)</f>
+        <f t="shared" ref="D49:D50" si="8">MID(E49, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E49" s="21" t="str">
@@ -6315,58 +6324,62 @@
       <c r="AS49" s="5"/>
       <c r="AT49" s="5"/>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B50" s="13" t="str">
-        <f t="shared" si="4"/>
+    <row r="50" spans="1:46" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="B50" s="13">
         <v>22</v>
       </c>
       <c r="C50" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="D50" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>02</v>
       </c>
       <c r="E50" s="21" t="str">
-        <f>"18.12.2022"</f>
-        <v>18.12.2022</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="G50" s="17"/>
+        <f>"02.12.2022"</f>
+        <v>02.12.2022</v>
+      </c>
+      <c r="F50" s="21" t="str">
+        <f>"02.12.2022"</f>
+        <v>02.12.2022</v>
+      </c>
+      <c r="G50" s="12"/>
       <c r="H50" s="19" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="K50" s="15"/>
+        <v>485</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
+      <c r="N50" s="15" t="s">
+        <v>479</v>
+      </c>
       <c r="O50" s="15"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="17"/>
-      <c r="AC50" s="17"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
       <c r="AD50" s="17"/>
       <c r="AE50" s="17"/>
       <c r="AF50" s="17"/>
@@ -6376,18 +6389,18 @@
       <c r="AJ50" s="17"/>
       <c r="AK50" s="17"/>
       <c r="AL50" s="17"/>
-      <c r="AM50" s="3"/>
-      <c r="AN50" s="3"/>
-      <c r="AO50" s="3"/>
-      <c r="AP50" s="3"/>
-      <c r="AQ50" s="3"/>
-      <c r="AR50" s="3"/>
-      <c r="AS50" s="3"/>
-      <c r="AT50" s="3"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="5"/>
+      <c r="AS50" s="5"/>
+      <c r="AT50" s="5"/>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>270</v>
+      <c r="A51" s="17" t="s">
+        <v>465</v>
       </c>
       <c r="B51" s="13" t="str">
         <f t="shared" si="4"/>
@@ -6399,44 +6412,53 @@
       </c>
       <c r="D51" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="E51" s="21" t="str">
+        <f>"18.12.2022"</f>
+        <v>18.12.2022</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>418</v>
+      </c>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
       <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="15"/>
-      <c r="AD51" s="15"/>
-      <c r="AE51" s="15"/>
-      <c r="AF51" s="15"/>
-      <c r="AG51" s="15"/>
-      <c r="AH51" s="15"/>
-      <c r="AI51" s="15"/>
-      <c r="AJ51" s="15"/>
-      <c r="AK51" s="15"/>
-      <c r="AL51" s="15"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17"/>
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="17"/>
+      <c r="AD51" s="17"/>
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="17"/>
+      <c r="AH51" s="17"/>
+      <c r="AI51" s="17"/>
+      <c r="AJ51" s="17"/>
+      <c r="AK51" s="17"/>
+      <c r="AL51" s="17"/>
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
@@ -6448,7 +6470,7 @@
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B52" s="13" t="str">
         <f t="shared" si="4"/>
@@ -6509,7 +6531,7 @@
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="B53" s="13" t="str">
         <f t="shared" si="4"/>
@@ -6569,11 +6591,24 @@
       <c r="AT53" s="3"/>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
+      <c r="A54" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="C54" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="D54" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>469</v>
+      </c>
       <c r="F54" s="13"/>
       <c r="G54" s="12"/>
       <c r="H54" s="15"/>
@@ -6607,54 +6642,54 @@
       <c r="AJ54" s="15"/>
       <c r="AK54" s="15"/>
       <c r="AL54" s="15"/>
-      <c r="AM54" s="4"/>
-      <c r="AN54" s="4"/>
-      <c r="AO54" s="4"/>
-      <c r="AP54" s="4"/>
-      <c r="AQ54" s="4"/>
-      <c r="AR54" s="4"/>
-      <c r="AS54" s="4"/>
-      <c r="AT54" s="4"/>
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="3"/>
+      <c r="AQ54" s="3"/>
+      <c r="AR54" s="3"/>
+      <c r="AS54" s="3"/>
+      <c r="AT54" s="3"/>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-      <c r="AG55" s="4"/>
-      <c r="AH55" s="4"/>
-      <c r="AI55" s="4"/>
-      <c r="AJ55" s="4"/>
-      <c r="AK55" s="4"/>
-      <c r="AL55" s="4"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="15"/>
+      <c r="AF55" s="15"/>
+      <c r="AG55" s="15"/>
+      <c r="AH55" s="15"/>
+      <c r="AI55" s="15"/>
+      <c r="AJ55" s="15"/>
+      <c r="AK55" s="15"/>
+      <c r="AL55" s="15"/>
       <c r="AM55" s="4"/>
       <c r="AN55" s="4"/>
       <c r="AO55" s="4"/>
@@ -14585,52 +14620,52 @@
       <c r="AT220" s="4"/>
     </row>
     <row r="221" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="7"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="7"/>
-      <c r="E221" s="7"/>
-      <c r="F221" s="7"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
+      <c r="A221" s="4"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="4"/>
+      <c r="I221" s="4"/>
+      <c r="J221" s="2"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
       <c r="M221" s="3"/>
       <c r="N221" s="3"/>
       <c r="O221" s="3"/>
-      <c r="P221" s="3"/>
-      <c r="Q221" s="3"/>
-      <c r="R221" s="3"/>
-      <c r="S221" s="3"/>
-      <c r="T221" s="3"/>
-      <c r="U221" s="3"/>
-      <c r="V221" s="3"/>
-      <c r="W221" s="3"/>
-      <c r="X221" s="3"/>
-      <c r="Y221" s="3"/>
-      <c r="Z221" s="3"/>
-      <c r="AA221" s="3"/>
-      <c r="AB221" s="3"/>
-      <c r="AC221" s="3"/>
-      <c r="AD221" s="3"/>
-      <c r="AE221" s="3"/>
-      <c r="AF221" s="3"/>
-      <c r="AG221" s="3"/>
-      <c r="AH221" s="3"/>
-      <c r="AI221" s="3"/>
-      <c r="AJ221" s="3"/>
-      <c r="AK221" s="3"/>
-      <c r="AL221" s="3"/>
-      <c r="AM221" s="3"/>
-      <c r="AN221" s="3"/>
-      <c r="AO221" s="3"/>
-      <c r="AP221" s="3"/>
-      <c r="AQ221" s="3"/>
-      <c r="AR221" s="3"/>
-      <c r="AS221" s="3"/>
-      <c r="AT221" s="3"/>
+      <c r="P221" s="2"/>
+      <c r="Q221" s="2"/>
+      <c r="R221" s="2"/>
+      <c r="S221" s="2"/>
+      <c r="T221" s="2"/>
+      <c r="U221" s="2"/>
+      <c r="V221" s="2"/>
+      <c r="W221" s="2"/>
+      <c r="X221" s="2"/>
+      <c r="Y221" s="2"/>
+      <c r="Z221" s="2"/>
+      <c r="AA221" s="2"/>
+      <c r="AB221" s="2"/>
+      <c r="AC221" s="2"/>
+      <c r="AD221" s="4"/>
+      <c r="AE221" s="4"/>
+      <c r="AF221" s="4"/>
+      <c r="AG221" s="4"/>
+      <c r="AH221" s="4"/>
+      <c r="AI221" s="4"/>
+      <c r="AJ221" s="4"/>
+      <c r="AK221" s="4"/>
+      <c r="AL221" s="4"/>
+      <c r="AM221" s="4"/>
+      <c r="AN221" s="4"/>
+      <c r="AO221" s="4"/>
+      <c r="AP221" s="4"/>
+      <c r="AQ221" s="4"/>
+      <c r="AR221" s="4"/>
+      <c r="AS221" s="4"/>
+      <c r="AT221" s="4"/>
     </row>
     <row r="222" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
@@ -51975,6 +52010,54 @@
       <c r="AR999" s="3"/>
       <c r="AS999" s="3"/>
       <c r="AT999" s="3"/>
+    </row>
+    <row r="1000" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A1000" s="3"/>
+      <c r="B1000" s="7"/>
+      <c r="C1000" s="7"/>
+      <c r="D1000" s="7"/>
+      <c r="E1000" s="7"/>
+      <c r="F1000" s="7"/>
+      <c r="G1000" s="3"/>
+      <c r="H1000" s="3"/>
+      <c r="I1000" s="3"/>
+      <c r="J1000" s="3"/>
+      <c r="K1000" s="3"/>
+      <c r="L1000" s="3"/>
+      <c r="M1000" s="3"/>
+      <c r="N1000" s="3"/>
+      <c r="O1000" s="3"/>
+      <c r="P1000" s="3"/>
+      <c r="Q1000" s="3"/>
+      <c r="R1000" s="3"/>
+      <c r="S1000" s="3"/>
+      <c r="T1000" s="3"/>
+      <c r="U1000" s="3"/>
+      <c r="V1000" s="3"/>
+      <c r="W1000" s="3"/>
+      <c r="X1000" s="3"/>
+      <c r="Y1000" s="3"/>
+      <c r="Z1000" s="3"/>
+      <c r="AA1000" s="3"/>
+      <c r="AB1000" s="3"/>
+      <c r="AC1000" s="3"/>
+      <c r="AD1000" s="3"/>
+      <c r="AE1000" s="3"/>
+      <c r="AF1000" s="3"/>
+      <c r="AG1000" s="3"/>
+      <c r="AH1000" s="3"/>
+      <c r="AI1000" s="3"/>
+      <c r="AJ1000" s="3"/>
+      <c r="AK1000" s="3"/>
+      <c r="AL1000" s="3"/>
+      <c r="AM1000" s="3"/>
+      <c r="AN1000" s="3"/>
+      <c r="AO1000" s="3"/>
+      <c r="AP1000" s="3"/>
+      <c r="AQ1000" s="3"/>
+      <c r="AR1000" s="3"/>
+      <c r="AS1000" s="3"/>
+      <c r="AT1000" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:AL53">
@@ -52030,7 +52113,7 @@
     <hyperlink ref="H44" r:id="rId45"/>
     <hyperlink ref="H47" r:id="rId46"/>
     <hyperlink ref="H48" r:id="rId47"/>
-    <hyperlink ref="H50" r:id="rId48"/>
+    <hyperlink ref="H51" r:id="rId48"/>
     <hyperlink ref="H40" r:id="rId49"/>
     <hyperlink ref="H38" r:id="rId50"/>
     <hyperlink ref="H46" r:id="rId51"/>
@@ -52191,18 +52274,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52224,18 +52307,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/data/conferences.xlsx
+++ b/docs/data/conferences.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="484">
   <si>
     <t>Conference</t>
   </si>
@@ -1412,12 +1412,6 @@
     <t>ISOQoL 2022</t>
   </si>
   <si>
-    <t>19.10.2022</t>
-  </si>
-  <si>
-    <t>22.10.2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">some PRO task force members delivering workshop on estimands and PROs (not just oncology) </t>
   </si>
   <si>
@@ -1443,9 +1437,6 @@
   </si>
   <si>
     <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>31.12.2022</t>
   </si>
   <si>
     <t>Sun et al</t>
@@ -1605,7 +1596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1709,6 +1700,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2066,9 +2060,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,15 +2237,15 @@
         <v>38</v>
       </c>
       <c r="B2" s="13" t="str">
-        <f t="shared" ref="B2:B44" si="0">MID(E2, 9, 2)</f>
+        <f>MID(E2, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C2" s="13" t="str">
-        <f t="shared" ref="C2:C33" si="1">MID(E2, 4, 2)</f>
+        <f>MID(E2, 4, 2)</f>
         <v>02</v>
       </c>
       <c r="D2" s="13" t="str">
-        <f t="shared" ref="D2:D44" si="2">MID(E2, 1, 2)</f>
+        <f>MID(E2, 1, 2)</f>
         <v>15</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -2320,15 +2314,15 @@
         <v>47</v>
       </c>
       <c r="B3" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E3, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C3" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E3, 4, 2)</f>
         <v>03</v>
       </c>
       <c r="D3" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E3, 1, 2)</f>
         <v>18</v>
       </c>
       <c r="E3" s="31" t="s">
@@ -2415,15 +2409,15 @@
         <v>65</v>
       </c>
       <c r="B4" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E4, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C4" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E4, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D4" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E4, 1, 2)</f>
         <v>29</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -2510,15 +2504,15 @@
         <v>84</v>
       </c>
       <c r="B5" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E5, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C5" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E5, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D5" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E5, 1, 2)</f>
         <v>02</v>
       </c>
       <c r="E5" s="31" t="s">
@@ -2593,15 +2587,15 @@
         <v>93</v>
       </c>
       <c r="B6" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E6, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C6" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E6, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D6" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E6, 1, 2)</f>
         <v>23</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -2670,15 +2664,15 @@
         <v>102</v>
       </c>
       <c r="B7" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E7, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C7" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E7, 4, 2)</f>
         <v>07</v>
       </c>
       <c r="D7" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E7, 1, 2)</f>
         <v>14</v>
       </c>
       <c r="E7" s="31" t="s">
@@ -2747,15 +2741,15 @@
         <v>111</v>
       </c>
       <c r="B8" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E8, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C8" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E8, 4, 2)</f>
         <v>07</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E8, 1, 2)</f>
         <v>27</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -2842,15 +2836,15 @@
         <v>127</v>
       </c>
       <c r="B9" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E9, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C9" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E9, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D9" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E9, 1, 2)</f>
         <v>23</v>
       </c>
       <c r="E9" s="31" t="s">
@@ -2919,15 +2913,15 @@
         <v>135</v>
       </c>
       <c r="B10" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E10, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C10" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E10, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D10" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E10, 1, 2)</f>
         <v>23</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -3008,15 +3002,15 @@
         <v>148</v>
       </c>
       <c r="B11" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E11, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C11" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E11, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D11" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E11, 1, 2)</f>
         <v>27</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -3091,15 +3085,15 @@
         <v>161</v>
       </c>
       <c r="B12" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E12, 9, 2)</f>
         <v>19</v>
       </c>
       <c r="C12" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E12, 4, 2)</f>
         <v>10</v>
       </c>
       <c r="D12" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E12, 1, 2)</f>
         <v>20</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -3168,15 +3162,15 @@
         <v>168</v>
       </c>
       <c r="B13" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E13, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C13" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E13, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D13" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E13, 1, 2)</f>
         <v>06</v>
       </c>
       <c r="E13" s="31" t="s">
@@ -3245,15 +3239,15 @@
         <v>174</v>
       </c>
       <c r="B14" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E14, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C14" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E14, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D14" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E14, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3326,15 +3320,15 @@
         <v>181</v>
       </c>
       <c r="B15" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E15, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C15" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E15, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D15" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E15, 1, 2)</f>
         <v>11</v>
       </c>
       <c r="E15" s="31" t="s">
@@ -3403,15 +3397,15 @@
         <v>186</v>
       </c>
       <c r="B16" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E16, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C16" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E16, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D16" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E16, 1, 2)</f>
         <v>29</v>
       </c>
       <c r="E16" s="13" t="s">
@@ -3522,15 +3516,15 @@
         <v>111</v>
       </c>
       <c r="B17" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E17, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C17" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E17, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D17" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E17, 1, 2)</f>
         <v>01</v>
       </c>
       <c r="E17" s="13" t="s">
@@ -3615,15 +3609,15 @@
         <v>222</v>
       </c>
       <c r="B18" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E18, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C18" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E18, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D18" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E18, 1, 2)</f>
         <v>06</v>
       </c>
       <c r="E18" s="13" t="s">
@@ -3692,15 +3686,15 @@
         <v>229</v>
       </c>
       <c r="B19" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E19, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C19" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E19, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D19" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E19, 1, 2)</f>
         <v>07</v>
       </c>
       <c r="E19" s="13" t="s">
@@ -3775,15 +3769,15 @@
         <v>135</v>
       </c>
       <c r="B20" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E20, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C20" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E20, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D20" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E20, 1, 2)</f>
         <v>22</v>
       </c>
       <c r="E20" s="21" t="s">
@@ -3852,15 +3846,15 @@
         <v>241</v>
       </c>
       <c r="B21" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E21, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C21" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E21, 4, 2)</f>
         <v>11</v>
       </c>
       <c r="D21" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E21, 1, 2)</f>
         <v>05</v>
       </c>
       <c r="E21" s="32" t="s">
@@ -3929,15 +3923,15 @@
         <v>247</v>
       </c>
       <c r="B22" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E22, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C22" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E22, 4, 2)</f>
         <v>11</v>
       </c>
       <c r="D22" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E22, 1, 2)</f>
         <v>17</v>
       </c>
       <c r="E22" s="33" t="s">
@@ -4012,15 +4006,15 @@
         <v>253</v>
       </c>
       <c r="B23" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E23, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C23" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E23, 4, 2)</f>
         <v>11</v>
       </c>
       <c r="D23" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E23, 1, 2)</f>
         <v>27</v>
       </c>
       <c r="E23" s="21" t="s">
@@ -4095,15 +4089,15 @@
         <v>259</v>
       </c>
       <c r="B24" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E24, 9, 2)</f>
         <v>20</v>
       </c>
       <c r="C24" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E24, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D24" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E24, 1, 2)</f>
         <v>09</v>
       </c>
       <c r="E24" s="21" t="s">
@@ -4176,15 +4170,15 @@
         <v>264</v>
       </c>
       <c r="B25" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E25, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C25" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E25, 4, 2)</f>
         <v>02</v>
       </c>
       <c r="D25" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E25, 1, 2)</f>
         <v>11</v>
       </c>
       <c r="E25" s="21" t="s">
@@ -4259,15 +4253,15 @@
         <v>270</v>
       </c>
       <c r="B26" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E26, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C26" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E26, 4, 2)</f>
         <v>04</v>
       </c>
       <c r="D26" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E26, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E26" s="21" t="s">
@@ -4336,15 +4330,15 @@
         <v>276</v>
       </c>
       <c r="B27" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E27, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C27" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E27, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D27" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E27, 1, 2)</f>
         <v>20</v>
       </c>
       <c r="E27" s="21" t="s">
@@ -4435,15 +4429,15 @@
         <v>281</v>
       </c>
       <c r="B28" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E28, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C28" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E28, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D28" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E28, 1, 2)</f>
         <v>01</v>
       </c>
       <c r="E28" s="21" t="s">
@@ -4548,15 +4542,15 @@
         <v>111</v>
       </c>
       <c r="B29" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E29, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C29" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E29, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D29" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E29, 1, 2)</f>
         <v>08</v>
       </c>
       <c r="E29" s="21" t="s">
@@ -4639,15 +4633,15 @@
         <v>135</v>
       </c>
       <c r="B30" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E30, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C30" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E30, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D30" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E30, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E30" s="21" t="s">
@@ -4720,15 +4714,15 @@
         <v>135</v>
       </c>
       <c r="B31" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E31, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C31" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E31, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D31" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E31, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E31" s="21" t="s">
@@ -4817,15 +4811,15 @@
         <v>135</v>
       </c>
       <c r="B32" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E32, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C32" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E32, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D32" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E32, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E32" s="21" t="s">
@@ -4908,15 +4902,15 @@
         <v>329</v>
       </c>
       <c r="B33" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E33, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C33" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>MID(E33, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D33" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E33, 1, 2)</f>
         <v>28</v>
       </c>
       <c r="E33" s="21" t="s">
@@ -5021,15 +5015,15 @@
         <v>334</v>
       </c>
       <c r="B34" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E34, 9, 2)</f>
         <v>21</v>
       </c>
       <c r="C34" s="13" t="str">
-        <f t="shared" ref="C34:C54" si="3">MID(E34, 4, 2)</f>
+        <f>MID(E34, 4, 2)</f>
         <v>10</v>
       </c>
       <c r="D34" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E34, 1, 2)</f>
         <v>12</v>
       </c>
       <c r="E34" s="21" t="s">
@@ -5102,15 +5096,15 @@
         <v>47</v>
       </c>
       <c r="B35" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E35, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C35" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E35, 4, 2)</f>
         <v>03</v>
       </c>
       <c r="D35" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E35, 1, 2)</f>
         <v>28</v>
       </c>
       <c r="E35" s="21" t="s">
@@ -5177,15 +5171,15 @@
         <v>350</v>
       </c>
       <c r="B36" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E36, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C36" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E36, 4, 2)</f>
         <v>04</v>
       </c>
       <c r="D36" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E36, 1, 2)</f>
         <v>26</v>
       </c>
       <c r="E36" s="21" t="s">
@@ -5254,15 +5248,15 @@
         <v>276</v>
       </c>
       <c r="B37" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E37, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C37" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E37, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D37" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E37, 1, 2)</f>
         <v>15</v>
       </c>
       <c r="E37" s="21" t="s">
@@ -5343,15 +5337,15 @@
         <v>365</v>
       </c>
       <c r="B38" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E38, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C38" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E38, 4, 2)</f>
         <v>05</v>
       </c>
       <c r="D38" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E38, 1, 2)</f>
         <v>26</v>
       </c>
       <c r="E38" s="21" t="s">
@@ -5418,15 +5412,15 @@
         <v>84</v>
       </c>
       <c r="B39" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E39, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C39" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E39, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D39" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E39, 1, 2)</f>
         <v>12</v>
       </c>
       <c r="E39" s="21" t="s">
@@ -5533,15 +5527,15 @@
         <v>396</v>
       </c>
       <c r="B40" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E40, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C40" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E40, 4, 2)</f>
         <v>06</v>
       </c>
       <c r="D40" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E40, 1, 2)</f>
         <v>19</v>
       </c>
       <c r="E40" s="21" t="s">
@@ -5612,15 +5606,15 @@
         <v>406</v>
       </c>
       <c r="B41" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E41, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C41" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E41, 4, 2)</f>
         <v>07</v>
       </c>
       <c r="D41" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E41, 1, 2)</f>
         <v>11</v>
       </c>
       <c r="E41" s="21" t="s">
@@ -5685,15 +5679,15 @@
         <v>413</v>
       </c>
       <c r="B42" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E42, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C42" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E42, 4, 2)</f>
         <v>07</v>
       </c>
       <c r="D42" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E42, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E42" s="21" t="s">
@@ -5762,15 +5756,15 @@
         <v>111</v>
       </c>
       <c r="B43" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E43, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C43" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E43, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D43" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E43, 1, 2)</f>
         <v>06</v>
       </c>
       <c r="E43" s="21" t="s">
@@ -5843,15 +5837,15 @@
         <v>102</v>
       </c>
       <c r="B44" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(E44, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C44" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E44, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D44" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(E44, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E44" s="21" t="s">
@@ -5887,7 +5881,7 @@
         <v>435</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
@@ -5927,7 +5921,7 @@
         <v>22</v>
       </c>
       <c r="C45" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E45, 4, 2)</f>
         <v>08</v>
       </c>
       <c r="D45" s="13">
@@ -6001,15 +5995,15 @@
         <v>127</v>
       </c>
       <c r="B46" s="13" t="str">
-        <f t="shared" ref="B46:B54" si="4">MID(E46, 9, 2)</f>
+        <f>MID(E46, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C46" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E46, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D46" s="13" t="str">
-        <f t="shared" ref="D46:D54" si="5">MID(E46, 1, 2)</f>
+        <f>MID(E46, 1, 2)</f>
         <v>14</v>
       </c>
       <c r="E46" s="21" t="s">
@@ -6070,15 +6064,15 @@
         <v>135</v>
       </c>
       <c r="B47" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E47, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C47" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E47, 4, 2)</f>
         <v>09</v>
       </c>
       <c r="D47" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E47, 1, 2)</f>
         <v>20</v>
       </c>
       <c r="E47" s="21" t="s">
@@ -6121,16 +6115,16 @@
         <v>455</v>
       </c>
       <c r="T47" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="U47" t="s">
+        <v>472</v>
+      </c>
+      <c r="V47" t="s">
+        <v>473</v>
+      </c>
+      <c r="W47" t="s">
         <v>474</v>
-      </c>
-      <c r="U47" t="s">
-        <v>475</v>
-      </c>
-      <c r="V47" t="s">
-        <v>476</v>
-      </c>
-      <c r="W47" t="s">
-        <v>477</v>
       </c>
       <c r="X47" s="17" t="s">
         <v>72</v>
@@ -6142,13 +6136,13 @@
         <v>456</v>
       </c>
       <c r="AA47" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AB47" s="12" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AC47" s="12" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AD47" s="17"/>
       <c r="AE47" s="17"/>
@@ -6173,34 +6167,36 @@
         <v>457</v>
       </c>
       <c r="B48" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E48, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C48" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E48, 4, 2)</f>
         <v>10</v>
       </c>
       <c r="D48" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E48, 1, 2)</f>
         <v>19</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="21" t="str">
+        <f>"19.10.2022"</f>
+        <v>19.10.2022</v>
+      </c>
+      <c r="F48" s="21" t="str">
+        <f>"22.10.2022"</f>
+        <v>22.10.2022</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="H48" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="I48" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="J48" s="12" t="s">
         <v>461</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>463</v>
       </c>
       <c r="K48" s="15" t="s">
         <v>348</v>
@@ -6208,7 +6204,7 @@
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
       <c r="N48" s="15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="O48" s="15" t="s">
         <v>165</v>
@@ -6247,18 +6243,18 @@
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B49" s="13" t="str">
-        <f t="shared" ref="B49" si="6">MID(E49, 9, 2)</f>
+        <f>MID(E49, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C49" s="13" t="str">
-        <f t="shared" ref="C49:C50" si="7">MID(E49, 4, 2)</f>
+        <f>MID(E49, 4, 2)</f>
         <v>10</v>
       </c>
       <c r="D49" s="13" t="str">
-        <f t="shared" ref="D49:D50" si="8">MID(E49, 1, 2)</f>
+        <f>MID(E49, 1, 2)</f>
         <v>21</v>
       </c>
       <c r="E49" s="21" t="str">
@@ -6271,7 +6267,7 @@
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="19" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="12" t="s">
@@ -6283,16 +6279,16 @@
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
       <c r="N49" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q49" s="12" t="s">
         <v>479</v>
-      </c>
-      <c r="O49" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="P49" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q49" s="12" t="s">
-        <v>482</v>
       </c>
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
@@ -6326,17 +6322,17 @@
     </row>
     <row r="50" spans="1:46" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B50" s="13">
         <v>22</v>
       </c>
       <c r="C50" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f>MID(E50, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D50" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E50, 1, 2)</f>
         <v>02</v>
       </c>
       <c r="E50" s="21" t="str">
@@ -6349,10 +6345,10 @@
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="19" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J50" s="12" t="s">
         <v>70</v>
@@ -6363,7 +6359,7 @@
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
       <c r="N50" s="15" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="O50" s="15"/>
       <c r="P50" s="12"/>
@@ -6400,18 +6396,18 @@
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B51" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(E51, 9, 2)</f>
         <v>22</v>
       </c>
       <c r="C51" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E51, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D51" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E51, 1, 2)</f>
         <v>18</v>
       </c>
       <c r="E51" s="21" t="str">
@@ -6419,14 +6415,14 @@
         <v>18.12.2022</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J51" s="17" t="s">
         <v>418</v>
@@ -6472,31 +6468,44 @@
       <c r="A52" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="B52" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>22</v>
+      <c r="B52" s="13">
+        <v>23</v>
       </c>
       <c r="C52" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f>MID(E52, 4, 2)</f>
+        <v>03</v>
       </c>
       <c r="D52" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="F52" s="13"/>
+        <f>MID(E52, 1, 2)</f>
+        <v>29</v>
+      </c>
+      <c r="E52" s="13" t="str">
+        <f>"29.03.2023"</f>
+        <v>29.03.2023</v>
+      </c>
+      <c r="F52" s="13" t="str">
+        <f>"31.03.2023"</f>
+        <v>31.03.2023</v>
+      </c>
       <c r="G52" s="12"/>
-      <c r="H52" s="15"/>
+      <c r="H52" s="15" t="s">
+        <v>273</v>
+      </c>
       <c r="I52" s="15"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="15"/>
+      <c r="J52" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
+      <c r="N52" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="O52" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
       <c r="R52" s="15"/>
@@ -6534,19 +6543,20 @@
         <v>259</v>
       </c>
       <c r="B53" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f>MID(E53, 9, 2)</f>
+        <v>29</v>
       </c>
       <c r="C53" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E53, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D53" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E53, 1, 2)</f>
         <v>31</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>469</v>
+      <c r="E53" s="36" t="str">
+        <f>"31.12.2029"</f>
+        <v>31.12.2029</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="12"/>
@@ -6595,19 +6605,20 @@
         <v>65</v>
       </c>
       <c r="B54" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f>MID(E54, 9, 2)</f>
+        <v>29</v>
       </c>
       <c r="C54" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>MID(E54, 4, 2)</f>
         <v>12</v>
       </c>
       <c r="D54" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f>MID(E54, 1, 2)</f>
         <v>31</v>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>469</v>
+      <c r="E54" s="36" t="str">
+        <f>"31.12.2029"</f>
+        <v>31.12.2029</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="12"/>
@@ -52060,10 +52071,10 @@
       <c r="AT1000" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:AL53">
-    <sortCondition ref="B2:B53"/>
-    <sortCondition ref="C2:C53"/>
-    <sortCondition ref="D2:D53"/>
+  <sortState ref="A2:AT1000">
+    <sortCondition ref="B2:B1000"/>
+    <sortCondition ref="C2:C1000"/>
+    <sortCondition ref="D2:D1000"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
@@ -52274,18 +52285,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52307,18 +52318,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A132CF7F-F899-4C4B-AD06-2F0C6556A03D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0880FD27-D364-4010-A58C-A198A255EE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>